--- a/tests/regression_data_windows/performance_analysis_moustapha_windows.xlsx
+++ b/tests/regression_data_windows/performance_analysis_moustapha_windows.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0233659352324</v>
+        <v>2.023365936149509</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999961393</v>
+        <v>2.299999999980948</v>
       </c>
       <c r="D2" t="n">
-        <v>2.698749322951342</v>
+        <v>2.698749320298974</v>
       </c>
       <c r="E2" t="n">
-        <v>89.45650417135211</v>
+        <v>89.45650416622685</v>
       </c>
       <c r="F2" t="n">
-        <v>76.74201865304187</v>
+        <v>76.74201868994311</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1421303642042159</v>
+        <v>0.1421303637425609</v>
       </c>
       <c r="H2" t="n">
-        <v>-75.88414901724609</v>
+        <v>-75.88414905368568</v>
       </c>
       <c r="I2" t="n">
-        <v>130144.239398623</v>
+        <v>130144.2393332951</v>
       </c>
       <c r="J2" t="n">
-        <v>79.99031309073325</v>
+        <v>79.99031305058087</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-23.88251798869469</v>
+        <v>-23.882517901467</v>
       </c>
       <c r="M2" t="n">
-        <v>133.6512498519467</v>
+        <v>133.6512496348898</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>373560.5229649935</v>
+        <v>373560.5229418052</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7105513117226026</v>
+        <v>0.7105513113734327</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.078590353184963</v>
+        <v>2.07859035035003</v>
       </c>
       <c r="C3" t="n">
-        <v>2.400000000184951</v>
+        <v>2.4000000001164</v>
       </c>
       <c r="D3" t="n">
-        <v>2.701005597172957</v>
+        <v>2.701005601808208</v>
       </c>
       <c r="E3" t="n">
-        <v>89.42866543359041</v>
+        <v>89.42866545559373</v>
       </c>
       <c r="F3" t="n">
-        <v>75.90048155532621</v>
+        <v>75.90048145381807</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1512734626271509</v>
+        <v>0.1512734639710478</v>
       </c>
       <c r="H3" t="n">
-        <v>-75.05175501795335</v>
+        <v>-75.05175491778913</v>
       </c>
       <c r="I3" t="n">
-        <v>134617.2627899181</v>
+        <v>134617.2628409025</v>
       </c>
       <c r="J3" t="n">
-        <v>82.7395591824942</v>
+        <v>82.73955921383069</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.41972781879678</v>
+        <v>-26.41972814706844</v>
       </c>
       <c r="M3" t="n">
-        <v>140.9489165621327</v>
+        <v>140.9489171882201</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>371944.7480717101</v>
+        <v>371944.7481383649</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6983018877168223</v>
+        <v>0.6983018883160076</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>79.34035770271541</v>
+        <v>79.3403576210075</v>
       </c>
       <c r="D2" t="n">
-        <v>79.34035770271541</v>
+        <v>79.3403576210075</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.34035770271541</v>
+        <v>79.3403576210075</v>
       </c>
       <c r="H2" t="n">
-        <v>79.34035770271541</v>
+        <v>79.3403576210075</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3264,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.461768295109</v>
+        <v>292.4617683013733</v>
       </c>
       <c r="L2" t="n">
-        <v>132946.0768743211</v>
+        <v>132946.0768842749</v>
       </c>
       <c r="M2" t="n">
-        <v>1.584411363851247</v>
+        <v>1.584411363935867</v>
       </c>
       <c r="N2" t="n">
-        <v>334728.1718895513</v>
+        <v>334728.1718940324</v>
       </c>
       <c r="O2" t="n">
-        <v>418636.9849083922</v>
+        <v>418636.9849146743</v>
       </c>
       <c r="P2" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687721.7119195272</v>
+        <v>-687721.7119369422</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7178602727485</v>
+        <v>717.7178602730323</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.653407017802</v>
+        <v>1006.653407018132</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402575388935218</v>
+        <v>1.402575388935122</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994987285256266</v>
+        <v>0.9994987285256705</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9723774414937</v>
+        <v>342.9723774451701</v>
       </c>
       <c r="W2" t="n">
-        <v>186374.3906246714</v>
+        <v>186374.3906386209</v>
       </c>
       <c r="X2" t="n">
-        <v>5.365544035574296e-06</v>
+        <v>5.365544035172704e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132880.1233038602</v>
+        <v>132880.1233138149</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.525580012544659e-06</v>
+        <v>7.525580011980879e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003432178763326533</v>
+        <v>0.003432178763253136</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817675808643606e-05</v>
+        <v>1.817675808674252e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02583254416760121</v>
+        <v>0.02583254416807327</v>
       </c>
       <c r="AD2" t="n">
-        <v>132946.0768743211</v>
+        <v>132946.0768842749</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.584411363851247</v>
+        <v>1.584411363935867</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.584411363851247</v>
+        <v>1.584411363935867</v>
       </c>
       <c r="AG2" t="n">
-        <v>334728.1718895513</v>
+        <v>334728.1718940324</v>
       </c>
       <c r="AH2" t="n">
-        <v>418636.9849083922</v>
+        <v>418636.9849146743</v>
       </c>
       <c r="AI2" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7178602727485</v>
+        <v>717.7178602730323</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.653407017802</v>
+        <v>1006.653407018132</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9723774414937</v>
+        <v>342.9723774451701</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994987285256266</v>
+        <v>0.9994987285256705</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817675808643606e-05</v>
+        <v>1.817675808674252e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02583254416760121</v>
+        <v>0.02583254416807327</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2313316258719691</v>
+        <v>0.2313316256312548</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2313316258719691</v>
+        <v>0.2313316256312548</v>
       </c>
       <c r="DH2" t="n">
-        <v>180918.6819740037</v>
+        <v>180918.6817942985</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.698749322956272</v>
+        <v>2.698749320321125</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3625,121 +3625,121 @@
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>260.883350215151</v>
+        <v>260.8833505949424</v>
       </c>
       <c r="DU2" t="n">
-        <v>107.6895039105495</v>
+        <v>107.6895039166554</v>
       </c>
       <c r="DV2" t="n">
-        <v>237.6196396912109</v>
+        <v>237.6196401054178</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.61990965871263</v>
+        <v>65.61990969504215</v>
       </c>
       <c r="DX2" t="n">
-        <v>260.883350215151</v>
+        <v>260.8833505949424</v>
       </c>
       <c r="DY2" t="n">
-        <v>107.6895039105495</v>
+        <v>107.6895039166554</v>
       </c>
       <c r="DZ2" t="n">
-        <v>237.6196396912109</v>
+        <v>237.6196401054178</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.61990965871263</v>
+        <v>65.61990969504214</v>
       </c>
       <c r="EB2" t="n">
-        <v>261.6409615903474</v>
+        <v>261.6409614914152</v>
       </c>
       <c r="EC2" t="n">
-        <v>87611.96842866842</v>
+        <v>87611.96830411689</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.16731677454807</v>
+        <v>1.167316773330411</v>
       </c>
       <c r="EE2" t="n">
-        <v>312700.2197638663</v>
+        <v>312700.2196931929</v>
       </c>
       <c r="EF2" t="n">
-        <v>387754.3698788491</v>
+        <v>387754.3697797678</v>
       </c>
       <c r="EG2" t="n">
-        <v>3790.970718673117</v>
+        <v>3790.970718702231</v>
       </c>
       <c r="EH2" t="n">
-        <v>-604118.8543156356</v>
+        <v>-604118.8540472853</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.5914381287691</v>
+        <v>716.5914381259814</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.259824302659</v>
+        <v>1005.259824299026</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402835382638241</v>
+        <v>1.402835382638629</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993387893147196</v>
+        <v>0.9993387893143414</v>
       </c>
       <c r="EM2" t="n">
-        <v>324.3752177503918</v>
+        <v>324.375217688986</v>
       </c>
       <c r="EN2" t="n">
-        <v>122824.2327568158</v>
+        <v>122824.2325821921</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.141715828829453e-06</v>
+        <v>8.141715840404824e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>87554.27349275045</v>
+        <v>87554.27336824723</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.142148704006779e-05</v>
+        <v>1.142148705630928e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003835327308217164</v>
+        <v>0.003835327309663233</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.663475963029623e-05</v>
+        <v>1.663475962523391e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02346872914898582</v>
+        <v>0.02346872914126404</v>
       </c>
       <c r="EU2" t="n">
-        <v>87611.96842866842</v>
+        <v>87611.96830411689</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.16731677454807</v>
+        <v>1.167316773330411</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.16731677454807</v>
+        <v>1.167316773330411</v>
       </c>
       <c r="EX2" t="n">
-        <v>312700.2197638663</v>
+        <v>312700.2196931929</v>
       </c>
       <c r="EY2" t="n">
-        <v>387754.3698788491</v>
+        <v>387754.3697797678</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3790.970718673117</v>
+        <v>3790.970718702231</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.5914381287691</v>
+        <v>716.5914381259814</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.259824302659</v>
+        <v>1005.259824299026</v>
       </c>
       <c r="FC2" t="n">
-        <v>324.3752177503918</v>
+        <v>324.375217688986</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993387893147196</v>
+        <v>0.9993387893143414</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.663475963029623e-05</v>
+        <v>1.663475962523391e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02346872914898582</v>
+        <v>0.02346872914126404</v>
       </c>
       <c r="FG2" t="inlineStr">
         <is>
@@ -3750,97 +3750,97 @@
         <v>1</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.5911436439146</v>
+        <v>295.5911436438831</v>
       </c>
       <c r="FJ2" t="n">
-        <v>134180.3380620009</v>
+        <v>134180.3380483853</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.582135350284091</v>
+        <v>1.582135350123644</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.7856698793</v>
+        <v>336974.7856698844</v>
       </c>
       <c r="FM2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="FN2" t="n">
-        <v>3790.970718678343</v>
+        <v>3790.970718707455</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698792.9391661343</v>
+        <v>-698792.9391746203</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.85328728362</v>
+        <v>717.8532872835846</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.758869097741</v>
+        <v>1006.758869097517</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.402457698434939</v>
+        <v>1.402457698434697</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995340644356763</v>
+        <v>0.9995340644357226</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8001391115942</v>
+        <v>344.8001391115619</v>
       </c>
       <c r="FU2" t="n">
-        <v>188095.5404510579</v>
+        <v>188095.5404319475</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.316447150219376e-06</v>
+        <v>5.316447150759524e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>134118.5125661626</v>
+        <v>134118.5125525594</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.456092234147658e-06</v>
+        <v>7.456092234903904e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395546720596667</v>
+        <v>0.003395546720595766</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.832897112376857e-05</v>
+        <v>1.832897112376508e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606674897541101</v>
+        <v>0.0260667489754043</v>
       </c>
       <c r="GB2" t="n">
-        <v>134180.3380620009</v>
+        <v>134180.3380483853</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.582135350284091</v>
+        <v>1.582135350123644</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.582135350284091</v>
+        <v>1.582135350123644</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.7856698793</v>
+        <v>336974.7856698844</v>
       </c>
       <c r="GF2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GG2" t="n">
-        <v>3790.970718678343</v>
+        <v>3790.970718707455</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.85328728362</v>
+        <v>717.8532872835846</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.758869097741</v>
+        <v>1006.758869097517</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.8001391115942</v>
+        <v>344.8001391115619</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995340644356763</v>
+        <v>0.9995340644357226</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.832897112376857e-05</v>
+        <v>1.832897112376508e-05</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606674897541101</v>
+        <v>0.0260667489754043</v>
       </c>
       <c r="GN2" t="inlineStr">
         <is>
@@ -3851,97 +3851,97 @@
         <v>1</v>
       </c>
       <c r="GP2" t="n">
-        <v>295.5911436439146</v>
+        <v>295.5911436438831</v>
       </c>
       <c r="GQ2" t="n">
-        <v>134180.3380620009</v>
+        <v>134180.3380483853</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.582135350284091</v>
+        <v>1.582135350123644</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.7856698793</v>
+        <v>336974.7856698844</v>
       </c>
       <c r="GT2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GU2" t="n">
-        <v>3790.970718678343</v>
+        <v>3790.970718707455</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698792.9391661343</v>
+        <v>-698792.9391746203</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.85328728362</v>
+        <v>717.8532872835846</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.758869097741</v>
+        <v>1006.758869097517</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.402457698434939</v>
+        <v>1.402457698434697</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995340644356763</v>
+        <v>0.9995340644357226</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.8001391115942</v>
+        <v>344.8001391115619</v>
       </c>
       <c r="HB2" t="n">
-        <v>188095.5404510579</v>
+        <v>188095.5404319475</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.316447150219376e-06</v>
+        <v>5.316447150759524e-06</v>
       </c>
       <c r="HD2" t="n">
-        <v>134118.5125661626</v>
+        <v>134118.5125525594</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.456092234147658e-06</v>
+        <v>7.456092234903904e-06</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395546720596667</v>
+        <v>0.003395546720595766</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.832897112376857e-05</v>
+        <v>1.832897112376508e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606674897541101</v>
+        <v>0.0260667489754043</v>
       </c>
       <c r="HI2" t="n">
-        <v>134180.3380620009</v>
+        <v>134180.3380483853</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.582135350284091</v>
+        <v>1.582135350123644</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.582135350284091</v>
+        <v>1.582135350123644</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.7856698793</v>
+        <v>336974.7856698844</v>
       </c>
       <c r="HM2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="HN2" t="n">
-        <v>3790.970718678343</v>
+        <v>3790.970718707455</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.85328728362</v>
+        <v>717.8532872835846</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.758869097741</v>
+        <v>1006.758869097517</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.8001391115942</v>
+        <v>344.8001391115619</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995340644356763</v>
+        <v>0.9995340644357226</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.832897112376857e-05</v>
+        <v>1.832897112376508e-05</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606674897541101</v>
+        <v>0.0260667489754043</v>
       </c>
       <c r="HU2" t="inlineStr">
         <is>
@@ -3952,22 +3952,22 @@
         <v>1</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.8042641235801864</v>
+        <v>0.8042641249032771</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8042641235801864</v>
+        <v>0.8042641249032771</v>
       </c>
       <c r="HY2" t="n">
-        <v>478912.6396995446</v>
+        <v>478912.6400429179</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.698749322985023</v>
+        <v>2.698749320322903</v>
       </c>
       <c r="IA2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.01760218522435198</v>
+        <v>0.01760218526125072</v>
       </c>
       <c r="IC2" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.04914041453420952</v>
+        <v>0.04914041454241939</v>
       </c>
       <c r="IF2" t="n">
         <v>0</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.08202266829780464</v>
+        <v>0.08202266834291325</v>
       </c>
       <c r="IH2" t="n">
-        <v>2.079128536003338e-12</v>
+        <v>1.010302952408892e-14</v>
       </c>
       <c r="II2" t="n">
         <v>0</v>
@@ -3994,121 +3994,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK2" t="n">
-        <v>260.883350215151</v>
+        <v>260.8833505949424</v>
       </c>
       <c r="IL2" t="n">
-        <v>107.6895039105495</v>
+        <v>107.6895039166554</v>
       </c>
       <c r="IM2" t="n">
-        <v>237.6196396912109</v>
+        <v>237.6196401054178</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.61990965871263</v>
+        <v>65.61990969504215</v>
       </c>
       <c r="IO2" t="n">
-        <v>129.7177578518561</v>
+        <v>129.7177580878417</v>
       </c>
       <c r="IP2" t="n">
-        <v>107.6895039105495</v>
+        <v>107.6895039166554</v>
       </c>
       <c r="IQ2" t="n">
-        <v>72.31643969121086</v>
+        <v>72.31644010541783</v>
       </c>
       <c r="IR2" t="n">
-        <v>33.88243785226565</v>
+        <v>33.882438002647</v>
       </c>
       <c r="IS2" t="n">
-        <v>261.6409615902474</v>
+        <v>261.6409614915153</v>
       </c>
       <c r="IT2" t="n">
-        <v>87611.96842855071</v>
+        <v>87611.96830423331</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.167316774546948</v>
+        <v>1.167316773331515</v>
       </c>
       <c r="IV2" t="n">
-        <v>312700.2197637946</v>
+        <v>312700.2196932643</v>
       </c>
       <c r="IW2" t="n">
-        <v>387754.3698787487</v>
+        <v>387754.3697798679</v>
       </c>
       <c r="IX2" t="n">
-        <v>3790.970718673118</v>
+        <v>3790.970718702232</v>
       </c>
       <c r="IY2" t="n">
-        <v>-604118.8543153572</v>
+        <v>-604118.8540475653</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.5914381287662</v>
+        <v>716.5914381259842</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.259824302656</v>
+        <v>1005.25982429903</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402835382638242</v>
+        <v>1.402835382638628</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9993387893147192</v>
+        <v>0.9993387893143418</v>
       </c>
       <c r="JD2" t="n">
-        <v>324.3752177503297</v>
+        <v>324.3752176890482</v>
       </c>
       <c r="JE2" t="n">
-        <v>122824.2327566508</v>
+        <v>122824.2325823554</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.141715828840392e-06</v>
+        <v>8.141715840394001e-06</v>
       </c>
       <c r="JG2" t="n">
-        <v>87554.27349263277</v>
+        <v>87554.27336836362</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.142148704008314e-05</v>
+        <v>1.14214870562941e-05</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003835327308218627</v>
+        <v>0.003835327309661769</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.663475963029111e-05</v>
+        <v>1.663475962523904e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02346872914897801</v>
+        <v>0.02346872914127184</v>
       </c>
       <c r="JL2" t="n">
-        <v>87611.96842855071</v>
+        <v>87611.96830423331</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.167316774546948</v>
+        <v>1.167316773331515</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.167316774546948</v>
+        <v>1.167316773331515</v>
       </c>
       <c r="JO2" t="n">
-        <v>312700.2197637946</v>
+        <v>312700.2196932643</v>
       </c>
       <c r="JP2" t="n">
-        <v>387754.3698787487</v>
+        <v>387754.3697798679</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3790.970718673118</v>
+        <v>3790.970718702232</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.5914381287662</v>
+        <v>716.5914381259842</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.259824302656</v>
+        <v>1005.25982429903</v>
       </c>
       <c r="JT2" t="n">
-        <v>324.3752177503297</v>
+        <v>324.3752176890482</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.9993387893147192</v>
+        <v>0.9993387893143418</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.663475963029111e-05</v>
+        <v>1.663475962523904e-05</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02346872914897801</v>
+        <v>0.02346872914127184</v>
       </c>
       <c r="JX2" t="inlineStr">
         <is>
@@ -4119,97 +4119,97 @@
         <v>1</v>
       </c>
       <c r="JZ2" t="n">
-        <v>295.5911436439146</v>
+        <v>295.591143643883</v>
       </c>
       <c r="KA2" t="n">
-        <v>134180.3380620004</v>
+        <v>134180.3380483846</v>
       </c>
       <c r="KB2" t="n">
-        <v>1.582135350284084</v>
+        <v>1.582135350123635</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.7856698793</v>
+        <v>336974.7856698844</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KE2" t="n">
-        <v>3790.970718678343</v>
+        <v>3790.970718707456</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698792.9391661346</v>
+        <v>-698792.9391746204</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.85328728362</v>
+        <v>717.8532872835846</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.758869097741</v>
+        <v>1006.758869097517</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402457698434939</v>
+        <v>1.402457698434697</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.9995340644356763</v>
+        <v>0.9995340644357226</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.8001391115942</v>
+        <v>344.8001391115619</v>
       </c>
       <c r="KL2" t="n">
-        <v>188095.5404510571</v>
+        <v>188095.5404319465</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.316447150219397e-06</v>
+        <v>5.316447150759552e-06</v>
       </c>
       <c r="KN2" t="n">
-        <v>134118.5125661621</v>
+        <v>134118.5125525587</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.456092234147687e-06</v>
+        <v>7.456092234903944e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.003395546720596666</v>
+        <v>0.003395546720595767</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832897112376857e-05</v>
+        <v>1.832897112376508e-05</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.02606674897541101</v>
+        <v>0.0260667489754043</v>
       </c>
       <c r="KS2" t="n">
-        <v>134180.3380620004</v>
+        <v>134180.3380483846</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.582135350284084</v>
+        <v>1.582135350123635</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.582135350284084</v>
+        <v>1.582135350123635</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.7856698793</v>
+        <v>336974.7856698844</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KX2" t="n">
-        <v>3790.970718678343</v>
+        <v>3790.970718707456</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.85328728362</v>
+        <v>717.8532872835846</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.758869097741</v>
+        <v>1006.758869097517</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.8001391115942</v>
+        <v>344.8001391115619</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.9995340644356763</v>
+        <v>0.9995340644357226</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832897112376857e-05</v>
+        <v>1.832897112376508e-05</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.02606674897541101</v>
+        <v>0.0260667489754043</v>
       </c>
       <c r="LE2" t="inlineStr">
         <is>
@@ -4220,97 +4220,97 @@
         <v>1</v>
       </c>
       <c r="LG2" t="n">
-        <v>270.038388877497</v>
+        <v>270.0383888091378</v>
       </c>
       <c r="LH2" t="n">
-        <v>97831.94073443163</v>
+        <v>97831.94063803249</v>
       </c>
       <c r="LI2" t="n">
-        <v>1.262899131339386</v>
+        <v>1.262899130415043</v>
       </c>
       <c r="LJ2" t="n">
-        <v>318701.5625357862</v>
+        <v>318701.5624869489</v>
       </c>
       <c r="LK2" t="n">
-        <v>396167.7182300058</v>
+        <v>396167.7181615361</v>
       </c>
       <c r="LL2" t="n">
-        <v>3790.970718673118</v>
+        <v>3790.970718702232</v>
       </c>
       <c r="LM2" t="n">
-        <v>-627539.9069222501</v>
+        <v>-627539.9067394339</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.8434232413944</v>
+        <v>716.8434232391616</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.569873253917</v>
+        <v>1005.56987325104</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402774777101212</v>
+        <v>1.402774777101568</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993791075673831</v>
+        <v>0.9993791075670965</v>
       </c>
       <c r="LR2" t="n">
-        <v>329.5458189398134</v>
+        <v>329.5458188980481</v>
       </c>
       <c r="LS2" t="n">
-        <v>137151.4099024308</v>
+        <v>137151.4097672827</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.291211958458159e-06</v>
+        <v>7.291211965642867e-06</v>
       </c>
       <c r="LU2" t="n">
-        <v>97771.51125132831</v>
+        <v>97771.51115496019</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.022792822982384e-05</v>
+        <v>1.022792823990496e-05</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.003716282323612351</v>
+        <v>0.003716282324550044</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.706164668750183e-05</v>
+        <v>1.706164668404691e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.02412067791266771</v>
+        <v>0.02412067790738281</v>
       </c>
       <c r="LZ2" t="n">
-        <v>97831.94073443163</v>
+        <v>97831.94063803249</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.262899131339386</v>
+        <v>1.262899130415043</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.262899131339386</v>
+        <v>1.262899130415043</v>
       </c>
       <c r="MC2" t="n">
-        <v>318701.5625357862</v>
+        <v>318701.5624869489</v>
       </c>
       <c r="MD2" t="n">
-        <v>396167.7182300058</v>
+        <v>396167.7181615361</v>
       </c>
       <c r="ME2" t="n">
-        <v>3790.970718673118</v>
+        <v>3790.970718702232</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.8434232413944</v>
+        <v>716.8434232391616</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.569873253917</v>
+        <v>1005.56987325104</v>
       </c>
       <c r="MH2" t="n">
-        <v>329.5458189398134</v>
+        <v>329.5458188980481</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993791075673831</v>
+        <v>0.9993791075670965</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.706164668750183e-05</v>
+        <v>1.706164668404691e-05</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.02412067791266771</v>
+        <v>0.02412067790738281</v>
       </c>
       <c r="ML2" t="inlineStr">
         <is>
@@ -4321,139 +4321,139 @@
         <v>1</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.8042641235803403</v>
+        <v>0.804264124903123</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.3999003337909105</v>
+        <v>0.3999003345939683</v>
       </c>
       <c r="MP2" t="n">
-        <v>237217.1268300513</v>
+        <v>237217.1270866513</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.69874932298243</v>
+        <v>2.698749320325456</v>
       </c>
       <c r="MR2" t="n">
-        <v>382505.1442647856</v>
+        <v>382505.1441963157</v>
       </c>
       <c r="MS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT2" t="n">
-        <v>133.6512498519467</v>
+        <v>133.6512496348898</v>
       </c>
       <c r="MU2" t="n">
-        <v>122.2076995782868</v>
+        <v>122.2076994621931</v>
       </c>
       <c r="MV2" t="n">
-        <v>-54.11039411028796</v>
+        <v>-54.11039383635944</v>
       </c>
       <c r="MW2" t="n">
-        <v>-23.88251798869469</v>
+        <v>-23.882517901467</v>
       </c>
       <c r="MX2" t="n">
-        <v>251.1514425931314</v>
+        <v>251.1514422973291</v>
       </c>
       <c r="MY2" t="n">
-        <v>122.2076995782868</v>
+        <v>122.2076994621931</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-219.413594110288</v>
+        <v>-219.4135938363594</v>
       </c>
       <c r="NA2" t="n">
-        <v>-60.88332361976401</v>
+        <v>-60.88332361249394</v>
       </c>
       <c r="NB2" t="n">
-        <v>238.5383990989682</v>
+        <v>238.538399104755</v>
       </c>
       <c r="NC2" t="n">
-        <v>60000.00000000804</v>
+        <v>59999.99999949793</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.876886519107112</v>
+        <v>0.8768865190783127</v>
       </c>
       <c r="NE2" t="n">
-        <v>296205.2895337052</v>
+        <v>296205.2895378543</v>
       </c>
       <c r="NF2" t="n">
-        <v>364629.1946715135</v>
+        <v>364629.1946773281</v>
       </c>
       <c r="NG2" t="n">
-        <v>3807.031910515792</v>
+        <v>3807.031910542607</v>
       </c>
       <c r="NH2" t="n">
-        <v>-543494.10258161</v>
+        <v>-543494.102604222</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0549009503972</v>
+        <v>716.054900950474</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.486582228224</v>
+        <v>1004.486582228208</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402806657555168</v>
+        <v>1.402806657554996</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.999294107664052</v>
+        <v>0.9992941076641335</v>
       </c>
       <c r="NM2" t="n">
-        <v>309.7061259163583</v>
+        <v>309.7061259201211</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.09979804547</v>
+        <v>84109.09979732688</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.188931997133606e-05</v>
+        <v>1.188931997143764e-05</v>
       </c>
       <c r="NP2" t="n">
-        <v>59957.72784870584</v>
+        <v>59957.72784820096</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667841720959385e-05</v>
+        <v>1.667841720973429e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.004205246365050672</v>
+        <v>0.00420524636494764</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.543114347088879e-05</v>
+        <v>1.543114347119468e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02163960257003762</v>
+        <v>0.02163960257049964</v>
       </c>
       <c r="NU2" t="n">
-        <v>60000.00000000804</v>
+        <v>59999.99999949793</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.876886519107112</v>
+        <v>0.8768865190783127</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.876886519107112</v>
+        <v>0.8768865190783127</v>
       </c>
       <c r="NX2" t="n">
-        <v>296205.2895337052</v>
+        <v>296205.2895378543</v>
       </c>
       <c r="NY2" t="n">
-        <v>364629.1946715135</v>
+        <v>364629.1946773281</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3807.031910515792</v>
+        <v>3807.031910542607</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0549009503972</v>
+        <v>716.054900950474</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.486582228224</v>
+        <v>1004.486582228208</v>
       </c>
       <c r="OC2" t="n">
-        <v>309.7061259163583</v>
+        <v>309.7061259201211</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.999294107664052</v>
+        <v>0.9992941076641335</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.543114347088879e-05</v>
+        <v>1.543114347119468e-05</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02163960257003762</v>
+        <v>0.02163960257049964</v>
       </c>
       <c r="OG2" t="inlineStr">
         <is>
@@ -4464,97 +4464,97 @@
         <v>1</v>
       </c>
       <c r="OI2" t="n">
-        <v>247.4568372197126</v>
+        <v>247.456837196531</v>
       </c>
       <c r="OJ2" t="n">
-        <v>68203.18440413583</v>
+        <v>68203.1843732221</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.9608242362444733</v>
+        <v>0.9608242358989715</v>
       </c>
       <c r="OL2" t="n">
-        <v>302576.4846452294</v>
+        <v>302576.4846286902</v>
       </c>
       <c r="OM2" t="n">
-        <v>373560.5229649935</v>
+        <v>373560.5229418052</v>
       </c>
       <c r="ON2" t="n">
-        <v>3807.031910514931</v>
+        <v>3807.031910551243</v>
       </c>
       <c r="OO2" t="n">
-        <v>-568515.552805551</v>
+        <v>-568515.5527494721</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.2280498164669</v>
+        <v>716.2280498159395</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.71666868926</v>
+        <v>1004.716668688402</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402788775092959</v>
+        <v>1.402788775092793</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9993210026595443</v>
+        <v>0.999321002659553</v>
       </c>
       <c r="OT2" t="n">
-        <v>315.4491588062314</v>
+        <v>315.4491587914399</v>
       </c>
       <c r="OU2" t="n">
-        <v>95609.86316170853</v>
+        <v>95609.86311836193</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.045917196125114e-05</v>
+        <v>1.045917196599301e-05</v>
       </c>
       <c r="OW2" t="n">
-        <v>68156.99188594715</v>
+        <v>68156.99185505488</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.46720090240101e-05</v>
+        <v>1.467200903066022e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.004053977936497413</v>
+        <v>0.004053977936874828</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.590063288916278e-05</v>
+        <v>1.590063288794963e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.02235115815378986</v>
+        <v>0.02235115815194716</v>
       </c>
       <c r="PB2" t="n">
-        <v>68203.18440413583</v>
+        <v>68203.1843732221</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9608242362444733</v>
+        <v>0.9608242358989715</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9608242362444733</v>
+        <v>0.9608242358989715</v>
       </c>
       <c r="PE2" t="n">
-        <v>302576.4846452294</v>
+        <v>302576.4846286902</v>
       </c>
       <c r="PF2" t="n">
-        <v>373560.5229649935</v>
+        <v>373560.5229418052</v>
       </c>
       <c r="PG2" t="n">
-        <v>3807.031910514931</v>
+        <v>3807.031910551243</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.2280498164669</v>
+        <v>716.2280498159395</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.71666868926</v>
+        <v>1004.716668688402</v>
       </c>
       <c r="PJ2" t="n">
-        <v>315.4491588062314</v>
+        <v>315.4491587914399</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9993210026595443</v>
+        <v>0.999321002659553</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.590063288916278e-05</v>
+        <v>1.590063288794963e-05</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.02235115815378986</v>
+        <v>0.02235115815194716</v>
       </c>
       <c r="PN2" t="inlineStr">
         <is>
@@ -4565,97 +4565,97 @@
         <v>1</v>
       </c>
       <c r="PP2" t="n">
-        <v>270.0235427723192</v>
+        <v>270.0235427041605</v>
       </c>
       <c r="PQ2" t="n">
-        <v>92505.17013734813</v>
+        <v>92505.17004635652</v>
       </c>
       <c r="PR2" t="n">
-        <v>1.194162255022067</v>
+        <v>1.194162254149193</v>
       </c>
       <c r="PS2" t="n">
-        <v>318703.228167156</v>
+        <v>318703.2281184543</v>
       </c>
       <c r="PT2" t="n">
-        <v>396167.7182298056</v>
+        <v>396167.7181615296</v>
       </c>
       <c r="PU2" t="n">
-        <v>3807.031910506294</v>
+        <v>3807.031910535629</v>
       </c>
       <c r="PV2" t="n">
-        <v>-631820.525692375</v>
+        <v>-631820.5255090897</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.8261010551754</v>
+        <v>716.8261010529546</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.46129938263</v>
+        <v>1005.4612993798</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402657210587869</v>
+        <v>1.402657210588266</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.9994125649695833</v>
+        <v>0.999412564969314</v>
       </c>
       <c r="QA2" t="n">
-        <v>329.533926466565</v>
+        <v>329.533926424932</v>
       </c>
       <c r="QB2" t="n">
-        <v>129677.1944749306</v>
+        <v>129677.1943473764</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.711456158880128e-06</v>
+        <v>7.711456166465339e-06</v>
       </c>
       <c r="QD2" t="n">
-        <v>92451.09460534662</v>
+        <v>92451.09451438284</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.081652958538544e-05</v>
+        <v>1.081652959602796e-05</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003715775537415172</v>
+        <v>0.003715775538350187</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.706009185522337e-05</v>
+        <v>1.706009185177919e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.02411765895454641</v>
+        <v>0.02411765894927824</v>
       </c>
       <c r="QI2" t="n">
-        <v>92505.17013734813</v>
+        <v>92505.17004635652</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.194162255022067</v>
+        <v>1.194162254149193</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.194162255022067</v>
+        <v>1.194162254149193</v>
       </c>
       <c r="QL2" t="n">
-        <v>318703.228167156</v>
+        <v>318703.2281184543</v>
       </c>
       <c r="QM2" t="n">
-        <v>396167.7182298056</v>
+        <v>396167.7181615296</v>
       </c>
       <c r="QN2" t="n">
-        <v>3807.031910506294</v>
+        <v>3807.031910535629</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.8261010551754</v>
+        <v>716.8261010529546</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.46129938263</v>
+        <v>1005.4612993798</v>
       </c>
       <c r="QQ2" t="n">
-        <v>329.533926466565</v>
+        <v>329.533926424932</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.9994125649695833</v>
+        <v>0.999412564969314</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.706009185522337e-05</v>
+        <v>1.706009185177919e-05</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.02411765895454641</v>
+        <v>0.02411765894927824</v>
       </c>
       <c r="QU2" t="inlineStr">
         <is>
@@ -4666,40 +4666,40 @@
         <v>1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.4315421577681084</v>
+        <v>0.4315421570620173</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.8109346944624511</v>
+        <v>0.810934693497492</v>
       </c>
       <c r="QY2" t="n">
-        <v>371925.0009276876</v>
+        <v>371925.0004700522</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.698749322951342</v>
+        <v>2.698749320298974</v>
       </c>
       <c r="RA2" t="n">
-        <v>382505.1442647856</v>
+        <v>382505.1441963157</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.02695523202557725</v>
+        <v>0.02695523208343732</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.0006584127040981048</v>
+        <v>0.0006584127330959736</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01388415222180672</v>
+        <v>0.01388415222141215</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.081176649690545</v>
+        <v>0.08117664993358362</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04120011771314341</v>
+        <v>0.04120011780299755</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.1638745643551705</v>
+        <v>0.1638745647745266</v>
       </c>
       <c r="RH2" t="n">
-        <v>4.725983493436559e-11</v>
+        <v>-8.22932832988954e-11</v>
       </c>
       <c r="RI2" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>79.41044538452999</v>
+        <v>79.41044552508706</v>
       </c>
       <c r="D3" t="n">
-        <v>79.41044538452999</v>
+        <v>79.41044552508706</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>79.41044538452999</v>
+        <v>79.41044552508706</v>
       </c>
       <c r="H3" t="n">
-        <v>79.41044538452999</v>
+        <v>79.41044552508706</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4737,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.4562209303804</v>
+        <v>292.4562209190504</v>
       </c>
       <c r="L3" t="n">
-        <v>132937.2626254275</v>
+        <v>132937.2626074257</v>
       </c>
       <c r="M3" t="n">
-        <v>1.58433643119213</v>
+        <v>1.584336431039089</v>
       </c>
       <c r="N3" t="n">
-        <v>334724.2034760718</v>
+        <v>334724.2034679666</v>
       </c>
       <c r="O3" t="n">
-        <v>418631.4216705049</v>
+        <v>418631.4216591424</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687706.2899351484</v>
+        <v>-687706.2899036505</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7176088221696</v>
+        <v>717.7176088216561</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.653115305684</v>
+        <v>1006.653115305088</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402575473879873</v>
+        <v>1.402575473880046</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994986897353786</v>
+        <v>0.9994986897352994</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9691216943098</v>
+        <v>342.9691216876602</v>
       </c>
       <c r="W3" t="n">
-        <v>186362.0380694378</v>
+        <v>186362.0380442094</v>
       </c>
       <c r="X3" t="n">
-        <v>5.365899677633939e-06</v>
+        <v>5.365899678360336e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132871.308204124</v>
+        <v>132871.3081861204</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.526079283149279e-06</v>
+        <v>7.526079284169036e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003432243760475897</v>
+        <v>0.00343224376060865</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.81764866966302e-05</v>
+        <v>1.817648669607591e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02583212612929441</v>
+        <v>0.0258321261284406</v>
       </c>
       <c r="AD3" t="n">
-        <v>132937.2626254275</v>
+        <v>132937.2626074257</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.58433643119213</v>
+        <v>1.584336431039089</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.58433643119213</v>
+        <v>1.584336431039089</v>
       </c>
       <c r="AG3" t="n">
-        <v>334724.2034760718</v>
+        <v>334724.2034679666</v>
       </c>
       <c r="AH3" t="n">
-        <v>418631.4216705049</v>
+        <v>418631.4216591424</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7176088221696</v>
+        <v>717.7176088216561</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.653115305684</v>
+        <v>1006.653115305088</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9691216943098</v>
+        <v>342.9691216876602</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994986897353786</v>
+        <v>0.9994986897352994</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.81764866966302e-05</v>
+        <v>1.817648669607591e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02583212612929441</v>
+        <v>0.0258321261284406</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.231538177525232</v>
+        <v>0.2315381779395454</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.231538177525232</v>
+        <v>0.2315381779395454</v>
       </c>
       <c r="DH3" t="n">
-        <v>181072.641563348</v>
+        <v>181072.6418718787</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.701005597456729</v>
+        <v>2.701005601976623</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5098,121 +5098,121 @@
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>262.1360880469915</v>
+        <v>262.1360866758268</v>
       </c>
       <c r="DU3" t="n">
-        <v>108.1411335551506</v>
+        <v>108.1411333338889</v>
       </c>
       <c r="DV3" t="n">
-        <v>238.7903345824265</v>
+        <v>238.7903331774104</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.63562332814774</v>
+        <v>65.63562324551276</v>
       </c>
       <c r="DX3" t="n">
-        <v>262.1360880469915</v>
+        <v>262.1360866758268</v>
       </c>
       <c r="DY3" t="n">
-        <v>108.1411335551506</v>
+        <v>108.1411333338889</v>
       </c>
       <c r="DZ3" t="n">
-        <v>238.7903345824265</v>
+        <v>238.7903331774104</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.63562332814774</v>
+        <v>65.63562324551276</v>
       </c>
       <c r="EB3" t="n">
-        <v>261.3138768248</v>
+        <v>261.3138771835674</v>
       </c>
       <c r="EC3" t="n">
-        <v>87209.74172229681</v>
+        <v>87209.74216375966</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.163413564366616</v>
+        <v>1.163413568656955</v>
       </c>
       <c r="EE3" t="n">
-        <v>312466.542474299</v>
+        <v>312466.5427306077</v>
       </c>
       <c r="EF3" t="n">
-        <v>387426.7667602995</v>
+        <v>387426.767119631</v>
       </c>
       <c r="EG3" t="n">
-        <v>3791.037829147186</v>
+        <v>3791.037829070178</v>
       </c>
       <c r="EH3" t="n">
-        <v>-603224.0255636254</v>
+        <v>-603224.0265442715</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.5822797132153</v>
+        <v>716.5822797232354</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.248035841679</v>
+        <v>1005.248035854602</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.402836860889151</v>
+        <v>1.40283686088757</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993374759775192</v>
+        <v>0.9993374759789474</v>
       </c>
       <c r="EM3" t="n">
-        <v>324.1721404752785</v>
+        <v>324.1721406980965</v>
       </c>
       <c r="EN3" t="n">
-        <v>122260.3121330372</v>
+        <v>122260.3127519685</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.179269155732669e-06</v>
+        <v>8.179269114325894e-06</v>
       </c>
       <c r="EP3" t="n">
-        <v>87152.19534190575</v>
+        <v>87152.1957832038</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.147418026679548e-05</v>
+        <v>1.147418020869559e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.003840115553171497</v>
+        <v>0.003840115547913039</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.661802009991006e-05</v>
+        <v>1.661802011827572e-05</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02344319808709962</v>
+        <v>0.02344319811510946</v>
       </c>
       <c r="EU3" t="n">
-        <v>87209.74172229681</v>
+        <v>87209.74216375966</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.163413564366616</v>
+        <v>1.163413568656955</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.163413564366616</v>
+        <v>1.163413568656955</v>
       </c>
       <c r="EX3" t="n">
-        <v>312466.542474299</v>
+        <v>312466.5427306077</v>
       </c>
       <c r="EY3" t="n">
-        <v>387426.7667602995</v>
+        <v>387426.767119631</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3791.037829147186</v>
+        <v>3791.037829070178</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.5822797132153</v>
+        <v>716.5822797232354</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.248035841679</v>
+        <v>1005.248035854602</v>
       </c>
       <c r="FC3" t="n">
-        <v>324.1721404752785</v>
+        <v>324.1721406980965</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993374759775192</v>
+        <v>0.9993374759789474</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.661802009991006e-05</v>
+        <v>1.661802011827572e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02344319808709962</v>
+        <v>0.02344319811510946</v>
       </c>
       <c r="FG3" t="inlineStr">
         <is>
@@ -5223,97 +5223,97 @@
         <v>1</v>
       </c>
       <c r="FI3" t="n">
-        <v>295.5910708745762</v>
+        <v>295.5910708746597</v>
       </c>
       <c r="FJ3" t="n">
-        <v>134148.9565008319</v>
+        <v>134148.9565368373</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.581765547099982</v>
+        <v>1.581765547524272</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.7974821546</v>
+        <v>336974.7974821408</v>
       </c>
       <c r="FM3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="FN3" t="n">
-        <v>3791.03782915241</v>
+        <v>3791.037829075403</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698812.5005566002</v>
+        <v>-698812.5005341541</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8532055401859</v>
+        <v>717.8532055402795</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.758353831412</v>
+        <v>1006.758353832003</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402457140347831</v>
+        <v>1.402457140348471</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995341712884407</v>
+        <v>0.999534171288318</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8000645105556</v>
+        <v>344.8000645106411</v>
       </c>
       <c r="FU3" t="n">
-        <v>188051.494235884</v>
+        <v>188051.4942864199</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.317692390923742e-06</v>
+        <v>5.317692389494693e-06</v>
       </c>
       <c r="FW3" t="n">
-        <v>134087.1594758641</v>
+        <v>134087.1595118368</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.457835663824329e-06</v>
+        <v>7.457835661823553e-06</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395544649988161</v>
+        <v>0.003395544649990536</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.832896306781971e-05</v>
+        <v>1.832896306782895e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606673348871059</v>
+        <v>0.02606673348872835</v>
       </c>
       <c r="GB3" t="n">
-        <v>134148.9565008319</v>
+        <v>134148.9565368373</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.581765547099982</v>
+        <v>1.581765547524272</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.581765547099982</v>
+        <v>1.581765547524272</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.7974821546</v>
+        <v>336974.7974821408</v>
       </c>
       <c r="GF3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="GG3" t="n">
-        <v>3791.03782915241</v>
+        <v>3791.037829075403</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8532055401859</v>
+        <v>717.8532055402795</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.758353831412</v>
+        <v>1006.758353832003</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.8000645105556</v>
+        <v>344.8000645106411</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995341712884407</v>
+        <v>0.999534171288318</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.832896306781971e-05</v>
+        <v>1.832896306782895e-05</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606673348871059</v>
+        <v>0.02606673348872835</v>
       </c>
       <c r="GN3" t="inlineStr">
         <is>
@@ -5324,97 +5324,97 @@
         <v>1</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.5910708745762</v>
+        <v>295.5910708746597</v>
       </c>
       <c r="GQ3" t="n">
-        <v>134148.9565008319</v>
+        <v>134148.9565368373</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.581765547099982</v>
+        <v>1.581765547524272</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.7974821546</v>
+        <v>336974.7974821408</v>
       </c>
       <c r="GT3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="GU3" t="n">
-        <v>3791.03782915241</v>
+        <v>3791.037829075403</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698812.5005566002</v>
+        <v>-698812.5005341541</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8532055401859</v>
+        <v>717.8532055402795</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.758353831412</v>
+        <v>1006.758353832003</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402457140347831</v>
+        <v>1.402457140348471</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995341712884407</v>
+        <v>0.999534171288318</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.8000645105556</v>
+        <v>344.8000645106411</v>
       </c>
       <c r="HB3" t="n">
-        <v>188051.494235884</v>
+        <v>188051.4942864199</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.317692390923742e-06</v>
+        <v>5.317692389494693e-06</v>
       </c>
       <c r="HD3" t="n">
-        <v>134087.1594758641</v>
+        <v>134087.1595118368</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.457835663824329e-06</v>
+        <v>7.457835661823553e-06</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395544649988161</v>
+        <v>0.003395544649990536</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.832896306781971e-05</v>
+        <v>1.832896306782895e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606673348871059</v>
+        <v>0.02606673348872835</v>
       </c>
       <c r="HI3" t="n">
-        <v>134148.9565008319</v>
+        <v>134148.9565368373</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.581765547099982</v>
+        <v>1.581765547524272</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.581765547099982</v>
+        <v>1.581765547524272</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.7974821546</v>
+        <v>336974.7974821408</v>
       </c>
       <c r="HM3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="HN3" t="n">
-        <v>3791.03782915241</v>
+        <v>3791.037829075403</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8532055401859</v>
+        <v>717.8532055402795</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.758353831412</v>
+        <v>1006.758353832003</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.8000645105556</v>
+        <v>344.8000645106411</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995341712884407</v>
+        <v>0.999534171288318</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.832896306781971e-05</v>
+        <v>1.832896306782895e-05</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606673348871059</v>
+        <v>0.02606673348872835</v>
       </c>
       <c r="HU3" t="inlineStr">
         <is>
@@ -5425,22 +5425,22 @@
         <v>1</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.8086323755726385</v>
+        <v>0.8086323707870867</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8086323755726385</v>
+        <v>0.8086323707870867</v>
       </c>
       <c r="HY3" t="n">
-        <v>480086.3926666484</v>
+        <v>480086.3913952907</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.701005597545615</v>
+        <v>2.701005601979774</v>
       </c>
       <c r="IA3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.01761869853766278</v>
+        <v>0.01761869845332916</v>
       </c>
       <c r="IC3" t="n">
         <v>0</v>
@@ -5449,16 +5449,16 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.04914443528569918</v>
+        <v>0.04914443526676167</v>
       </c>
       <c r="IF3" t="n">
         <v>0</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.08204320236260509</v>
+        <v>0.08204320225933397</v>
       </c>
       <c r="IH3" t="n">
-        <v>1.129818461009791e-12</v>
+        <v>-7.495837284210438e-12</v>
       </c>
       <c r="II3" t="n">
         <v>0</v>
@@ -5467,121 +5467,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK3" t="n">
-        <v>262.1360880469915</v>
+        <v>262.1360866758268</v>
       </c>
       <c r="IL3" t="n">
-        <v>108.1411335551506</v>
+        <v>108.1411333338889</v>
       </c>
       <c r="IM3" t="n">
-        <v>238.7903345824265</v>
+        <v>238.7903331774104</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.63562332814774</v>
+        <v>65.63562324551276</v>
       </c>
       <c r="IO3" t="n">
-        <v>130.7473277575056</v>
+        <v>130.7473267848042</v>
       </c>
       <c r="IP3" t="n">
-        <v>108.1411335551506</v>
+        <v>108.1411333338889</v>
       </c>
       <c r="IQ3" t="n">
-        <v>73.48713458242645</v>
+        <v>73.48713317741044</v>
       </c>
       <c r="IR3" t="n">
-        <v>34.19800516286148</v>
+        <v>34.19800470811091</v>
       </c>
       <c r="IS3" t="n">
-        <v>261.3138768247066</v>
+        <v>261.3138771837673</v>
       </c>
       <c r="IT3" t="n">
-        <v>87209.74172218761</v>
+        <v>87209.74216390961</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.163413564365576</v>
+        <v>1.163413568658063</v>
       </c>
       <c r="IV3" t="n">
-        <v>312466.5424742321</v>
+        <v>312466.5427307507</v>
       </c>
       <c r="IW3" t="n">
-        <v>387426.7667602059</v>
+        <v>387426.7671198315</v>
       </c>
       <c r="IX3" t="n">
-        <v>3791.037829147187</v>
+        <v>3791.037829070451</v>
       </c>
       <c r="IY3" t="n">
-        <v>-603224.0255633651</v>
+        <v>-603224.0265449003</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.5822797132128</v>
+        <v>716.5822797232407</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.248035841676</v>
+        <v>1005.248035854607</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.402836860889152</v>
+        <v>1.402836860887566</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993374759775188</v>
+        <v>0.9993374759789488</v>
       </c>
       <c r="JD3" t="n">
-        <v>324.1721404752205</v>
+        <v>324.1721406982206</v>
       </c>
       <c r="JE3" t="n">
-        <v>122260.3121328841</v>
+        <v>122260.3127521786</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.179269155742913e-06</v>
+        <v>8.179269114311836e-06</v>
       </c>
       <c r="JG3" t="n">
-        <v>87152.19534179661</v>
+        <v>87152.1957833538</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.147418026680985e-05</v>
+        <v>1.147418020867584e-05</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.003840115553172866</v>
+        <v>0.003840115547910093</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.661802009990528e-05</v>
+        <v>1.661802011828595e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02344319808709232</v>
+        <v>0.02344319811512504</v>
       </c>
       <c r="JL3" t="n">
-        <v>87209.74172218761</v>
+        <v>87209.74216390961</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.163413564365576</v>
+        <v>1.163413568658063</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.163413564365576</v>
+        <v>1.163413568658063</v>
       </c>
       <c r="JO3" t="n">
-        <v>312466.5424742321</v>
+        <v>312466.5427307507</v>
       </c>
       <c r="JP3" t="n">
-        <v>387426.7667602059</v>
+        <v>387426.7671198315</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3791.037829147187</v>
+        <v>3791.037829070451</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.5822797132128</v>
+        <v>716.5822797232407</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.248035841676</v>
+        <v>1005.248035854607</v>
       </c>
       <c r="JT3" t="n">
-        <v>324.1721404752205</v>
+        <v>324.1721406982206</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993374759775188</v>
+        <v>0.9993374759789488</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.661802009990528e-05</v>
+        <v>1.661802011828595e-05</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02344319808709232</v>
+        <v>0.02344319811512504</v>
       </c>
       <c r="JX3" t="inlineStr">
         <is>
@@ -5592,97 +5592,97 @@
         <v>1</v>
       </c>
       <c r="JZ3" t="n">
-        <v>295.5910708744763</v>
+        <v>295.5910708747594</v>
       </c>
       <c r="KA3" t="n">
-        <v>134148.9565006722</v>
+        <v>134148.9565368679</v>
       </c>
       <c r="KB3" t="n">
-        <v>1.581765547098634</v>
+        <v>1.581765547524098</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.7974820828</v>
+        <v>336974.7974822126</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.43108869</v>
       </c>
       <c r="KE3" t="n">
-        <v>3791.037829152413</v>
+        <v>3791.037829075677</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698812.5005563223</v>
+        <v>-698812.5005345123</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8532055401812</v>
+        <v>717.8532055402839</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.758353831407</v>
+        <v>1006.758353832007</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402457140347832</v>
+        <v>1.402457140348467</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995341712884399</v>
+        <v>0.9995341712883192</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8000645104972</v>
+        <v>344.8000645106992</v>
       </c>
       <c r="KL3" t="n">
-        <v>188051.4942356601</v>
+        <v>188051.4942864626</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.317692390930072e-06</v>
+        <v>5.317692389493487e-06</v>
       </c>
       <c r="KN3" t="n">
-        <v>134087.1594757044</v>
+        <v>134087.1595118676</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.457835663833216e-06</v>
+        <v>7.457835661821844e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395544649989307</v>
+        <v>0.003395544649989381</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832896306781484e-05</v>
+        <v>1.832896306783378e-05</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606673348870308</v>
+        <v>0.02606673348873579</v>
       </c>
       <c r="KS3" t="n">
-        <v>134148.9565006722</v>
+        <v>134148.9565368679</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.581765547098634</v>
+        <v>1.581765547524098</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.581765547098634</v>
+        <v>1.581765547524098</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.7974820828</v>
+        <v>336974.7974822126</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.43108869</v>
       </c>
       <c r="KX3" t="n">
-        <v>3791.037829152413</v>
+        <v>3791.037829075677</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8532055401812</v>
+        <v>717.8532055402839</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.758353831407</v>
+        <v>1006.758353832007</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8000645104972</v>
+        <v>344.8000645106992</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995341712884399</v>
+        <v>0.9995341712883192</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832896306781484e-05</v>
+        <v>1.832896306783378e-05</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606673348870308</v>
+        <v>0.02606673348873579</v>
       </c>
       <c r="LE3" t="inlineStr">
         <is>
@@ -5693,97 +5693,97 @@
         <v>1</v>
       </c>
       <c r="LG3" t="n">
-        <v>269.8451958249404</v>
+        <v>269.8451960568988</v>
       </c>
       <c r="LH3" t="n">
-        <v>97564.93566028924</v>
+        <v>97564.93597923555</v>
       </c>
       <c r="LI3" t="n">
-        <v>1.260355152880589</v>
+        <v>1.260355155916094</v>
       </c>
       <c r="LJ3" t="n">
-        <v>318563.5295401448</v>
+        <v>318563.5297058778</v>
       </c>
       <c r="LK3" t="n">
-        <v>395974.1986180637</v>
+        <v>395974.1988504175</v>
       </c>
       <c r="LL3" t="n">
-        <v>3791.037829147187</v>
+        <v>3791.037829070451</v>
       </c>
       <c r="LM3" t="n">
-        <v>-627019.1467679159</v>
+        <v>-627019.1473942185</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.8371394107685</v>
+        <v>716.8371394182972</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.561857424567</v>
+        <v>1005.561857434152</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.402775891677608</v>
+        <v>1.402775891676247</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.999378266457189</v>
+        <v>0.9993782664582052</v>
       </c>
       <c r="LR3" t="n">
-        <v>329.4277659605237</v>
+        <v>329.4277661022895</v>
       </c>
       <c r="LS3" t="n">
-        <v>136777.0848948515</v>
+        <v>136777.0853419937</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.311166199870091e-06</v>
+        <v>7.311166175968931e-06</v>
       </c>
       <c r="LU3" t="n">
-        <v>97504.58765817323</v>
+        <v>97504.58797702308</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.025592768522596e-05</v>
+        <v>1.025592765168804e-05</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.003718934961716401</v>
+        <v>0.003718934958529043</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.705188198248499e-05</v>
+        <v>1.705188199421051e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.02410574223060201</v>
+        <v>0.02410574224853614</v>
       </c>
       <c r="LZ3" t="n">
-        <v>97564.93566028924</v>
+        <v>97564.93597923555</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.260355152880589</v>
+        <v>1.260355155916094</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.260355152880589</v>
+        <v>1.260355155916094</v>
       </c>
       <c r="MC3" t="n">
-        <v>318563.5295401448</v>
+        <v>318563.5297058778</v>
       </c>
       <c r="MD3" t="n">
-        <v>395974.1986180637</v>
+        <v>395974.1988504175</v>
       </c>
       <c r="ME3" t="n">
-        <v>3791.037829147187</v>
+        <v>3791.037829070451</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.8371394107685</v>
+        <v>716.8371394182972</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.561857424567</v>
+        <v>1005.561857434152</v>
       </c>
       <c r="MH3" t="n">
-        <v>329.4277659605237</v>
+        <v>329.4277661022895</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.999378266457189</v>
+        <v>0.9993782664582052</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.705188198248499e-05</v>
+        <v>1.705188199421051e-05</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.02410574223060201</v>
+        <v>0.02410574224853614</v>
       </c>
       <c r="ML3" t="inlineStr">
         <is>
@@ -5794,139 +5794,139 @@
         <v>1</v>
       </c>
       <c r="MN3" t="n">
-        <v>0.8086323755727832</v>
+        <v>0.8086323707867772</v>
       </c>
       <c r="MO3" t="n">
-        <v>0.4033268484017053</v>
+        <v>0.4033268451236837</v>
       </c>
       <c r="MP3" t="n">
-        <v>238540.4728784826</v>
+        <v>238540.4717201169</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.701005597543199</v>
+        <v>2.701005601982347</v>
       </c>
       <c r="MR3" t="n">
-        <v>382311.624653044</v>
+        <v>382311.6248852975</v>
       </c>
       <c r="MS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT3" t="n">
-        <v>140.9489165621327</v>
+        <v>140.9489171882201</v>
       </c>
       <c r="MU3" t="n">
-        <v>126.2280161373041</v>
+        <v>126.2280163386853</v>
       </c>
       <c r="MV3" t="n">
-        <v>-62.71431273704229</v>
+        <v>-62.71431373882933</v>
       </c>
       <c r="MW3" t="n">
-        <v>-26.41972781879678</v>
+        <v>-26.41972814706844</v>
       </c>
       <c r="MX3" t="n">
-        <v>260.6252063265308</v>
+        <v>260.6252073005154</v>
       </c>
       <c r="MY3" t="n">
-        <v>126.2280161373041</v>
+        <v>126.2280163386853</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-228.0175127370423</v>
+        <v>-228.0175137388293</v>
       </c>
       <c r="NA3" t="n">
-        <v>-61.03156310921094</v>
+        <v>-61.03156317714306</v>
       </c>
       <c r="NB3" t="n">
-        <v>235.9233320654598</v>
+        <v>235.9233320437837</v>
       </c>
       <c r="NC3" t="n">
-        <v>57499.99999461143</v>
+        <v>57499.99999625381</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8496677678974121</v>
+        <v>0.8496677680000043</v>
       </c>
       <c r="NE3" t="n">
-        <v>294337.9397588805</v>
+        <v>294337.939743341</v>
       </c>
       <c r="NF3" t="n">
-        <v>362011.4495318838</v>
+        <v>362011.4495101062</v>
       </c>
       <c r="NG3" t="n">
-        <v>3808.205261271683</v>
+        <v>3808.205261171183</v>
       </c>
       <c r="NH3" t="n">
-        <v>-536433.0248965468</v>
+        <v>-536433.024812067</v>
       </c>
       <c r="NI3" t="n">
-        <v>716.0089809908837</v>
+        <v>716.0089809906169</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.418518595124</v>
+        <v>1004.418518595196</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402801564311541</v>
+        <v>1.402801564312165</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992900832996848</v>
+        <v>0.999290083299382</v>
       </c>
       <c r="NM3" t="n">
-        <v>308.0019963432619</v>
+        <v>308.0019963290878</v>
       </c>
       <c r="NN3" t="n">
-        <v>80603.92801397668</v>
+        <v>80603.92801629045</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240634327183907e-05</v>
+        <v>1.240634327148294e-05</v>
       </c>
       <c r="NP3" t="n">
-        <v>57459.25158953973</v>
+        <v>57459.25159116353</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740363774912179e-05</v>
+        <v>1.740363774862996e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.004251713105442458</v>
+        <v>0.004251713105836887</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.529217508895565e-05</v>
+        <v>1.52921750878049e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02142935642878185</v>
+        <v>0.02142935642704525</v>
       </c>
       <c r="NU3" t="n">
-        <v>57499.99999461143</v>
+        <v>57499.99999625381</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8496677678974121</v>
+        <v>0.8496677680000043</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8496677678974121</v>
+        <v>0.8496677680000043</v>
       </c>
       <c r="NX3" t="n">
-        <v>294337.9397588805</v>
+        <v>294337.939743341</v>
       </c>
       <c r="NY3" t="n">
-        <v>362011.4495318838</v>
+        <v>362011.4495101062</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3808.205261271683</v>
+        <v>3808.205261171183</v>
       </c>
       <c r="OA3" t="n">
-        <v>716.0089809908837</v>
+        <v>716.0089809906169</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.418518595124</v>
+        <v>1004.418518595196</v>
       </c>
       <c r="OC3" t="n">
-        <v>308.0019963432619</v>
+        <v>308.0019963290878</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992900832996848</v>
+        <v>0.999290083299382</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.529217508895565e-05</v>
+        <v>1.52921750878049e-05</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02142935642878185</v>
+        <v>0.02142935642704525</v>
       </c>
       <c r="OG3" t="inlineStr">
         <is>
@@ -5937,97 +5937,97 @@
         <v>1</v>
       </c>
       <c r="OI3" t="n">
-        <v>245.8425920335508</v>
+        <v>245.8425921001986</v>
       </c>
       <c r="OJ3" t="n">
-        <v>66391.14810970268</v>
+        <v>66391.14820025177</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.941440509726315</v>
+        <v>0.9414405107551634</v>
       </c>
       <c r="OL3" t="n">
-        <v>301423.9372251456</v>
+        <v>301423.9372726873</v>
       </c>
       <c r="OM3" t="n">
-        <v>371944.7480717101</v>
+        <v>371944.7481383649</v>
       </c>
       <c r="ON3" t="n">
-        <v>3808.205261290142</v>
+        <v>3808.205261170038</v>
       </c>
       <c r="OO3" t="n">
-        <v>-564274.3043596641</v>
+        <v>-564274.304517291</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1931655471549</v>
+        <v>716.1931655486405</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.66560714249</v>
+        <v>1004.665607144996</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.402785806221634</v>
+        <v>1.402785806222223</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9993185309261901</v>
+        <v>0.9993185309261187</v>
       </c>
       <c r="OT3" t="n">
-        <v>314.4174608343411</v>
+        <v>314.4174608770045</v>
       </c>
       <c r="OU3" t="n">
-        <v>93069.24569669637</v>
+        <v>93069.24582366383</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.074468792042113e-05</v>
+        <v>1.074468790576295e-05</v>
       </c>
       <c r="OW3" t="n">
-        <v>66346.01325727403</v>
+        <v>66346.01334775709</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.507249570704781e-05</v>
+        <v>1.507249568649186e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.00408049290830796</v>
+        <v>0.00408049290720924</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.581610038849173e-05</v>
+        <v>1.581610039198885e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02222284199029966</v>
+        <v>0.02222284199560912</v>
       </c>
       <c r="PB3" t="n">
-        <v>66391.14810970268</v>
+        <v>66391.14820025177</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.941440509726315</v>
+        <v>0.9414405107551634</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.941440509726315</v>
+        <v>0.9414405107551634</v>
       </c>
       <c r="PE3" t="n">
-        <v>301423.9372251456</v>
+        <v>301423.9372726873</v>
       </c>
       <c r="PF3" t="n">
-        <v>371944.7480717101</v>
+        <v>371944.7481383649</v>
       </c>
       <c r="PG3" t="n">
-        <v>3808.205261290142</v>
+        <v>3808.205261170038</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1931655471549</v>
+        <v>716.1931655486405</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.66560714249</v>
+        <v>1004.665607144996</v>
       </c>
       <c r="PJ3" t="n">
-        <v>314.4174608343411</v>
+        <v>314.4174608770045</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9993185309261901</v>
+        <v>0.9993185309261187</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.581610038849173e-05</v>
+        <v>1.581610039198885e-05</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02222284199029966</v>
+        <v>0.02222284199560912</v>
       </c>
       <c r="PN3" t="inlineStr">
         <is>
@@ -6038,97 +6038,97 @@
         <v>1</v>
       </c>
       <c r="PP3" t="n">
-        <v>269.8293781731551</v>
+        <v>269.8293784050275</v>
       </c>
       <c r="PQ3" t="n">
-        <v>91897.64813245421</v>
+        <v>91897.64844665237</v>
       </c>
       <c r="PR3" t="n">
-        <v>1.187171605189836</v>
+        <v>1.187171608227575</v>
       </c>
       <c r="PS3" t="n">
-        <v>318565.2985647973</v>
+        <v>318565.2987304637</v>
       </c>
       <c r="PT3" t="n">
-        <v>395974.1986182644</v>
+        <v>395974.1988505177</v>
       </c>
       <c r="PU3" t="n">
-        <v>3808.205261281485</v>
+        <v>3808.205261161381</v>
       </c>
       <c r="PV3" t="n">
-        <v>-631591.4589890565</v>
+        <v>-631591.4596074128</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.8186757209598</v>
+        <v>716.8186757285108</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.446142835952</v>
+        <v>1005.446142845679</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402650596156269</v>
+        <v>1.402650596155063</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9994140113569048</v>
+        <v>0.9994140113577725</v>
       </c>
       <c r="QA3" t="n">
-        <v>329.4151212776688</v>
+        <v>329.4151214193538</v>
       </c>
       <c r="QB3" t="n">
-        <v>128825.121984863</v>
+        <v>128825.1224253193</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.762461114669081e-06</v>
+        <v>7.762461088129032e-06</v>
       </c>
       <c r="QD3" t="n">
-        <v>91844.05748508342</v>
+        <v>91844.05779917957</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.088802071013045e-05</v>
+        <v>1.088802067289467e-05</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.003718394228253946</v>
+        <v>0.003718394225069377</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.70502260939123e-05</v>
+        <v>1.705022610563342e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.02410252680754621</v>
+        <v>0.02410252682547421</v>
       </c>
       <c r="QI3" t="n">
-        <v>91897.64813245421</v>
+        <v>91897.64844665237</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.187171605189836</v>
+        <v>1.187171608227575</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.187171605189836</v>
+        <v>1.187171608227575</v>
       </c>
       <c r="QL3" t="n">
-        <v>318565.2985647973</v>
+        <v>318565.2987304637</v>
       </c>
       <c r="QM3" t="n">
-        <v>395974.1986182644</v>
+        <v>395974.1988505177</v>
       </c>
       <c r="QN3" t="n">
-        <v>3808.205261281485</v>
+        <v>3808.205261161381</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.8186757209598</v>
+        <v>716.8186757285108</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.446142835952</v>
+        <v>1005.446142845679</v>
       </c>
       <c r="QQ3" t="n">
-        <v>329.4151212776688</v>
+        <v>329.4151214193538</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9994140113569048</v>
+        <v>0.9994140113577725</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.70502260939123e-05</v>
+        <v>1.705022610563342e-05</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.02410252680754621</v>
+        <v>0.02410252682547421</v>
       </c>
       <c r="QU3" t="inlineStr">
         <is>
@@ -6139,40 +6139,40 @@
         <v>1</v>
       </c>
       <c r="QW3" t="n">
-        <v>0.4576233863271718</v>
+        <v>0.4576233883809694</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.8461802501957466</v>
+        <v>0.8461802533969546</v>
       </c>
       <c r="QY3" t="n">
-        <v>377372.8999909101</v>
+        <v>377372.9014751567</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.701005597172957</v>
+        <v>2.701005601808208</v>
       </c>
       <c r="RA3" t="n">
-        <v>382311.624653044</v>
+        <v>382311.6248852975</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02707894910851081</v>
+        <v>0.02707894887242817</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.0007370772172542749</v>
+        <v>0.000737077124943373</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01389216954113381</v>
+        <v>0.01389216954479444</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.08157448037312864</v>
+        <v>0.08157447958397976</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04147531836901099</v>
+        <v>0.04147531812059568</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1647579946090385</v>
+        <v>0.1647579932467414</v>
       </c>
       <c r="RH3" t="n">
-        <v>4.002370657119059e-11</v>
+        <v>4.328434832778782e-11</v>
       </c>
       <c r="RI3" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01760218522435198</v>
+        <v>0.01760218526125072</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -8698,25 +8698,25 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04914041453420952</v>
+        <v>0.04914041454241939</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08202266829780464</v>
+        <v>0.08202266834291325</v>
       </c>
       <c r="H2" t="n">
-        <v>2.079128536003338e-12</v>
+        <v>1.010302952408892e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.71248350640076</v>
+        <v>80.71248350550502</v>
       </c>
       <c r="K2" t="n">
-        <v>80.71248350640076</v>
+        <v>80.71248350550502</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>80.71248350640076</v>
+        <v>80.71248350550502</v>
       </c>
       <c r="O2" t="n">
-        <v>80.71248350640076</v>
+        <v>80.71248350550502</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8737,97 +8737,97 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.352275014703</v>
+        <v>292.352275014575</v>
       </c>
       <c r="S2" t="n">
-        <v>132772.1796843743</v>
+        <v>132772.1796841708</v>
       </c>
       <c r="T2" t="n">
-        <v>1.582932747002386</v>
+        <v>1.582932747000654</v>
       </c>
       <c r="U2" t="n">
-        <v>334649.8439824815</v>
+        <v>334649.8439823897</v>
       </c>
       <c r="V2" t="n">
-        <v>418527.1785918047</v>
+        <v>418527.1785916762</v>
       </c>
       <c r="W2" t="n">
-        <v>3782.917347723461</v>
+        <v>3782.917347723462</v>
       </c>
       <c r="X2" t="n">
-        <v>-687417.3142077356</v>
+        <v>-687417.3142073799</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7129007517499</v>
+        <v>717.7129007517441</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.647652845953</v>
+        <v>1006.647652845947</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402577063602404</v>
+        <v>1.402577063602407</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994979633405113</v>
+        <v>0.9994979633405104</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.9081100795723</v>
+        <v>342.9081100794971</v>
       </c>
       <c r="AD2" t="n">
-        <v>186130.6856009671</v>
+        <v>186130.6856006818</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.372569261061188e-06</v>
+        <v>5.372569261069422e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132706.2094705196</v>
+        <v>132706.2094703161</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.535442418179743e-06</v>
+        <v>7.535442418191299e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003433462124705821</v>
+        <v>0.003433462124707322</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.817140103499076e-05</v>
+        <v>1.817140103498449e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02582429250874622</v>
+        <v>0.02582429250873656</v>
       </c>
       <c r="AK2" t="n">
-        <v>132772.1796843743</v>
+        <v>132772.1796841708</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.582932747002386</v>
+        <v>1.582932747000654</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.582932747002386</v>
+        <v>1.582932747000654</v>
       </c>
       <c r="AN2" t="n">
-        <v>334649.8439824815</v>
+        <v>334649.8439823897</v>
       </c>
       <c r="AO2" t="n">
-        <v>418527.1785918047</v>
+        <v>418527.1785916762</v>
       </c>
       <c r="AP2" t="n">
-        <v>3782.917347723461</v>
+        <v>3782.917347723462</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7129007517499</v>
+        <v>717.7129007517441</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.647652845953</v>
+        <v>1006.647652845947</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.9081100795723</v>
+        <v>342.9081100794971</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994979633405113</v>
+        <v>0.9994979633405104</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.817140103499076e-05</v>
+        <v>1.817140103498449e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02582429250874622</v>
+        <v>0.02582429250873656</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -9040,16 +9040,16 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.2353764204867342</v>
+        <v>0.2353764204841737</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.2353764204867342</v>
+        <v>0.2353764204841737</v>
       </c>
       <c r="DO2" t="n">
-        <v>183929.9703402111</v>
+        <v>183929.9703380321</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.742859854009862</v>
+        <v>2.742859853976421</v>
       </c>
       <c r="DQ2" t="n">
         <v>421784.4310885898</v>
@@ -9058,121 +9058,121 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>306.8418871115961</v>
+        <v>306.8418835486875</v>
       </c>
       <c r="DT2" t="n">
-        <v>125.3773397820684</v>
+        <v>125.3773383262437</v>
       </c>
       <c r="DU2" t="n">
-        <v>280.0579696337478</v>
+        <v>280.0579663818419</v>
       </c>
       <c r="DV2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW2" t="n">
-        <v>306.8418871115961</v>
+        <v>306.8418835486875</v>
       </c>
       <c r="DX2" t="n">
-        <v>125.3773397820684</v>
+        <v>125.3773383262437</v>
       </c>
       <c r="DY2" t="n">
-        <v>280.0579696337478</v>
+        <v>280.0579663818419</v>
       </c>
       <c r="DZ2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA2" t="n">
-        <v>248.6139891962043</v>
+        <v>248.613990287995</v>
       </c>
       <c r="EB2" t="n">
-        <v>72670.28916517511</v>
+        <v>72670.29032694765</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.019019576954009</v>
+        <v>1.01901958876646</v>
       </c>
       <c r="ED2" t="n">
-        <v>303394.5308298086</v>
+        <v>303394.5316096394</v>
       </c>
       <c r="EE2" t="n">
-        <v>374708.4592455871</v>
+        <v>374708.4603388371</v>
       </c>
       <c r="EF2" t="n">
-        <v>3793.461869324778</v>
+        <v>3793.461869136379</v>
       </c>
       <c r="EG2" t="n">
-        <v>-568399.2289509363</v>
+        <v>-568399.231952514</v>
       </c>
       <c r="EH2" t="n">
-        <v>716.2663343326041</v>
+        <v>716.2663343565837</v>
       </c>
       <c r="EI2" t="n">
-        <v>1004.832375600955</v>
+        <v>1004.832375633284</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.402875337617576</v>
+        <v>1.402875337615745</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9992923632792826</v>
+        <v>0.9992923632826923</v>
       </c>
       <c r="EL2" t="n">
-        <v>316.1865758528939</v>
+        <v>316.1865765480433</v>
       </c>
       <c r="EM2" t="n">
-        <v>101875.4129992557</v>
+        <v>101875.4146281479</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.815911126733846e-06</v>
+        <v>9.815910969786649e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>72619.0063133229</v>
+        <v>72619.00747452737</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.377049963594086e-05</v>
+        <v>1.377049941574554e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.004035765677364418</v>
+        <v>0.004035765659685818</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.59615956165469e-05</v>
+        <v>1.596159567353055e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.022444197990849</v>
+        <v>0.02244419807738716</v>
       </c>
       <c r="ET2" t="n">
-        <v>72670.28916517511</v>
+        <v>72670.29032694765</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.019019576954009</v>
+        <v>1.01901958876646</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.019019576954009</v>
+        <v>1.01901958876646</v>
       </c>
       <c r="EW2" t="n">
-        <v>303394.5308298086</v>
+        <v>303394.5316096394</v>
       </c>
       <c r="EX2" t="n">
-        <v>374708.4592455871</v>
+        <v>374708.4603388371</v>
       </c>
       <c r="EY2" t="n">
-        <v>3793.461869324778</v>
+        <v>3793.461869136379</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.2663343326041</v>
+        <v>716.2663343565837</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.832375600955</v>
+        <v>1004.832375633284</v>
       </c>
       <c r="FB2" t="n">
-        <v>316.1865758528939</v>
+        <v>316.1865765480433</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9992923632792826</v>
+        <v>0.9992923632826923</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.59615956165469e-05</v>
+        <v>1.596159567353055e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.022444197990849</v>
+        <v>0.02244419807738716</v>
       </c>
       <c r="FF2" t="inlineStr">
         <is>
@@ -9183,97 +9183,97 @@
         <v>1</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.5884537394969</v>
+        <v>295.5884537394992</v>
       </c>
       <c r="FI2" t="n">
-        <v>133020.358957167</v>
+        <v>133020.3590441978</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.568465981504468</v>
+        <v>1.568465982531121</v>
       </c>
       <c r="FK2" t="n">
-        <v>336975.222265701</v>
+        <v>336975.2222655247</v>
       </c>
       <c r="FL2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884891</v>
       </c>
       <c r="FM2" t="n">
-        <v>3793.461869332211</v>
+        <v>3793.46186914381</v>
       </c>
       <c r="FN2" t="n">
-        <v>-699519.0971869595</v>
+        <v>-699519.0971314802</v>
       </c>
       <c r="FO2" t="n">
-        <v>717.8502656719621</v>
+        <v>717.8502656721803</v>
       </c>
       <c r="FP2" t="n">
-        <v>1006.739822664214</v>
+        <v>1006.739822665637</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.402437069131443</v>
+        <v>1.402437069132999</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.9995380147658907</v>
+        <v>0.9995380147655917</v>
       </c>
       <c r="FS2" t="n">
-        <v>344.7973817657538</v>
+        <v>344.7973817658445</v>
       </c>
       <c r="FT2" t="n">
-        <v>186467.4459733282</v>
+        <v>186467.4460954802</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.362866396223592e-06</v>
+        <v>5.36286639271046e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>132959.5816294354</v>
+        <v>132959.5817163876</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.521082630863318e-06</v>
+        <v>7.521082625944718e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.003395470178528628</v>
+        <v>0.003395470178536687</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.832867335241149e-05</v>
+        <v>1.832867335242417e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02606617654996111</v>
+        <v>0.02606617654998918</v>
       </c>
       <c r="GA2" t="n">
-        <v>133020.358957167</v>
+        <v>133020.3590441978</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.568465981504468</v>
+        <v>1.568465982531121</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.568465981504468</v>
+        <v>1.568465982531121</v>
       </c>
       <c r="GD2" t="n">
-        <v>336975.222265701</v>
+        <v>336975.2222655247</v>
       </c>
       <c r="GE2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884891</v>
       </c>
       <c r="GF2" t="n">
-        <v>3793.461869332211</v>
+        <v>3793.46186914381</v>
       </c>
       <c r="GG2" t="n">
-        <v>717.8502656719621</v>
+        <v>717.8502656721803</v>
       </c>
       <c r="GH2" t="n">
-        <v>1006.739822664214</v>
+        <v>1006.739822665637</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.7973817657538</v>
+        <v>344.7973817658445</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.9995380147658907</v>
+        <v>0.9995380147655917</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.832867335241149e-05</v>
+        <v>1.832867335242417e-05</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.02606617654996111</v>
+        <v>0.02606617654998918</v>
       </c>
       <c r="GM2" t="inlineStr">
         <is>
@@ -9284,97 +9284,97 @@
         <v>1</v>
       </c>
       <c r="GO2" t="n">
-        <v>295.5884537394969</v>
+        <v>295.5884537394991</v>
       </c>
       <c r="GP2" t="n">
-        <v>133020.358957167</v>
+        <v>133020.3590441978</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.568465981504468</v>
+        <v>1.568465982531121</v>
       </c>
       <c r="GR2" t="n">
-        <v>336975.222265701</v>
+        <v>336975.2222655247</v>
       </c>
       <c r="GS2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884891</v>
       </c>
       <c r="GT2" t="n">
-        <v>3793.461869332211</v>
+        <v>3793.461869143811</v>
       </c>
       <c r="GU2" t="n">
-        <v>-699519.0971869595</v>
+        <v>-699519.0971314802</v>
       </c>
       <c r="GV2" t="n">
-        <v>717.8502656719621</v>
+        <v>717.8502656721804</v>
       </c>
       <c r="GW2" t="n">
-        <v>1006.739822664214</v>
+        <v>1006.739822665638</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.402437069131443</v>
+        <v>1.402437069132999</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.9995380147658907</v>
+        <v>0.9995380147655917</v>
       </c>
       <c r="GZ2" t="n">
-        <v>344.7973817657538</v>
+        <v>344.7973817658444</v>
       </c>
       <c r="HA2" t="n">
-        <v>186467.4459733282</v>
+        <v>186467.4460954802</v>
       </c>
       <c r="HB2" t="n">
-        <v>5.362866396223592e-06</v>
+        <v>5.36286639271046e-06</v>
       </c>
       <c r="HC2" t="n">
-        <v>132959.5816294354</v>
+        <v>132959.5817163877</v>
       </c>
       <c r="HD2" t="n">
-        <v>7.521082630863318e-06</v>
+        <v>7.521082625944716e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.003395470178528628</v>
+        <v>0.003395470178536688</v>
       </c>
       <c r="HF2" t="n">
-        <v>1.832867335241149e-05</v>
+        <v>1.832867335242416e-05</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.02606617654996111</v>
+        <v>0.02606617654998918</v>
       </c>
       <c r="HH2" t="n">
-        <v>133020.358957167</v>
+        <v>133020.3590441978</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.568465981504468</v>
+        <v>1.568465982531121</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.568465981504468</v>
+        <v>1.568465982531121</v>
       </c>
       <c r="HK2" t="n">
-        <v>336975.222265701</v>
+        <v>336975.2222655247</v>
       </c>
       <c r="HL2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884891</v>
       </c>
       <c r="HM2" t="n">
-        <v>3793.461869332211</v>
+        <v>3793.461869143811</v>
       </c>
       <c r="HN2" t="n">
-        <v>717.8502656719621</v>
+        <v>717.8502656721804</v>
       </c>
       <c r="HO2" t="n">
-        <v>1006.739822664214</v>
+        <v>1006.739822665638</v>
       </c>
       <c r="HP2" t="n">
-        <v>344.7973817657538</v>
+        <v>344.7973817658444</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9995380147658907</v>
+        <v>0.9995380147655917</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.832867335241149e-05</v>
+        <v>1.832867335242416e-05</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.02606617654996111</v>
+        <v>0.02606617654998918</v>
       </c>
       <c r="HT2" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.01795407855694387</v>
+        <v>0.01795407854594187</v>
       </c>
       <c r="HW2" t="n">
         <v>0</v>
@@ -9394,28 +9394,28 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.04927004794815577</v>
+        <v>0.04927004793877488</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.08250419504434277</v>
+        <v>0.08250419502395989</v>
       </c>
       <c r="IB2" t="n">
-        <v>8.4027873343967e-06</v>
+        <v>8.402796100009935e-06</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9704456499581264</v>
+        <v>0.9704456365561872</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.9704456499581264</v>
+        <v>0.9704456365561871</v>
       </c>
       <c r="IE2" t="n">
-        <v>512458.390677542</v>
+        <v>512458.3888380132</v>
       </c>
       <c r="IF2" t="n">
-        <v>2.742849774796653</v>
+        <v>2.742849774742979</v>
       </c>
       <c r="IG2" t="n">
         <v>421784.4310885898</v>
@@ -9424,166 +9424,166 @@
         <v>0</v>
       </c>
       <c r="II2" t="n">
-        <v>2098.673962309083</v>
+        <v>2098.67396907229</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.006905170688635376</v>
+        <v>0.006905170721237391</v>
       </c>
       <c r="IL2" t="n">
         <v>0</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.01927731959095479</v>
+        <v>0.01927731964478096</v>
       </c>
       <c r="IN2" t="n">
         <v>0</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.005994226287969628</v>
+        <v>0.005994226303705268</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.02695523202557725</v>
+        <v>0.02695523208343732</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.0006584127040981048</v>
+        <v>0.0006584127330959736</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.01388415222180672</v>
+        <v>0.01388415222141215</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.081176649690545</v>
+        <v>0.08117664993358362</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.04120011771314341</v>
+        <v>0.04120011780299755</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.1638745643551705</v>
+        <v>0.1638745647745266</v>
       </c>
       <c r="IV2" t="n">
-        <v>4.725983493436559e-11</v>
+        <v>-8.22932832988954e-11</v>
       </c>
       <c r="IW2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX2" t="n">
-        <v>263.5638540823998</v>
+        <v>263.563854462305</v>
       </c>
       <c r="IY2" t="n">
-        <v>108.7959836129003</v>
+        <v>108.7959836175051</v>
       </c>
       <c r="IZ2" t="n">
-        <v>240.06111540287</v>
+        <v>240.0611158178822</v>
       </c>
       <c r="JA2" t="n">
-        <v>65.61990965871263</v>
+        <v>65.61990969504215</v>
       </c>
       <c r="JB2" t="n">
-        <v>132.0049694734298</v>
+        <v>132.0049697122574</v>
       </c>
       <c r="JC2" t="n">
-        <v>108.7959836129003</v>
+        <v>108.7959836175051</v>
       </c>
       <c r="JD2" t="n">
-        <v>74.75791540287003</v>
+        <v>74.75791581788224</v>
       </c>
       <c r="JE2" t="n">
-        <v>34.49445823944266</v>
+        <v>34.49445838677293</v>
       </c>
       <c r="JF2" t="n">
-        <v>260.9393089234662</v>
+        <v>260.939308823486</v>
       </c>
       <c r="JG2" t="n">
-        <v>86794.20844517004</v>
+        <v>86794.2083202573</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.159534374036409</v>
+        <v>1.159534372812346</v>
       </c>
       <c r="JI2" t="n">
-        <v>312198.8390357023</v>
+        <v>312198.8389642813</v>
       </c>
       <c r="JJ2" t="n">
-        <v>387051.4784991054</v>
+        <v>387051.478398976</v>
       </c>
       <c r="JK2" t="n">
-        <v>3790.970718673118</v>
+        <v>3790.970718702232</v>
       </c>
       <c r="JL2" t="n">
-        <v>-602161.8009805542</v>
+        <v>-602161.8007092584</v>
       </c>
       <c r="JM2" t="n">
-        <v>716.5720083802661</v>
+        <v>716.5720083774843</v>
       </c>
       <c r="JN2" t="n">
-        <v>1005.235563497405</v>
+        <v>1005.235563493772</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.40283956356268</v>
+        <v>1.402839563563055</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.9993356513661104</v>
+        <v>0.9993356513657327</v>
       </c>
       <c r="JQ2" t="n">
-        <v>323.9394398561265</v>
+        <v>323.9394397939869</v>
       </c>
       <c r="JR2" t="n">
-        <v>121677.7811250747</v>
+        <v>121677.7809499439</v>
       </c>
       <c r="JS2" t="n">
-        <v>8.21842731477888e-06</v>
+        <v>8.218427326607659e-06</v>
       </c>
       <c r="JT2" t="n">
-        <v>86736.77609723191</v>
+        <v>86736.77597236849</v>
       </c>
       <c r="JU2" t="n">
-        <v>1.152913498743601e-05</v>
+        <v>1.152913500403298e-05</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.003845620285046057</v>
+        <v>0.003845620286515317</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.659884705827104e-05</v>
+        <v>1.659884705314971e-05</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.02341396449221693</v>
+        <v>0.02341396448440694</v>
       </c>
       <c r="JY2" t="n">
-        <v>86794.20844517004</v>
+        <v>86794.2083202573</v>
       </c>
       <c r="JZ2" t="n">
-        <v>1.159534374036409</v>
+        <v>1.159534372812346</v>
       </c>
       <c r="KA2" t="n">
-        <v>1.159534374036409</v>
+        <v>1.159534372812346</v>
       </c>
       <c r="KB2" t="n">
-        <v>312198.8390357023</v>
+        <v>312198.8389642813</v>
       </c>
       <c r="KC2" t="n">
-        <v>387051.4784991054</v>
+        <v>387051.478398976</v>
       </c>
       <c r="KD2" t="n">
-        <v>3790.970718673118</v>
+        <v>3790.970718702232</v>
       </c>
       <c r="KE2" t="n">
-        <v>716.5720083802661</v>
+        <v>716.5720083774843</v>
       </c>
       <c r="KF2" t="n">
-        <v>1005.235563497405</v>
+        <v>1005.235563493772</v>
       </c>
       <c r="KG2" t="n">
-        <v>323.9394398561265</v>
+        <v>323.9394397939869</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.9993356513661104</v>
+        <v>0.9993356513657327</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.659884705827104e-05</v>
+        <v>1.659884705314971e-05</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.02341396449221693</v>
+        <v>0.02341396448440694</v>
       </c>
       <c r="KK2" t="inlineStr">
         <is>
@@ -9594,97 +9594,97 @@
         <v>1</v>
       </c>
       <c r="KM2" t="n">
-        <v>295.5911436439146</v>
+        <v>295.591143643883</v>
       </c>
       <c r="KN2" t="n">
-        <v>134180.3380620004</v>
+        <v>134180.3380483846</v>
       </c>
       <c r="KO2" t="n">
-        <v>1.582135350284084</v>
+        <v>1.582135350123635</v>
       </c>
       <c r="KP2" t="n">
-        <v>336974.7856698793</v>
+        <v>336974.7856698844</v>
       </c>
       <c r="KQ2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KR2" t="n">
-        <v>3790.970718678343</v>
+        <v>3790.970718707456</v>
       </c>
       <c r="KS2" t="n">
-        <v>-698792.9391661346</v>
+        <v>-698792.9391746204</v>
       </c>
       <c r="KT2" t="n">
-        <v>717.85328728362</v>
+        <v>717.8532872835846</v>
       </c>
       <c r="KU2" t="n">
-        <v>1006.758869097741</v>
+        <v>1006.758869097517</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.402457698434939</v>
+        <v>1.402457698434697</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.9995340644356763</v>
+        <v>0.9995340644357226</v>
       </c>
       <c r="KX2" t="n">
-        <v>344.8001391115942</v>
+        <v>344.8001391115619</v>
       </c>
       <c r="KY2" t="n">
-        <v>188095.5404510571</v>
+        <v>188095.5404319465</v>
       </c>
       <c r="KZ2" t="n">
-        <v>5.316447150219397e-06</v>
+        <v>5.316447150759552e-06</v>
       </c>
       <c r="LA2" t="n">
-        <v>134118.5125661621</v>
+        <v>134118.5125525587</v>
       </c>
       <c r="LB2" t="n">
-        <v>7.456092234147687e-06</v>
+        <v>7.456092234903944e-06</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.003395546720596666</v>
+        <v>0.003395546720595767</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.832897112376857e-05</v>
+        <v>1.832897112376508e-05</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.02606674897541101</v>
+        <v>0.0260667489754043</v>
       </c>
       <c r="LF2" t="n">
-        <v>134180.3380620004</v>
+        <v>134180.3380483846</v>
       </c>
       <c r="LG2" t="n">
-        <v>1.582135350284084</v>
+        <v>1.582135350123635</v>
       </c>
       <c r="LH2" t="n">
-        <v>1.582135350284084</v>
+        <v>1.582135350123635</v>
       </c>
       <c r="LI2" t="n">
-        <v>336974.7856698793</v>
+        <v>336974.7856698844</v>
       </c>
       <c r="LJ2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="LK2" t="n">
-        <v>3790.970718678343</v>
+        <v>3790.970718707456</v>
       </c>
       <c r="LL2" t="n">
-        <v>717.85328728362</v>
+        <v>717.8532872835846</v>
       </c>
       <c r="LM2" t="n">
-        <v>1006.758869097741</v>
+        <v>1006.758869097517</v>
       </c>
       <c r="LN2" t="n">
-        <v>344.8001391115942</v>
+        <v>344.8001391115619</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.9995340644356763</v>
+        <v>0.9995340644357226</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.832897112376857e-05</v>
+        <v>1.832897112376508e-05</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.02606674897541101</v>
+        <v>0.0260667489754043</v>
       </c>
       <c r="LR2" t="inlineStr">
         <is>
@@ -9695,97 +9695,97 @@
         <v>1</v>
       </c>
       <c r="LT2" t="n">
-        <v>269.6356176675642</v>
+        <v>269.6356175988712</v>
       </c>
       <c r="LU2" t="n">
-        <v>97323.20152145048</v>
+        <v>97323.2014250042</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.258211128567637</v>
+        <v>1.258211127641668</v>
       </c>
       <c r="LW2" t="n">
-        <v>318413.6808804171</v>
+        <v>318413.6808313417</v>
       </c>
       <c r="LX2" t="n">
-        <v>395764.1344821464</v>
+        <v>395764.1344133429</v>
       </c>
       <c r="LY2" t="n">
-        <v>3790.970718673119</v>
+        <v>3790.970718702232</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-626416.5968069297</v>
+        <v>-626416.5966231704</v>
       </c>
       <c r="MA2" t="n">
-        <v>716.8304959717835</v>
+        <v>716.8304959695548</v>
       </c>
       <c r="MB2" t="n">
-        <v>1005.554151029569</v>
+        <v>1005.554151026694</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.402778141667051</v>
+        <v>1.402778141667402</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.9993770564605295</v>
+        <v>0.9993770564602434</v>
       </c>
       <c r="ME2" t="n">
-        <v>329.2996776892913</v>
+        <v>329.2996776472909</v>
       </c>
       <c r="MF2" t="n">
-        <v>136438.2477979025</v>
+        <v>136438.247662688</v>
       </c>
       <c r="MG2" t="n">
-        <v>7.329323090408182e-06</v>
+        <v>7.329323097671765e-06</v>
       </c>
       <c r="MH2" t="n">
-        <v>97262.88409068047</v>
+        <v>97262.88399426563</v>
       </c>
       <c r="MI2" t="n">
-        <v>1.028141422444019e-05</v>
+        <v>1.028141423463196e-05</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.00372182323524913</v>
+        <v>0.00372182323619422</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.70412931566993e-05</v>
+        <v>1.704129315322546e-05</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.02408955280636283</v>
+        <v>0.02408955280104971</v>
       </c>
       <c r="MM2" t="n">
-        <v>97323.20152145048</v>
+        <v>97323.2014250042</v>
       </c>
       <c r="MN2" t="n">
-        <v>1.258211128567637</v>
+        <v>1.258211127641668</v>
       </c>
       <c r="MO2" t="n">
-        <v>1.258211128567637</v>
+        <v>1.258211127641668</v>
       </c>
       <c r="MP2" t="n">
-        <v>318413.6808804171</v>
+        <v>318413.6808313417</v>
       </c>
       <c r="MQ2" t="n">
-        <v>395764.1344821464</v>
+        <v>395764.1344133429</v>
       </c>
       <c r="MR2" t="n">
-        <v>3790.970718673119</v>
+        <v>3790.970718702232</v>
       </c>
       <c r="MS2" t="n">
-        <v>716.8304959717835</v>
+        <v>716.8304959695548</v>
       </c>
       <c r="MT2" t="n">
-        <v>1005.554151029569</v>
+        <v>1005.554151026694</v>
       </c>
       <c r="MU2" t="n">
-        <v>329.2996776892913</v>
+        <v>329.2996776472909</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.9993770564605295</v>
+        <v>0.9993770564602434</v>
       </c>
       <c r="MW2" t="n">
-        <v>1.70412931566993e-05</v>
+        <v>1.704129315322546e-05</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.02408955280636283</v>
+        <v>0.02408955280104971</v>
       </c>
       <c r="MY2" t="inlineStr">
         <is>
@@ -9796,139 +9796,139 @@
         <v>1</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.8136207625704924</v>
+        <v>0.8136207638993312</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.4074989125500066</v>
+        <v>0.407498913365435</v>
       </c>
       <c r="NC2" t="n">
-        <v>240309.1994778675</v>
+        <v>240309.199733104</v>
       </c>
       <c r="ND2" t="n">
-        <v>2.708301025964176</v>
+        <v>2.708301023219787</v>
       </c>
       <c r="NE2" t="n">
-        <v>382101.5605169261</v>
+        <v>382101.5604483231</v>
       </c>
       <c r="NF2" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG2" t="n">
-        <v>162.2280707589436</v>
+        <v>162.2280708788134</v>
       </c>
       <c r="NH2" t="n">
-        <v>138.0081422697755</v>
+        <v>138.0081423361816</v>
       </c>
       <c r="NI2" t="n">
-        <v>-85.27426111913383</v>
+        <v>-85.27426123970548</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-31.71162752204395</v>
+        <v>-31.71162754594186</v>
       </c>
       <c r="NK2" t="n">
-        <v>286.0687178872685</v>
+        <v>286.0687180249177</v>
       </c>
       <c r="NL2" t="n">
-        <v>138.0081422697755</v>
+        <v>138.0081423361816</v>
       </c>
       <c r="NM2" t="n">
-        <v>-250.5774611191338</v>
+        <v>-250.5774612397055</v>
       </c>
       <c r="NN2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NO2" t="n">
-        <v>228.7656458259134</v>
+        <v>228.7656457179071</v>
       </c>
       <c r="NP2" t="n">
-        <v>51133.06558879898</v>
+        <v>51133.06548840964</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.7792330882969026</v>
+        <v>0.779233087134933</v>
       </c>
       <c r="NR2" t="n">
-        <v>289226.7478714591</v>
+        <v>289226.7477943597</v>
       </c>
       <c r="NS2" t="n">
-        <v>354846.4788053133</v>
+        <v>354846.4786972331</v>
       </c>
       <c r="NT2" t="n">
-        <v>3811.027279727264</v>
+        <v>3811.027279817972</v>
       </c>
       <c r="NU2" t="n">
-        <v>-516985.638101668</v>
+        <v>-516985.6378188843</v>
       </c>
       <c r="NV2" t="n">
-        <v>715.896441565304</v>
+        <v>715.8964415636967</v>
       </c>
       <c r="NW2" t="n">
-        <v>1004.24823447875</v>
+        <v>1004.248234476064</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.40278422432575</v>
+        <v>1.402784224325147</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.9992804916523165</v>
+        <v>0.9992804916523176</v>
       </c>
       <c r="NZ2" t="n">
-        <v>303.2889430348068</v>
+        <v>303.288942963146</v>
       </c>
       <c r="OA2" t="n">
-        <v>71677.11896797545</v>
+        <v>71677.11882722104</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.39514536074865e-05</v>
+        <v>1.395145363488337e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>51096.32524020375</v>
+        <v>51096.32513988638</v>
       </c>
       <c r="OD2" t="n">
-        <v>1.957087902699463e-05</v>
+        <v>1.957087906541812e-05</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.004384345635197941</v>
+        <v>0.00438434563725971</v>
       </c>
       <c r="OF2" t="n">
-        <v>1.490881736267496e-05</v>
+        <v>1.490881735685525e-05</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.0208503652321175</v>
+        <v>0.02085036522333731</v>
       </c>
       <c r="OH2" t="n">
-        <v>51133.06558879898</v>
+        <v>51133.06548840964</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.7792330882969026</v>
+        <v>0.779233087134933</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.7792330882969026</v>
+        <v>0.779233087134933</v>
       </c>
       <c r="OK2" t="n">
-        <v>289226.7478714591</v>
+        <v>289226.7477943597</v>
       </c>
       <c r="OL2" t="n">
-        <v>354846.4788053133</v>
+        <v>354846.4786972331</v>
       </c>
       <c r="OM2" t="n">
-        <v>3811.027279727264</v>
+        <v>3811.027279817972</v>
       </c>
       <c r="ON2" t="n">
-        <v>715.896441565304</v>
+        <v>715.8964415636967</v>
       </c>
       <c r="OO2" t="n">
-        <v>1004.24823447875</v>
+        <v>1004.248234476064</v>
       </c>
       <c r="OP2" t="n">
-        <v>303.2889430348068</v>
+        <v>303.288942963146</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.9992804916523165</v>
+        <v>0.9992804916523176</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.490881736267496e-05</v>
+        <v>1.490881735685525e-05</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.0208503652321175</v>
+        <v>0.02085036522333731</v>
       </c>
       <c r="OT2" t="inlineStr">
         <is>
@@ -9939,97 +9939,97 @@
         <v>1</v>
       </c>
       <c r="OV2" t="n">
-        <v>241.9069467931207</v>
+        <v>241.906946704647</v>
       </c>
       <c r="OW2" t="n">
-        <v>62141.47968785097</v>
+        <v>62141.4795889168</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.895520178959495</v>
+        <v>0.8955201778613152</v>
       </c>
       <c r="OY2" t="n">
-        <v>298613.9621147205</v>
+        <v>298613.9620515687</v>
       </c>
       <c r="OZ2" t="n">
-        <v>368005.4522763975</v>
+        <v>368005.4521878639</v>
       </c>
       <c r="PA2" t="n">
-        <v>3811.027279719825</v>
+        <v>3811.027279810534</v>
       </c>
       <c r="PB2" t="n">
-        <v>-553908.5211059175</v>
+        <v>-553908.5208792186</v>
       </c>
       <c r="PC2" t="n">
-        <v>716.1127517541739</v>
+        <v>716.1127517524125</v>
       </c>
       <c r="PD2" t="n">
-        <v>1004.546470176577</v>
+        <v>1004.546470173821</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.402776961750593</v>
+        <v>1.402776961750196</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9993132453376327</v>
+        <v>0.9993132453375918</v>
       </c>
       <c r="PG2" t="n">
-        <v>311.8879211820724</v>
+        <v>311.8879211249808</v>
       </c>
       <c r="PH2" t="n">
-        <v>87110.89739176742</v>
+        <v>87110.89725305139</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.147962000095877e-05</v>
+        <v>1.1479620019239e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>62098.89367092078</v>
+        <v>62098.89357205165</v>
       </c>
       <c r="PK2" t="n">
-        <v>1.610334646699628e-05</v>
+        <v>1.610334649263481e-05</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.004146623465717319</v>
+        <v>0.004146623467226916</v>
       </c>
       <c r="PM2" t="n">
-        <v>1.56091123300001e-05</v>
+        <v>1.56091123253317e-05</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.02190894394824925</v>
+        <v>0.02190894394117347</v>
       </c>
       <c r="PO2" t="n">
-        <v>62141.47968785097</v>
+        <v>62141.4795889168</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.895520178959495</v>
+        <v>0.8955201778613152</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.895520178959495</v>
+        <v>0.8955201778613152</v>
       </c>
       <c r="PR2" t="n">
-        <v>298613.9621147205</v>
+        <v>298613.9620515687</v>
       </c>
       <c r="PS2" t="n">
-        <v>368005.4522763975</v>
+        <v>368005.4521878639</v>
       </c>
       <c r="PT2" t="n">
-        <v>3811.027279719825</v>
+        <v>3811.027279810534</v>
       </c>
       <c r="PU2" t="n">
-        <v>716.1127517541739</v>
+        <v>716.1127517524125</v>
       </c>
       <c r="PV2" t="n">
-        <v>1004.546470176577</v>
+        <v>1004.546470173821</v>
       </c>
       <c r="PW2" t="n">
-        <v>311.8879211820724</v>
+        <v>311.8879211249808</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.9993132453376327</v>
+        <v>0.9993132453375918</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.56091123300001e-05</v>
+        <v>1.56091123253317e-05</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.02190894394824925</v>
+        <v>0.02190894394117347</v>
       </c>
       <c r="QA2" t="inlineStr">
         <is>
@@ -10040,97 +10040,97 @@
         <v>1</v>
       </c>
       <c r="QC2" t="n">
-        <v>269.617246861227</v>
+        <v>269.6172467924948</v>
       </c>
       <c r="QD2" t="n">
-        <v>90751.39150439923</v>
+        <v>90751.39139274684</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.173280691342822</v>
+        <v>1.173280690198572</v>
       </c>
       <c r="QF2" t="n">
-        <v>318415.7282789032</v>
+        <v>318415.7282298402</v>
       </c>
       <c r="QG2" t="n">
-        <v>395764.1344821401</v>
+        <v>395764.1344133491</v>
       </c>
       <c r="QH2" t="n">
-        <v>3811.027279709494</v>
+        <v>3811.027279807305</v>
       </c>
       <c r="QI2" t="n">
-        <v>-631754.5483861649</v>
+        <v>-631754.5482193868</v>
       </c>
       <c r="QJ2" t="n">
-        <v>716.8090419859953</v>
+        <v>716.8090419837035</v>
       </c>
       <c r="QK2" t="n">
-        <v>1005.419714702286</v>
+        <v>1005.419714699018</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.402632578289839</v>
+        <v>1.402632578289764</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.9994186961951663</v>
+        <v>0.9994186961950378</v>
       </c>
       <c r="QN2" t="n">
-        <v>329.2850255248722</v>
+        <v>329.2850254828485</v>
       </c>
       <c r="QO2" t="n">
-        <v>127217.2156621596</v>
+        <v>127217.215505619</v>
       </c>
       <c r="QP2" t="n">
-        <v>7.860571344806181e-06</v>
+        <v>7.860571354478602e-06</v>
       </c>
       <c r="QQ2" t="n">
-        <v>90698.88838406232</v>
+        <v>90698.88827246233</v>
       </c>
       <c r="QR2" t="n">
-        <v>1.102549345219672e-05</v>
+        <v>1.102549346576298e-05</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.003721194225267595</v>
+        <v>0.003721194226210416</v>
       </c>
       <c r="QT2" t="n">
-        <v>1.703937090368299e-05</v>
+        <v>1.703937090020465e-05</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.02408581985871508</v>
+        <v>0.02408581985339283</v>
       </c>
       <c r="QV2" t="n">
-        <v>90751.39150439923</v>
+        <v>90751.39139274684</v>
       </c>
       <c r="QW2" t="n">
-        <v>1.173280691342822</v>
+        <v>1.173280690198572</v>
       </c>
       <c r="QX2" t="n">
-        <v>1.173280691342822</v>
+        <v>1.173280690198572</v>
       </c>
       <c r="QY2" t="n">
-        <v>318415.7282789032</v>
+        <v>318415.7282298402</v>
       </c>
       <c r="QZ2" t="n">
-        <v>395764.1344821401</v>
+        <v>395764.1344133491</v>
       </c>
       <c r="RA2" t="n">
-        <v>3811.027279709494</v>
+        <v>3811.027279807305</v>
       </c>
       <c r="RB2" t="n">
-        <v>716.8090419859953</v>
+        <v>716.8090419837035</v>
       </c>
       <c r="RC2" t="n">
-        <v>1005.419714702286</v>
+        <v>1005.419714699018</v>
       </c>
       <c r="RD2" t="n">
-        <v>329.2850255248722</v>
+        <v>329.2850254828485</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.9994186961951663</v>
+        <v>0.9994186961950378</v>
       </c>
       <c r="RF2" t="n">
-        <v>1.703937090368299e-05</v>
+        <v>1.703937090020465e-05</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.02408581985871508</v>
+        <v>0.02408581985339283</v>
       </c>
       <c r="RH2" t="inlineStr">
         <is>
@@ -10141,64 +10141,64 @@
         <v>1</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.0271408759803266</v>
+        <v>0.02714087602970262</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.0008514083151524589</v>
+        <v>0.0008514083488856811</v>
       </c>
       <c r="RL2" t="n">
         <v>0.01389884222857662</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.08223654376374549</v>
+        <v>0.08223654400607187</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.041726335118663</v>
+        <v>0.04172633521108342</v>
       </c>
       <c r="RO2" t="n">
-        <v>0.1658540054064642</v>
+        <v>0.1658540058243202</v>
       </c>
       <c r="RP2" t="n">
-        <v>2.402868945680647e-05</v>
+        <v>2.402870894072096e-05</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.5348960932622118</v>
+        <v>0.5348960937838292</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.943221717959029</v>
+        <v>0.9432217186357471</v>
       </c>
       <c r="RS2" t="n">
-        <v>389644.8782241439</v>
+        <v>389644.8779827037</v>
       </c>
       <c r="RT2" t="n">
-        <v>2.708274491629842</v>
+        <v>2.708274488894496</v>
       </c>
       <c r="RU2" t="n">
-        <v>382101.5605169261</v>
+        <v>382101.560448323</v>
       </c>
       <c r="RV2" t="n">
         <v>0</v>
       </c>
       <c r="RW2" t="n">
-        <v>3800.744136498892</v>
+        <v>3800.744136051275</v>
       </c>
       <c r="RX2" t="n">
-        <v>4.282437852265645</v>
+        <v>4.282438002646998</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.009585105759520594</v>
+        <v>0.009585105753982541</v>
       </c>
       <c r="RZ2" t="n">
-        <v>0.0002341272891364445</v>
+        <v>0.0002341272988100653</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.02886589036774451</v>
+        <v>0.02886589037552808</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.01465049476147926</v>
+        <v>0.01465049475351844</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.004937114520142971</v>
+        <v>0.004937114506552476</v>
       </c>
     </row>
     <row r="3">
@@ -10206,7 +10206,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01761869853766278</v>
+        <v>0.01761869845332916</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -10215,25 +10215,25 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04914443528569918</v>
+        <v>0.04914443526676167</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08204320236260509</v>
+        <v>0.08204320225933397</v>
       </c>
       <c r="H3" t="n">
-        <v>1.129818461009791e-12</v>
+        <v>-7.495837284210438e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>80.71248350705856</v>
+        <v>80.71248350566523</v>
       </c>
       <c r="K3" t="n">
-        <v>80.71248350705856</v>
+        <v>80.71248350566523</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -10242,10 +10242,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>80.71248350705856</v>
+        <v>80.71248350566523</v>
       </c>
       <c r="O3" t="n">
-        <v>80.71248350705856</v>
+        <v>80.71248350566523</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -10254,97 +10254,97 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.3522750146499</v>
+        <v>292.3522750145618</v>
       </c>
       <c r="S3" t="n">
-        <v>132772.1796842909</v>
+        <v>132772.1796841502</v>
       </c>
       <c r="T3" t="n">
-        <v>1.582932747001679</v>
+        <v>1.58293274700048</v>
       </c>
       <c r="U3" t="n">
-        <v>334649.8439824436</v>
+        <v>334649.8439823804</v>
       </c>
       <c r="V3" t="n">
-        <v>418527.1785917516</v>
+        <v>418527.1785916631</v>
       </c>
       <c r="W3" t="n">
         <v>3782.917347723461</v>
       </c>
       <c r="X3" t="n">
-        <v>-687417.3142075875</v>
+        <v>-687417.3142073432</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7129007517474</v>
+        <v>717.7129007517436</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.647652845951</v>
+        <v>1006.647652845946</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402577063602406</v>
+        <v>1.402577063602407</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.999497963340511</v>
+        <v>0.9994979633405103</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.9081100795411</v>
+        <v>342.9081100794894</v>
       </c>
       <c r="AD3" t="n">
-        <v>186130.68560085</v>
+        <v>186130.685600653</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.372569261064566e-06</v>
+        <v>5.372569261070255e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132706.2094704361</v>
+        <v>132706.2094702955</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.535442418184486e-06</v>
+        <v>7.535442418192471e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003433462124706445</v>
+        <v>0.003433462124707477</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.817140103498816e-05</v>
+        <v>1.817140103498385e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0258242925087422</v>
+        <v>0.02582429250873557</v>
       </c>
       <c r="AK3" t="n">
-        <v>132772.1796842909</v>
+        <v>132772.1796841502</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.582932747001679</v>
+        <v>1.58293274700048</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.582932747001679</v>
+        <v>1.58293274700048</v>
       </c>
       <c r="AN3" t="n">
-        <v>334649.8439824436</v>
+        <v>334649.8439823804</v>
       </c>
       <c r="AO3" t="n">
-        <v>418527.1785917516</v>
+        <v>418527.1785916631</v>
       </c>
       <c r="AP3" t="n">
         <v>3782.917347723461</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7129007517474</v>
+        <v>717.7129007517436</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.647652845951</v>
+        <v>1006.647652845946</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.9081100795411</v>
+        <v>342.9081100794894</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.999497963340511</v>
+        <v>0.9994979633405103</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.817140103498816e-05</v>
+        <v>1.817140103498385e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.0258242925087422</v>
+        <v>0.02582429250873557</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -10557,16 +10557,16 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.235376420488674</v>
+        <v>0.2353764204846462</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.235376420488674</v>
+        <v>0.2353764204846462</v>
       </c>
       <c r="DO3" t="n">
-        <v>183929.9703416543</v>
+        <v>183929.9703383835</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.74285985403099</v>
+        <v>2.742859853981563</v>
       </c>
       <c r="DQ3" t="n">
         <v>421784.4310885898</v>
@@ -10575,121 +10575,121 @@
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>306.8418844656294</v>
+        <v>306.8418919843168</v>
       </c>
       <c r="DT3" t="n">
-        <v>125.3773387009114</v>
+        <v>125.3773417730899</v>
       </c>
       <c r="DU3" t="n">
-        <v>280.057967218745</v>
+        <v>280.0579740811338</v>
       </c>
       <c r="DV3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW3" t="n">
-        <v>306.8418844656294</v>
+        <v>306.8418919843168</v>
       </c>
       <c r="DX3" t="n">
-        <v>125.3773387009114</v>
+        <v>125.3773417730899</v>
       </c>
       <c r="DY3" t="n">
-        <v>280.057967218745</v>
+        <v>280.0579740811338</v>
       </c>
       <c r="DZ3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA3" t="n">
-        <v>248.6139900070169</v>
+        <v>248.6139877029344</v>
       </c>
       <c r="EB3" t="n">
-        <v>72670.29002878447</v>
+        <v>72670.28757295062</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.019019585738042</v>
+        <v>1.019019560752372</v>
       </c>
       <c r="ED3" t="n">
-        <v>303394.5314089437</v>
+        <v>303394.5297632227</v>
       </c>
       <c r="EE3" t="n">
-        <v>374708.4600574807</v>
+        <v>374708.4577503322</v>
       </c>
       <c r="EF3" t="n">
-        <v>3793.461869181597</v>
+        <v>3793.461869595284</v>
       </c>
       <c r="EG3" t="n">
-        <v>-568399.2311792324</v>
+        <v>-568399.2248487804</v>
       </c>
       <c r="EH3" t="n">
-        <v>716.2663343504157</v>
+        <v>716.266334299794</v>
       </c>
       <c r="EI3" t="n">
-        <v>1004.832375624985</v>
+        <v>1004.832375556658</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.402875337616238</v>
+        <v>1.402875337619993</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9992923632818068</v>
+        <v>0.9992923632746505</v>
       </c>
       <c r="EL3" t="n">
-        <v>316.1865763691429</v>
+        <v>316.1865749021203</v>
       </c>
       <c r="EM3" t="n">
-        <v>101875.4142101014</v>
+        <v>101875.410766835</v>
       </c>
       <c r="EN3" t="n">
-        <v>9.815911010066308e-06</v>
+        <v>9.815911341832298e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>72619.00717650923</v>
+        <v>72619.00472187986</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.377049947225772e-05</v>
+        <v>1.377049993772089e-05</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.004035765664235652</v>
+        <v>0.00403576570154329</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.596159565886564e-05</v>
+        <v>1.596159553860841e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.02244419805511642</v>
+        <v>0.02244419787248732</v>
       </c>
       <c r="ET3" t="n">
-        <v>72670.29002878447</v>
+        <v>72670.28757295062</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.019019585738042</v>
+        <v>1.019019560752372</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.019019585738042</v>
+        <v>1.019019560752372</v>
       </c>
       <c r="EW3" t="n">
-        <v>303394.5314089437</v>
+        <v>303394.5297632227</v>
       </c>
       <c r="EX3" t="n">
-        <v>374708.4600574807</v>
+        <v>374708.4577503322</v>
       </c>
       <c r="EY3" t="n">
-        <v>3793.461869181597</v>
+        <v>3793.461869595284</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.2663343504157</v>
+        <v>716.266334299794</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.832375624985</v>
+        <v>1004.832375556658</v>
       </c>
       <c r="FB3" t="n">
-        <v>316.1865763691429</v>
+        <v>316.1865749021203</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9992923632818068</v>
+        <v>0.9992923632746505</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.596159565886564e-05</v>
+        <v>1.596159553860841e-05</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.02244419805511642</v>
+        <v>0.02244419787248732</v>
       </c>
       <c r="FF3" t="inlineStr">
         <is>
@@ -10700,97 +10700,97 @@
         <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>295.5884537394506</v>
+        <v>295.5884537392059</v>
       </c>
       <c r="FI3" t="n">
-        <v>133020.3590232337</v>
+        <v>133020.3588317547</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.568465982284075</v>
+        <v>1.568465980026583</v>
       </c>
       <c r="FK3" t="n">
-        <v>336975.2222655328</v>
+        <v>336975.2222657481</v>
       </c>
       <c r="FL3" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.43108869</v>
       </c>
       <c r="FM3" t="n">
-        <v>3793.461869189029</v>
+        <v>3793.461869602717</v>
       </c>
       <c r="FN3" t="n">
-        <v>-699519.0971446618</v>
+        <v>-699519.0972658143</v>
       </c>
       <c r="FO3" t="n">
-        <v>717.8502656721255</v>
+        <v>717.8502656716354</v>
       </c>
       <c r="FP3" t="n">
-        <v>1006.739822665293</v>
+        <v>1006.739822662155</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.402437069132627</v>
+        <v>1.402437069129213</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.9995380147656631</v>
+        <v>0.9995380147663178</v>
       </c>
       <c r="FS3" t="n">
-        <v>344.7973817657947</v>
+        <v>344.7973817654556</v>
       </c>
       <c r="FT3" t="n">
-        <v>186467.4460660562</v>
+        <v>186467.445797307</v>
       </c>
       <c r="FU3" t="n">
-        <v>5.362866393556703e-06</v>
+        <v>5.36286640128602e-06</v>
       </c>
       <c r="FV3" t="n">
-        <v>132959.5816954423</v>
+        <v>132959.5815041359</v>
       </c>
       <c r="FW3" t="n">
-        <v>7.521082627129524e-06</v>
+        <v>7.521082637951091e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.003395470178535305</v>
+        <v>0.003395470178520353</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.832867335241878e-05</v>
+        <v>1.83286733523793e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.02606617654997884</v>
+        <v>0.02606617654989922</v>
       </c>
       <c r="GA3" t="n">
-        <v>133020.3590232337</v>
+        <v>133020.3588317547</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.568465982284075</v>
+        <v>1.568465980026583</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.568465982284075</v>
+        <v>1.568465980026583</v>
       </c>
       <c r="GD3" t="n">
-        <v>336975.2222655328</v>
+        <v>336975.2222657481</v>
       </c>
       <c r="GE3" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.43108869</v>
       </c>
       <c r="GF3" t="n">
-        <v>3793.461869189029</v>
+        <v>3793.461869602717</v>
       </c>
       <c r="GG3" t="n">
-        <v>717.8502656721255</v>
+        <v>717.8502656716354</v>
       </c>
       <c r="GH3" t="n">
-        <v>1006.739822665293</v>
+        <v>1006.739822662155</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.7973817657947</v>
+        <v>344.7973817654556</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.9995380147656631</v>
+        <v>0.9995380147663178</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.832867335241878e-05</v>
+        <v>1.83286733523793e-05</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.02606617654997884</v>
+        <v>0.02606617654989922</v>
       </c>
       <c r="GM3" t="inlineStr">
         <is>
@@ -10801,97 +10801,97 @@
         <v>1</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.5884537394506</v>
+        <v>295.5884537392059</v>
       </c>
       <c r="GP3" t="n">
-        <v>133020.3590232337</v>
+        <v>133020.3588317547</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.568465982284075</v>
+        <v>1.568465980026583</v>
       </c>
       <c r="GR3" t="n">
-        <v>336975.2222655328</v>
+        <v>336975.2222657481</v>
       </c>
       <c r="GS3" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.43108869</v>
       </c>
       <c r="GT3" t="n">
-        <v>3793.461869189029</v>
+        <v>3793.461869602717</v>
       </c>
       <c r="GU3" t="n">
-        <v>-699519.0971446618</v>
+        <v>-699519.0972658143</v>
       </c>
       <c r="GV3" t="n">
-        <v>717.8502656721255</v>
+        <v>717.8502656716354</v>
       </c>
       <c r="GW3" t="n">
-        <v>1006.739822665293</v>
+        <v>1006.739822662155</v>
       </c>
       <c r="GX3" t="n">
-        <v>1.402437069132627</v>
+        <v>1.402437069129213</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.9995380147656631</v>
+        <v>0.9995380147663178</v>
       </c>
       <c r="GZ3" t="n">
-        <v>344.7973817657947</v>
+        <v>344.7973817654556</v>
       </c>
       <c r="HA3" t="n">
-        <v>186467.4460660562</v>
+        <v>186467.445797307</v>
       </c>
       <c r="HB3" t="n">
-        <v>5.362866393556703e-06</v>
+        <v>5.36286640128602e-06</v>
       </c>
       <c r="HC3" t="n">
-        <v>132959.5816954423</v>
+        <v>132959.5815041359</v>
       </c>
       <c r="HD3" t="n">
-        <v>7.521082627129524e-06</v>
+        <v>7.521082637951091e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.003395470178535305</v>
+        <v>0.003395470178520353</v>
       </c>
       <c r="HF3" t="n">
-        <v>1.832867335241878e-05</v>
+        <v>1.83286733523793e-05</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.02606617654997884</v>
+        <v>0.02606617654989922</v>
       </c>
       <c r="HH3" t="n">
-        <v>133020.3590232337</v>
+        <v>133020.3588317547</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.568465982284075</v>
+        <v>1.568465980026583</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.568465982284075</v>
+        <v>1.568465980026583</v>
       </c>
       <c r="HK3" t="n">
-        <v>336975.2222655328</v>
+        <v>336975.2222657481</v>
       </c>
       <c r="HL3" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.43108869</v>
       </c>
       <c r="HM3" t="n">
-        <v>3793.461869189029</v>
+        <v>3793.461869602717</v>
       </c>
       <c r="HN3" t="n">
-        <v>717.8502656721255</v>
+        <v>717.8502656716354</v>
       </c>
       <c r="HO3" t="n">
-        <v>1006.739822665293</v>
+        <v>1006.739822662155</v>
       </c>
       <c r="HP3" t="n">
-        <v>344.7973817657947</v>
+        <v>344.7973817654556</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9995380147656631</v>
+        <v>0.9995380147663178</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.832867335241878e-05</v>
+        <v>1.83286733523793e-05</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.02606617654997884</v>
+        <v>0.02606617654989922</v>
       </c>
       <c r="HT3" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.01795407854873812</v>
+        <v>0.01795407857204186</v>
       </c>
       <c r="HW3" t="n">
         <v>0</v>
@@ -10911,28 +10911,28 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.04927004794115912</v>
+        <v>0.04927004796102912</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.08250419502914037</v>
+        <v>0.0825041950723141</v>
       </c>
       <c r="IB3" t="n">
-        <v>8.402803646542778e-06</v>
+        <v>8.402793039222201e-06</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.9704456400052743</v>
+        <v>0.9704456682871616</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.9704456400052743</v>
+        <v>0.9704456682871616</v>
       </c>
       <c r="IE3" t="n">
-        <v>512458.3893172585</v>
+        <v>512458.3931700726</v>
       </c>
       <c r="IF3" t="n">
-        <v>2.742849774788034</v>
+        <v>2.742849774744521</v>
       </c>
       <c r="IG3" t="n">
         <v>421784.4310885898</v>
@@ -10941,166 +10941,166 @@
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>2113.446636958804</v>
+        <v>2113.446619899711</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.00664376597212233</v>
+        <v>0.006643765895365246</v>
       </c>
       <c r="IL3" t="n">
         <v>0</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.01853168247202491</v>
+        <v>0.01853168233948639</v>
       </c>
       <c r="IN3" t="n">
         <v>0</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.005761901152670912</v>
+        <v>0.005761901113682131</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.02707894910851081</v>
+        <v>0.02707894887242817</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.0007370772172542749</v>
+        <v>0.000737077124943373</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.01389216954113381</v>
+        <v>0.01389216954479444</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.08157448037312864</v>
+        <v>0.08157447958397976</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.04147531836901099</v>
+        <v>0.04147531812059568</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.1647579946090385</v>
+        <v>0.1647579932467414</v>
       </c>
       <c r="IV3" t="n">
-        <v>4.002370657119059e-11</v>
+        <v>4.328434832778782e-11</v>
       </c>
       <c r="IW3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX3" t="n">
-        <v>263.7260050271539</v>
+        <v>263.7260041672531</v>
       </c>
       <c r="IY3" t="n">
-        <v>108.797034945052</v>
+        <v>108.797034936795</v>
       </c>
       <c r="IZ3" t="n">
-        <v>240.2386540812022</v>
+        <v>240.2386531409711</v>
       </c>
       <c r="JA3" t="n">
-        <v>65.63562332814774</v>
+        <v>65.63562324551276</v>
       </c>
       <c r="JB3" t="n">
-        <v>132.106461201528</v>
+        <v>132.1064606613955</v>
       </c>
       <c r="JC3" t="n">
-        <v>108.797034945052</v>
+        <v>108.797034936795</v>
       </c>
       <c r="JD3" t="n">
-        <v>74.93545408120218</v>
+        <v>74.93545314097105</v>
       </c>
       <c r="JE3" t="n">
-        <v>34.55766207899085</v>
+        <v>34.55766174518703</v>
       </c>
       <c r="JF3" t="n">
-        <v>260.8965730732838</v>
+        <v>260.8965732999343</v>
       </c>
       <c r="JG3" t="n">
-        <v>86724.35660657617</v>
+        <v>86724.3568927968</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.158791007304075</v>
+        <v>1.158791010120842</v>
       </c>
       <c r="JI3" t="n">
-        <v>312168.3505726276</v>
+        <v>312168.3507345277</v>
       </c>
       <c r="JJ3" t="n">
-        <v>387008.7282247981</v>
+        <v>387008.7284517771</v>
       </c>
       <c r="JK3" t="n">
-        <v>3791.037829147187</v>
+        <v>3791.03782907045</v>
       </c>
       <c r="JL3" t="n">
-        <v>-602060.049790884</v>
+        <v>-602060.0504031257</v>
       </c>
       <c r="JM3" t="n">
-        <v>716.5707622890736</v>
+        <v>716.5707622953863</v>
       </c>
       <c r="JN3" t="n">
-        <v>1005.233646354304</v>
+        <v>1005.233646362607</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.402839327609602</v>
+        <v>1.40283932760883</v>
       </c>
       <c r="JP3" t="n">
-        <v>0.9993356156803489</v>
+        <v>0.9993356156811795</v>
       </c>
       <c r="JQ3" t="n">
-        <v>323.9128724488306</v>
+        <v>323.9128725897107</v>
       </c>
       <c r="JR3" t="n">
-        <v>121579.8297998149</v>
+        <v>121579.8302011068</v>
       </c>
       <c r="JS3" t="n">
-        <v>8.2250485269352e-06</v>
+        <v>8.225048499787237e-06</v>
       </c>
       <c r="JT3" t="n">
-        <v>86666.9670624244</v>
+        <v>86666.96734852892</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.153842154508212e-05</v>
+        <v>1.153842150699154e-05</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.003846245886111745</v>
+        <v>0.003846245882780405</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.659665536554677e-05</v>
+        <v>1.659665537715784e-05</v>
       </c>
       <c r="JX3" t="n">
-        <v>0.02341062004877046</v>
+        <v>0.02341062006647743</v>
       </c>
       <c r="JY3" t="n">
-        <v>86724.35660657617</v>
+        <v>86724.3568927968</v>
       </c>
       <c r="JZ3" t="n">
-        <v>1.158791007304075</v>
+        <v>1.158791010120842</v>
       </c>
       <c r="KA3" t="n">
-        <v>1.158791007304075</v>
+        <v>1.158791010120842</v>
       </c>
       <c r="KB3" t="n">
-        <v>312168.3505726276</v>
+        <v>312168.3507345277</v>
       </c>
       <c r="KC3" t="n">
-        <v>387008.7282247981</v>
+        <v>387008.7284517771</v>
       </c>
       <c r="KD3" t="n">
-        <v>3791.037829147187</v>
+        <v>3791.03782907045</v>
       </c>
       <c r="KE3" t="n">
-        <v>716.5707622890736</v>
+        <v>716.5707622953863</v>
       </c>
       <c r="KF3" t="n">
-        <v>1005.233646354304</v>
+        <v>1005.233646362607</v>
       </c>
       <c r="KG3" t="n">
-        <v>323.9128724488306</v>
+        <v>323.9128725897107</v>
       </c>
       <c r="KH3" t="n">
-        <v>0.9993356156803489</v>
+        <v>0.9993356156811795</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.659665536554677e-05</v>
+        <v>1.659665537715784e-05</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.02341062004877046</v>
+        <v>0.02341062006647743</v>
       </c>
       <c r="KK3" t="inlineStr">
         <is>
@@ -11111,97 +11111,97 @@
         <v>1</v>
       </c>
       <c r="KM3" t="n">
-        <v>295.5910708745762</v>
+        <v>295.5910708747595</v>
       </c>
       <c r="KN3" t="n">
-        <v>134148.9565008311</v>
+        <v>134148.9565368681</v>
       </c>
       <c r="KO3" t="n">
-        <v>1.581765547099973</v>
+        <v>1.5817655475241</v>
       </c>
       <c r="KP3" t="n">
-        <v>336974.7974821545</v>
+        <v>336974.7974822126</v>
       </c>
       <c r="KQ3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.43108869</v>
       </c>
       <c r="KR3" t="n">
-        <v>3791.037829152413</v>
+        <v>3791.037829075677</v>
       </c>
       <c r="KS3" t="n">
-        <v>-698812.5005566005</v>
+        <v>-698812.5005345125</v>
       </c>
       <c r="KT3" t="n">
-        <v>717.8532055401857</v>
+        <v>717.853205540284</v>
       </c>
       <c r="KU3" t="n">
-        <v>1006.758353831412</v>
+        <v>1006.758353832007</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.402457140347831</v>
+        <v>1.402457140348467</v>
       </c>
       <c r="KW3" t="n">
-        <v>0.9995341712884407</v>
+        <v>0.9995341712883192</v>
       </c>
       <c r="KX3" t="n">
-        <v>344.8000645105555</v>
+        <v>344.8000645106992</v>
       </c>
       <c r="KY3" t="n">
-        <v>188051.4942358829</v>
+        <v>188051.4942864628</v>
       </c>
       <c r="KZ3" t="n">
-        <v>5.317692390923773e-06</v>
+        <v>5.31769238949348e-06</v>
       </c>
       <c r="LA3" t="n">
-        <v>134087.1594758634</v>
+        <v>134087.1595118678</v>
       </c>
       <c r="LB3" t="n">
-        <v>7.457835663824373e-06</v>
+        <v>7.457835661821833e-06</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.003395544649988161</v>
+        <v>0.003395544649989381</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.83289630678197e-05</v>
+        <v>1.832896306783379e-05</v>
       </c>
       <c r="LE3" t="n">
-        <v>0.02606673348871058</v>
+        <v>0.0260667334887358</v>
       </c>
       <c r="LF3" t="n">
-        <v>134148.9565008311</v>
+        <v>134148.9565368681</v>
       </c>
       <c r="LG3" t="n">
-        <v>1.581765547099973</v>
+        <v>1.5817655475241</v>
       </c>
       <c r="LH3" t="n">
-        <v>1.581765547099973</v>
+        <v>1.5817655475241</v>
       </c>
       <c r="LI3" t="n">
-        <v>336974.7974821545</v>
+        <v>336974.7974822126</v>
       </c>
       <c r="LJ3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.43108869</v>
       </c>
       <c r="LK3" t="n">
-        <v>3791.037829152413</v>
+        <v>3791.037829075677</v>
       </c>
       <c r="LL3" t="n">
-        <v>717.8532055401857</v>
+        <v>717.853205540284</v>
       </c>
       <c r="LM3" t="n">
-        <v>1006.758353831412</v>
+        <v>1006.758353832007</v>
       </c>
       <c r="LN3" t="n">
-        <v>344.8000645105555</v>
+        <v>344.8000645106992</v>
       </c>
       <c r="LO3" t="n">
-        <v>0.9995341712884407</v>
+        <v>0.9995341712883192</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.83289630678197e-05</v>
+        <v>1.832896306783379e-05</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.02606673348871058</v>
+        <v>0.0260667334887358</v>
       </c>
       <c r="LR3" t="inlineStr">
         <is>
@@ -11212,97 +11212,97 @@
         <v>1</v>
       </c>
       <c r="LT3" t="n">
-        <v>269.6062652241726</v>
+        <v>269.6062653794571</v>
       </c>
       <c r="LU3" t="n">
-        <v>97263.52439672702</v>
+        <v>97263.52461832715</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.257576517453776</v>
+        <v>1.257576519593865</v>
       </c>
       <c r="LW3" t="n">
-        <v>318392.7538628</v>
+        <v>318392.7539737291</v>
       </c>
       <c r="LX3" t="n">
-        <v>395734.7867703937</v>
+        <v>395734.7869259174</v>
       </c>
       <c r="LY3" t="n">
-        <v>3791.037829147187</v>
+        <v>3791.037829070451</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-626352.7636695344</v>
+        <v>-626352.7640820117</v>
       </c>
       <c r="MA3" t="n">
-        <v>716.8294850078072</v>
+        <v>716.8294850128547</v>
       </c>
       <c r="MB3" t="n">
-        <v>1005.552545552049</v>
+        <v>1005.55254555862</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.402777880350579</v>
+        <v>1.402777880349869</v>
       </c>
       <c r="MD3" t="n">
-        <v>0.9993770519436833</v>
+        <v>0.9993770519443061</v>
       </c>
       <c r="ME3" t="n">
-        <v>329.2817207572832</v>
+        <v>329.2817208522349</v>
       </c>
       <c r="MF3" t="n">
-        <v>136354.5594342836</v>
+        <v>136354.5597449643</v>
       </c>
       <c r="MG3" t="n">
-        <v>7.333821502917561e-06</v>
+        <v>7.33382148620762e-06</v>
       </c>
       <c r="MH3" t="n">
-        <v>97203.24318216814</v>
+        <v>97203.24340369264</v>
       </c>
       <c r="MI3" t="n">
-        <v>1.028772258273219e-05</v>
+        <v>1.028772255928665e-05</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0.003722224626701018</v>
+        <v>0.003722224624564618</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.703980595218093e-05</v>
+        <v>1.703980596003465e-05</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.02408727594742519</v>
+        <v>0.02408727595943751</v>
       </c>
       <c r="MM3" t="n">
-        <v>97263.52439672702</v>
+        <v>97263.52461832715</v>
       </c>
       <c r="MN3" t="n">
-        <v>1.257576517453776</v>
+        <v>1.257576519593865</v>
       </c>
       <c r="MO3" t="n">
-        <v>1.257576517453776</v>
+        <v>1.257576519593865</v>
       </c>
       <c r="MP3" t="n">
-        <v>318392.7538628</v>
+        <v>318392.7539737291</v>
       </c>
       <c r="MQ3" t="n">
-        <v>395734.7867703937</v>
+        <v>395734.7869259174</v>
       </c>
       <c r="MR3" t="n">
-        <v>3791.037829147187</v>
+        <v>3791.037829070451</v>
       </c>
       <c r="MS3" t="n">
-        <v>716.8294850078072</v>
+        <v>716.8294850128547</v>
       </c>
       <c r="MT3" t="n">
-        <v>1005.552545552049</v>
+        <v>1005.55254555862</v>
       </c>
       <c r="MU3" t="n">
-        <v>329.2817207572832</v>
+        <v>329.2817208522349</v>
       </c>
       <c r="MV3" t="n">
-        <v>0.9993770519436833</v>
+        <v>0.9993770519443061</v>
       </c>
       <c r="MW3" t="n">
-        <v>1.703980595218093e-05</v>
+        <v>1.703980596003465e-05</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.02408727594742519</v>
+        <v>0.02408727595943751</v>
       </c>
       <c r="MY3" t="inlineStr">
         <is>
@@ -11313,139 +11313,139 @@
         <v>1</v>
       </c>
       <c r="NA3" t="n">
-        <v>0.8141880964265025</v>
+        <v>0.8141880934176572</v>
       </c>
       <c r="NB3" t="n">
-        <v>0.4078456660360026</v>
+        <v>0.4078456641910934</v>
       </c>
       <c r="NC3" t="n">
-        <v>240371.5206053433</v>
+        <v>240371.5200386823</v>
       </c>
       <c r="ND3" t="n">
-        <v>2.706590913741183</v>
+        <v>2.706590920114897</v>
       </c>
       <c r="NE3" t="n">
-        <v>382072.2128051735</v>
+        <v>382072.2129607974</v>
       </c>
       <c r="NF3" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG3" t="n">
-        <v>162.2027682125669</v>
+        <v>162.2027634696282</v>
       </c>
       <c r="NH3" t="n">
-        <v>137.9941246812712</v>
+        <v>137.994122053622</v>
       </c>
       <c r="NI3" t="n">
-        <v>-85.24880978212826</v>
+        <v>-85.24880501118022</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-31.70658215303305</v>
+        <v>-31.70658120711225</v>
       </c>
       <c r="NK3" t="n">
-        <v>286.0396616772121</v>
+        <v>286.0396562305171</v>
       </c>
       <c r="NL3" t="n">
-        <v>137.9941246812712</v>
+        <v>137.994122053622</v>
       </c>
       <c r="NM3" t="n">
-        <v>-250.5520097821283</v>
+        <v>-250.5520050111802</v>
       </c>
       <c r="NN3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NO3" t="n">
-        <v>228.7445773409576</v>
+        <v>228.7445790529415</v>
       </c>
       <c r="NP3" t="n">
-        <v>51101.26990470878</v>
+        <v>51101.27138082864</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.7788201362238837</v>
+        <v>0.7788201528908845</v>
       </c>
       <c r="NR3" t="n">
-        <v>289211.7438579794</v>
+        <v>289211.7450804</v>
       </c>
       <c r="NS3" t="n">
-        <v>354825.4427441866</v>
+        <v>354825.4444577813</v>
       </c>
       <c r="NT3" t="n">
-        <v>3811.113741494248</v>
+        <v>3811.113740699766</v>
       </c>
       <c r="NU3" t="n">
-        <v>-516946.159252231</v>
+        <v>-516946.1638814678</v>
       </c>
       <c r="NV3" t="n">
-        <v>715.8960653495952</v>
+        <v>715.8960653744698</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.247335965163</v>
+        <v>1004.247336004213</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.402783706423581</v>
+        <v>1.402783706429386</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992806636145249</v>
+        <v>0.9992806636161107</v>
       </c>
       <c r="NZ3" t="n">
-        <v>303.2749728228373</v>
+        <v>303.2749739588494</v>
       </c>
       <c r="OA3" t="n">
-        <v>71632.5343222426</v>
+        <v>71632.53639184634</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.396013710057289e-05</v>
+        <v>1.396013669723729e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>51064.56112530053</v>
+        <v>51064.56260044409</v>
       </c>
       <c r="OD3" t="n">
-        <v>1.958305286412299e-05</v>
+        <v>1.958305229841141e-05</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.004384744731803062</v>
+        <v>0.004384744699087177</v>
       </c>
       <c r="OF3" t="n">
-        <v>1.490768010938355e-05</v>
+        <v>1.490768020161498e-05</v>
       </c>
       <c r="OG3" t="n">
-        <v>0.0208486473340514</v>
+        <v>0.02084864747317976</v>
       </c>
       <c r="OH3" t="n">
-        <v>51101.26990470878</v>
+        <v>51101.27138082864</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.7788201362238837</v>
+        <v>0.7788201528908845</v>
       </c>
       <c r="OJ3" t="n">
-        <v>0.7788201362238837</v>
+        <v>0.7788201528908845</v>
       </c>
       <c r="OK3" t="n">
-        <v>289211.7438579794</v>
+        <v>289211.7450804</v>
       </c>
       <c r="OL3" t="n">
-        <v>354825.4427441866</v>
+        <v>354825.4444577813</v>
       </c>
       <c r="OM3" t="n">
-        <v>3811.113741494248</v>
+        <v>3811.113740699766</v>
       </c>
       <c r="ON3" t="n">
-        <v>715.8960653495952</v>
+        <v>715.8960653744698</v>
       </c>
       <c r="OO3" t="n">
-        <v>1004.247335965163</v>
+        <v>1004.247336004213</v>
       </c>
       <c r="OP3" t="n">
-        <v>303.2749728228373</v>
+        <v>303.2749739588494</v>
       </c>
       <c r="OQ3" t="n">
-        <v>0.9992806636145249</v>
+        <v>0.9992806636161107</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.490768010938355e-05</v>
+        <v>1.490768020161498e-05</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.0208486473340514</v>
+        <v>0.02084864747317976</v>
       </c>
       <c r="OT3" t="inlineStr">
         <is>
@@ -11456,97 +11456,97 @@
         <v>1</v>
       </c>
       <c r="OV3" t="n">
-        <v>241.8817780756797</v>
+        <v>241.8817790189864</v>
       </c>
       <c r="OW3" t="n">
-        <v>62100.24792426202</v>
+        <v>62100.24894122538</v>
       </c>
       <c r="OX3" t="n">
-        <v>0.8950189899237299</v>
+        <v>0.8950190010894894</v>
       </c>
       <c r="OY3" t="n">
-        <v>298596.0320626186</v>
+        <v>298596.0327360473</v>
       </c>
       <c r="OZ3" t="n">
-        <v>367980.3117520964</v>
+        <v>367980.3126961733</v>
       </c>
       <c r="PA3" t="n">
-        <v>3811.1137414866</v>
+        <v>3811.113740692116</v>
       </c>
       <c r="PB3" t="n">
-        <v>-553858.6564873386</v>
+        <v>-553858.6589461395</v>
       </c>
       <c r="PC3" t="n">
-        <v>716.1121939602925</v>
+        <v>716.1121939789027</v>
       </c>
       <c r="PD3" t="n">
-        <v>1004.545337416856</v>
+        <v>1004.545337445225</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.402776472582391</v>
+        <v>1.40277647258555</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9993133781957257</v>
+        <v>0.9993133781965704</v>
       </c>
       <c r="PG3" t="n">
-        <v>311.8716826849943</v>
+        <v>311.8716832937451</v>
       </c>
       <c r="PH3" t="n">
-        <v>87053.07911731387</v>
+        <v>87053.08054318228</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.14872444506229e-05</v>
+        <v>1.148724426246989e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>62057.69829961337</v>
+        <v>62057.69931593516</v>
       </c>
       <c r="PK3" t="n">
-        <v>1.611403625013644e-05</v>
+        <v>1.611403598623612e-05</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.00414705025673132</v>
+        <v>0.004147050240624929</v>
       </c>
       <c r="PM3" t="n">
-        <v>1.560778215881681e-05</v>
+        <v>1.560778220858731e-05</v>
       </c>
       <c r="PN3" t="n">
-        <v>0.02190692582580269</v>
+        <v>0.02190692590123219</v>
       </c>
       <c r="PO3" t="n">
-        <v>62100.24792426202</v>
+        <v>62100.24894122538</v>
       </c>
       <c r="PP3" t="n">
-        <v>0.8950189899237299</v>
+        <v>0.8950190010894894</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.8950189899237299</v>
+        <v>0.8950190010894894</v>
       </c>
       <c r="PR3" t="n">
-        <v>298596.0320626186</v>
+        <v>298596.0327360473</v>
       </c>
       <c r="PS3" t="n">
-        <v>367980.3117520964</v>
+        <v>367980.3126961733</v>
       </c>
       <c r="PT3" t="n">
-        <v>3811.1137414866</v>
+        <v>3811.113740692116</v>
       </c>
       <c r="PU3" t="n">
-        <v>716.1121939602925</v>
+        <v>716.1121939789027</v>
       </c>
       <c r="PV3" t="n">
-        <v>1004.545337416856</v>
+        <v>1004.545337445225</v>
       </c>
       <c r="PW3" t="n">
-        <v>311.8716826849943</v>
+        <v>311.8716832937451</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.9993133781957257</v>
+        <v>0.9993133781965704</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.560778215881681e-05</v>
+        <v>1.560778220858731e-05</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.02190692582580269</v>
+        <v>0.02190692590123219</v>
       </c>
       <c r="QA3" t="inlineStr">
         <is>
@@ -11557,97 +11557,97 @@
         <v>1</v>
       </c>
       <c r="QC3" t="n">
-        <v>269.587884617164</v>
+        <v>269.5878847730681</v>
       </c>
       <c r="QD3" t="n">
-        <v>90689.62652176194</v>
+        <v>90689.62695752998</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.17260982210008</v>
+        <v>1.172609827057425</v>
       </c>
       <c r="QF3" t="n">
-        <v>318394.8013698437</v>
+        <v>318394.8014807086</v>
       </c>
       <c r="QG3" t="n">
-        <v>395734.7867703939</v>
+        <v>395734.7869259174</v>
       </c>
       <c r="QH3" t="n">
-        <v>3811.113741483576</v>
+        <v>3811.113740681987</v>
       </c>
       <c r="QI3" t="n">
-        <v>-631695.3048315684</v>
+        <v>-631695.3050541149</v>
       </c>
       <c r="QJ3" t="n">
-        <v>716.8080181672167</v>
+        <v>716.8080181729955</v>
       </c>
       <c r="QK3" t="n">
-        <v>1005.418031184726</v>
+        <v>1005.418031195867</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.402632233042603</v>
+        <v>1.402632233046837</v>
       </c>
       <c r="QM3" t="n">
-        <v>0.9994187311421002</v>
+        <v>0.999418731141226</v>
       </c>
       <c r="QN3" t="n">
-        <v>329.2670653440742</v>
+        <v>329.2670654394958</v>
       </c>
       <c r="QO3" t="n">
-        <v>127130.6049362455</v>
+        <v>127130.6055473899</v>
       </c>
       <c r="QP3" t="n">
-        <v>7.865926544607323e-06</v>
+        <v>7.865926506794105e-06</v>
       </c>
       <c r="QQ3" t="n">
-        <v>90637.16200252478</v>
+        <v>90637.16243796366</v>
       </c>
       <c r="QR3" t="n">
-        <v>1.103300211421165e-05</v>
+        <v>1.103300206120693e-05</v>
       </c>
       <c r="QS3" t="n">
-        <v>0.003721595142923586</v>
+        <v>0.003721595140809148</v>
       </c>
       <c r="QT3" t="n">
-        <v>1.703788279469765e-05</v>
+        <v>1.703788280261557e-05</v>
       </c>
       <c r="QU3" t="n">
-        <v>0.02408354119915038</v>
+        <v>0.02408354121128762</v>
       </c>
       <c r="QV3" t="n">
-        <v>90689.62652176194</v>
+        <v>90689.62695752998</v>
       </c>
       <c r="QW3" t="n">
-        <v>1.17260982210008</v>
+        <v>1.172609827057425</v>
       </c>
       <c r="QX3" t="n">
-        <v>1.17260982210008</v>
+        <v>1.172609827057425</v>
       </c>
       <c r="QY3" t="n">
-        <v>318394.8013698437</v>
+        <v>318394.8014807086</v>
       </c>
       <c r="QZ3" t="n">
-        <v>395734.7867703939</v>
+        <v>395734.7869259174</v>
       </c>
       <c r="RA3" t="n">
-        <v>3811.113741483576</v>
+        <v>3811.113740681987</v>
       </c>
       <c r="RB3" t="n">
-        <v>716.8080181672167</v>
+        <v>716.8080181729955</v>
       </c>
       <c r="RC3" t="n">
-        <v>1005.418031184726</v>
+        <v>1005.418031195867</v>
       </c>
       <c r="RD3" t="n">
-        <v>329.2670653440742</v>
+        <v>329.2670654394958</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.9994187311421002</v>
+        <v>0.999418731141226</v>
       </c>
       <c r="RF3" t="n">
-        <v>1.703788279469765e-05</v>
+        <v>1.703788280261557e-05</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.02408354119915038</v>
+        <v>0.02408354121128762</v>
       </c>
       <c r="RH3" t="inlineStr">
         <is>
@@ -11658,64 +11658,64 @@
         <v>1</v>
       </c>
       <c r="RJ3" t="n">
-        <v>0.02716239626210316</v>
+        <v>0.02716239618091603</v>
       </c>
       <c r="RK3" t="n">
-        <v>0.0008657269907845802</v>
+        <v>0.000865726902235129</v>
       </c>
       <c r="RL3" t="n">
         <v>0.01389884222857662</v>
       </c>
       <c r="RM3" t="n">
-        <v>0.08233925586891055</v>
+        <v>0.08233925522954819</v>
       </c>
       <c r="RN3" t="n">
-        <v>0.0417660197152253</v>
+        <v>0.04176601950544114</v>
       </c>
       <c r="RO3" t="n">
-        <v>0.1660322410656002</v>
+        <v>0.1660322400467171</v>
       </c>
       <c r="RP3" t="n">
-        <v>2.410571726421673e-05</v>
+        <v>2.410568694377613e-05</v>
       </c>
       <c r="RQ3" t="n">
-        <v>0.534837301946838</v>
+        <v>0.5348372843043656</v>
       </c>
       <c r="RR3" t="n">
-        <v>0.9431693588653175</v>
+        <v>0.9431693373727866</v>
       </c>
       <c r="RS3" t="n">
-        <v>389428.537464862</v>
+        <v>389428.5359740256</v>
       </c>
       <c r="RT3" t="n">
-        <v>2.706564314605982</v>
+        <v>2.706564320989612</v>
       </c>
       <c r="RU3" t="n">
-        <v>382072.2128051735</v>
+        <v>382072.2129607974</v>
       </c>
       <c r="RV3" t="n">
         <v>0</v>
       </c>
       <c r="RW3" t="n">
-        <v>4015.781422948465</v>
+        <v>4015.78141706757</v>
       </c>
       <c r="RX3" t="n">
-        <v>4.598005162861483</v>
+        <v>4.598004708110913</v>
       </c>
       <c r="RY3" t="n">
-        <v>0.009661558625140438</v>
+        <v>0.009661558607092833</v>
       </c>
       <c r="RZ3" t="n">
-        <v>0.0002629834236631935</v>
+        <v>0.0002629833925289035</v>
       </c>
       <c r="SA3" t="n">
-        <v>0.02910514072322852</v>
+        <v>0.02910514064104609</v>
       </c>
       <c r="SB3" t="n">
-        <v>0.01479807131040474</v>
+        <v>0.01479807132314373</v>
       </c>
       <c r="SC3" t="n">
-        <v>0.004956618143274617</v>
+        <v>0.004956618178535162</v>
       </c>
     </row>
   </sheetData>
@@ -11754,7 +11754,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4281822141936992</v>
+        <v>0.4281822122477559</v>
       </c>
     </row>
     <row r="3">
@@ -11762,7 +11762,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4488754810085762</v>
+        <v>0.4488754876570074</v>
       </c>
     </row>
   </sheetData>
@@ -11776,7 +11776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:CK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12010,6 +12010,226 @@
           <t>gauging_angle_1</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>cascade_type_2</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_in_2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_out_2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_in_2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_out_2</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>chord_2</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>stagger_angle_2</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>opening_2</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_angle_2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_wedge_angle_2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_2</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>throat_location_fraction_2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>axial_chord_2</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_in_2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_out_2</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_throat_2</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_throat_2</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_throat_2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_in_2</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_out_2</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_throat_2</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_in_2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_out_2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_throat_2</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>A_in_2</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>A_out_2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>A_throat_2</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>height_2</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>height_in_2</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>height_throat_2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>height_out_2</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>flaring_angle_2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>aspect_ratio_2</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>solidity_2</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_opening_ratio_2</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_height_ratio_2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>gauging_angle_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -12017,223 +12237,271 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-61.15576777799674</v>
       </c>
     </row>
     <row r="3">
@@ -12242,223 +12510,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>-61.15576777799674</v>
       </c>
     </row>
   </sheetData>
@@ -12552,7 +12868,7 @@
         <v>58</v>
       </c>
       <c r="H2" t="n">
-        <v>9.429544878685933e-08</v>
+        <v>1.082620098484055e-07</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12574,16 +12890,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>7.032811519795164e-08</v>
+        <v>9.231627680630543e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>

--- a/tests/regression_data_windows/performance_analysis_moustapha_windows.xlsx
+++ b/tests/regression_data_windows/performance_analysis_moustapha_windows.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.023365932786992</v>
+        <v>2.023365931489319</v>
       </c>
       <c r="C2" t="n">
-        <v>2.300000000034944</v>
+        <v>2.299999999775103</v>
       </c>
       <c r="D2" t="n">
-        <v>2.698749316920955</v>
+        <v>2.698749314911092</v>
       </c>
       <c r="E2" t="n">
-        <v>89.45650424660334</v>
+        <v>89.45650426588691</v>
       </c>
       <c r="F2" t="n">
-        <v>76.74201859157697</v>
+        <v>76.74201855229245</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1421303656129526</v>
+        <v>0.1421303662370244</v>
       </c>
       <c r="H2" t="n">
-        <v>-75.88414895718992</v>
+        <v>-75.88414891852948</v>
       </c>
       <c r="I2" t="n">
-        <v>130144.2390035779</v>
+        <v>130144.2388400332</v>
       </c>
       <c r="J2" t="n">
-        <v>79.9903128479274</v>
+        <v>79.99031274740821</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-23.8825189420396</v>
+        <v>-23.88251934503996</v>
       </c>
       <c r="M2" t="n">
-        <v>133.6512505142944</v>
+        <v>133.6512508077151</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>373560.5230036175</v>
+        <v>373560.5230283035</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7105513109287349</v>
+        <v>0.7105513106641475</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.078590351199257</v>
+        <v>2.078590349577733</v>
       </c>
       <c r="C3" t="n">
-        <v>2.400000000323555</v>
+        <v>2.399999999969234</v>
       </c>
       <c r="D3" t="n">
-        <v>2.701005598215144</v>
+        <v>2.701005598351295</v>
       </c>
       <c r="E3" t="n">
-        <v>89.42866544981879</v>
+        <v>89.42866547590718</v>
       </c>
       <c r="F3" t="n">
-        <v>75.90048147981949</v>
+        <v>75.90048143891498</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1512734636254903</v>
+        <v>0.1512734643304815</v>
       </c>
       <c r="H3" t="n">
-        <v>-75.05175494344498</v>
+        <v>-75.05175490324547</v>
       </c>
       <c r="I3" t="n">
-        <v>134617.2627079415</v>
+        <v>134617.2626421789</v>
       </c>
       <c r="J3" t="n">
-        <v>82.73955913210909</v>
+        <v>82.73955909168953</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.41972815616141</v>
+        <v>-26.41972844553334</v>
       </c>
       <c r="M3" t="n">
-        <v>140.9489170272336</v>
+        <v>140.9489173556711</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>371944.7481212912</v>
+        <v>371944.7481481509</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6983018878515429</v>
+        <v>0.6983018878691426</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3255,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>79.34035751789435</v>
+        <v>79.34035744601763</v>
       </c>
       <c r="D2" t="n">
-        <v>79.34035751789435</v>
+        <v>79.34035744601763</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.34035751789435</v>
+        <v>79.34035744601763</v>
       </c>
       <c r="H2" t="n">
-        <v>79.34035751789435</v>
+        <v>79.34035744601763</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3279,97 +3279,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.4617683096309</v>
+        <v>292.4617683154175</v>
       </c>
       <c r="L2" t="n">
-        <v>132946.0768973957</v>
+        <v>132946.0769065904</v>
       </c>
       <c r="M2" t="n">
-        <v>1.58441136404741</v>
+        <v>1.584411364125577</v>
       </c>
       <c r="N2" t="n">
-        <v>334728.1718999398</v>
+        <v>334728.1719040795</v>
       </c>
       <c r="O2" t="n">
-        <v>418636.9849229557</v>
+        <v>418636.984928759</v>
       </c>
       <c r="P2" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687721.7119598988</v>
+        <v>-687721.7119759859</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7178602734065</v>
+        <v>717.7178602736687</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.653407018566</v>
+        <v>1006.65340701887</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402575388934996</v>
+        <v>1.402575388934907</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994987285257282</v>
+        <v>0.9994987285257687</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9723774500166</v>
+        <v>342.9723774534127</v>
       </c>
       <c r="W2" t="n">
-        <v>186374.3906570089</v>
+        <v>186374.3906698947</v>
       </c>
       <c r="X2" t="n">
-        <v>5.365544034643331e-06</v>
+        <v>5.365544034272362e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132880.123326937</v>
+        <v>132880.1233361326</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.525580011237716e-06</v>
+        <v>7.525580010716929e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003432178763156385</v>
+        <v>0.003432178763088587</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.81767580871465e-05</v>
+        <v>1.81767580874296e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02583254416869555</v>
+        <v>0.02583254416913161</v>
       </c>
       <c r="AD2" t="n">
-        <v>132946.0768973957</v>
+        <v>132946.0769065904</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.58441136404741</v>
+        <v>1.584411364125577</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.58441136404741</v>
+        <v>1.584411364125577</v>
       </c>
       <c r="AG2" t="n">
-        <v>334728.1718999398</v>
+        <v>334728.1719040795</v>
       </c>
       <c r="AH2" t="n">
-        <v>418636.9849229557</v>
+        <v>418636.984928759</v>
       </c>
       <c r="AI2" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7178602734065</v>
+        <v>717.7178602736687</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.653407018566</v>
+        <v>1006.65340701887</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9723774500166</v>
+        <v>342.9723774534127</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994987285257282</v>
+        <v>0.9994987285257687</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.81767580871465e-05</v>
+        <v>1.81767580874296e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02583254416869555</v>
+        <v>0.02583254416913161</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3582,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2313316253273403</v>
+        <v>0.2313316251154796</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2313316253273403</v>
+        <v>0.2313316251154796</v>
       </c>
       <c r="DH2" t="n">
-        <v>180918.6815678868</v>
+        <v>180918.6814100954</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.698749317003741</v>
+        <v>2.69874931469201</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3645,121 +3645,121 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>260.8833474848479</v>
+        <v>260.8833462775117</v>
       </c>
       <c r="DV2" t="n">
-        <v>107.6895028903039</v>
+        <v>107.6895024510939</v>
       </c>
       <c r="DW2" t="n">
-        <v>237.619637155979</v>
+        <v>237.6196360294913</v>
       </c>
       <c r="DX2" t="n">
-        <v>65.61990963296284</v>
+        <v>65.61990961869704</v>
       </c>
       <c r="DY2" t="n">
-        <v>260.8833474848479</v>
+        <v>260.8833462775117</v>
       </c>
       <c r="DZ2" t="n">
-        <v>107.6895028903039</v>
+        <v>107.6895024510939</v>
       </c>
       <c r="EA2" t="n">
-        <v>237.619637155979</v>
+        <v>237.6196360294913</v>
       </c>
       <c r="EB2" t="n">
-        <v>65.61990963296284</v>
+        <v>65.61990961869702</v>
       </c>
       <c r="EC2" t="n">
-        <v>261.640962301303</v>
+        <v>261.6409626159777</v>
       </c>
       <c r="ED2" t="n">
-        <v>87611.9693049428</v>
+        <v>87611.96969054724</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.167316783048014</v>
+        <v>1.167316786780271</v>
       </c>
       <c r="EF2" t="n">
-        <v>312700.220271791</v>
+        <v>312700.2204966078</v>
       </c>
       <c r="EG2" t="n">
-        <v>387754.370590933</v>
+        <v>387754.3709061135</v>
       </c>
       <c r="EH2" t="n">
-        <v>3790.970718525623</v>
+        <v>3790.970718467707</v>
       </c>
       <c r="EI2" t="n">
-        <v>-604118.8562601731</v>
+        <v>-604118.8571227621</v>
       </c>
       <c r="EJ2" t="n">
-        <v>716.5914381487354</v>
+        <v>716.591438157565</v>
       </c>
       <c r="EK2" t="n">
-        <v>1005.259824328354</v>
+        <v>1005.259824339677</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.40283538263501</v>
+        <v>1.402835382633527</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.9993387893175797</v>
+        <v>0.9993387893188624</v>
       </c>
       <c r="EN2" t="n">
-        <v>324.3752181916654</v>
+        <v>324.3752183869759</v>
       </c>
       <c r="EO2" t="n">
-        <v>122824.2339853491</v>
+        <v>122824.2345259626</v>
       </c>
       <c r="EP2" t="n">
-        <v>8.141715747393004e-06</v>
+        <v>8.141715711557071e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>87554.27436870227</v>
+        <v>87554.27475416689</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.142148692579955e-05</v>
+        <v>1.142148687551555e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.003835327297822438</v>
+        <v>0.003835327293221307</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.663475966667261e-05</v>
+        <v>1.663475968277275e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02346872920446997</v>
+        <v>0.02346872922902691</v>
       </c>
       <c r="EV2" t="n">
-        <v>87611.9693049428</v>
+        <v>87611.96969054724</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.167316783048014</v>
+        <v>1.167316786780271</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.167316783048014</v>
+        <v>1.167316786780271</v>
       </c>
       <c r="EY2" t="n">
-        <v>312700.220271791</v>
+        <v>312700.2204966078</v>
       </c>
       <c r="EZ2" t="n">
-        <v>387754.370590933</v>
+        <v>387754.3709061135</v>
       </c>
       <c r="FA2" t="n">
-        <v>3790.970718525623</v>
+        <v>3790.970718467707</v>
       </c>
       <c r="FB2" t="n">
-        <v>716.5914381487354</v>
+        <v>716.591438157565</v>
       </c>
       <c r="FC2" t="n">
-        <v>1005.259824328354</v>
+        <v>1005.259824339677</v>
       </c>
       <c r="FD2" t="n">
-        <v>324.3752181916654</v>
+        <v>324.3752183869759</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.9993387893175797</v>
+        <v>0.9993387893188624</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.663475966667261e-05</v>
+        <v>1.663475968277275e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.02346872920446997</v>
+        <v>0.02346872922902691</v>
       </c>
       <c r="FH2" t="inlineStr">
         <is>
@@ -3770,97 +3770,97 @@
         <v>1</v>
       </c>
       <c r="FJ2" t="n">
-        <v>295.5911436438668</v>
+        <v>295.5911436441375</v>
       </c>
       <c r="FK2" t="n">
-        <v>134180.338127323</v>
+        <v>134180.3381580645</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.582135351054923</v>
+        <v>1.582135351416112</v>
       </c>
       <c r="FM2" t="n">
-        <v>336974.7856697114</v>
+        <v>336974.7856698433</v>
       </c>
       <c r="FN2" t="n">
-        <v>421784.4310883889</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FO2" t="n">
-        <v>3790.970718537985</v>
+        <v>3790.970718472931</v>
       </c>
       <c r="FP2" t="n">
-        <v>-698792.9391246656</v>
+        <v>-698792.9391062615</v>
       </c>
       <c r="FQ2" t="n">
-        <v>717.8532872837816</v>
+        <v>717.8532872838704</v>
       </c>
       <c r="FR2" t="n">
-        <v>1006.758869098808</v>
+        <v>1006.758869099318</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.40245769843611</v>
+        <v>1.402457698436648</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.9995340644354513</v>
+        <v>0.9995340644353492</v>
       </c>
       <c r="FU2" t="n">
-        <v>344.8001391116335</v>
+        <v>344.8001391118227</v>
       </c>
       <c r="FV2" t="n">
-        <v>188095.5405427427</v>
+        <v>188095.5405858899</v>
       </c>
       <c r="FW2" t="n">
-        <v>5.31644714762794e-06</v>
+        <v>5.3164471464084e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>134118.5126314251</v>
+        <v>134118.512662139</v>
       </c>
       <c r="FY2" t="n">
-        <v>7.456092230519501e-06</v>
+        <v>7.456092228812011e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.003395546720603292</v>
+        <v>0.003395546720603004</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.832897112377568e-05</v>
+        <v>1.832897112379324e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.02606674897542838</v>
+        <v>0.02606674897545843</v>
       </c>
       <c r="GC2" t="n">
-        <v>134180.338127323</v>
+        <v>134180.3381580645</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.582135351054923</v>
+        <v>1.582135351416112</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.582135351054923</v>
+        <v>1.582135351416112</v>
       </c>
       <c r="GF2" t="n">
-        <v>336974.7856697114</v>
+        <v>336974.7856698433</v>
       </c>
       <c r="GG2" t="n">
-        <v>421784.4310883889</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GH2" t="n">
-        <v>3790.970718537985</v>
+        <v>3790.970718472931</v>
       </c>
       <c r="GI2" t="n">
-        <v>717.8532872837816</v>
+        <v>717.8532872838704</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1006.758869098808</v>
+        <v>1006.758869099318</v>
       </c>
       <c r="GK2" t="n">
-        <v>344.8001391116335</v>
+        <v>344.8001391118227</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.9995340644354513</v>
+        <v>0.9995340644353492</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.832897112377568e-05</v>
+        <v>1.832897112379324e-05</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.02606674897542838</v>
+        <v>0.02606674897545843</v>
       </c>
       <c r="GO2" t="inlineStr">
         <is>
@@ -3871,97 +3871,97 @@
         <v>1</v>
       </c>
       <c r="GQ2" t="n">
-        <v>295.5911436438668</v>
+        <v>295.5911436441375</v>
       </c>
       <c r="GR2" t="n">
-        <v>134180.338127323</v>
+        <v>134180.3381580645</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.582135351054923</v>
+        <v>1.582135351416112</v>
       </c>
       <c r="GT2" t="n">
-        <v>336974.7856697114</v>
+        <v>336974.7856698433</v>
       </c>
       <c r="GU2" t="n">
-        <v>421784.4310883889</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GV2" t="n">
-        <v>3790.970718537985</v>
+        <v>3790.970718472931</v>
       </c>
       <c r="GW2" t="n">
-        <v>-698792.9391246656</v>
+        <v>-698792.9391062615</v>
       </c>
       <c r="GX2" t="n">
-        <v>717.8532872837816</v>
+        <v>717.8532872838704</v>
       </c>
       <c r="GY2" t="n">
-        <v>1006.758869098808</v>
+        <v>1006.758869099318</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.40245769843611</v>
+        <v>1.402457698436648</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.9995340644354513</v>
+        <v>0.9995340644353492</v>
       </c>
       <c r="HB2" t="n">
-        <v>344.8001391116335</v>
+        <v>344.8001391118227</v>
       </c>
       <c r="HC2" t="n">
-        <v>188095.5405427427</v>
+        <v>188095.5405858899</v>
       </c>
       <c r="HD2" t="n">
-        <v>5.31644714762794e-06</v>
+        <v>5.3164471464084e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>134118.5126314251</v>
+        <v>134118.512662139</v>
       </c>
       <c r="HF2" t="n">
-        <v>7.456092230519501e-06</v>
+        <v>7.456092228812011e-06</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.003395546720603292</v>
+        <v>0.003395546720603004</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.832897112377568e-05</v>
+        <v>1.832897112379324e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.02606674897542838</v>
+        <v>0.02606674897545843</v>
       </c>
       <c r="HJ2" t="n">
-        <v>134180.338127323</v>
+        <v>134180.3381580645</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.582135351054923</v>
+        <v>1.582135351416112</v>
       </c>
       <c r="HL2" t="n">
-        <v>1.582135351054923</v>
+        <v>1.582135351416112</v>
       </c>
       <c r="HM2" t="n">
-        <v>336974.7856697114</v>
+        <v>336974.7856698433</v>
       </c>
       <c r="HN2" t="n">
-        <v>421784.4310883889</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="HO2" t="n">
-        <v>3790.970718537985</v>
+        <v>3790.970718472931</v>
       </c>
       <c r="HP2" t="n">
-        <v>717.8532872837816</v>
+        <v>717.8532872838704</v>
       </c>
       <c r="HQ2" t="n">
-        <v>1006.758869098808</v>
+        <v>1006.758869099318</v>
       </c>
       <c r="HR2" t="n">
-        <v>344.8001391116335</v>
+        <v>344.8001391118227</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.9995340644354513</v>
+        <v>0.9995340644353492</v>
       </c>
       <c r="HT2" t="n">
-        <v>1.832897112377568e-05</v>
+        <v>1.832897112379324e-05</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.02606674897542838</v>
+        <v>0.02606674897545843</v>
       </c>
       <c r="HV2" t="inlineStr">
         <is>
@@ -3972,22 +3972,22 @@
         <v>1</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8042641140689678</v>
+        <v>0.8042641098626743</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.8042641140689678</v>
+        <v>0.8042641098626743</v>
       </c>
       <c r="HZ2" t="n">
-        <v>478912.6371274155</v>
+        <v>478912.6359787705</v>
       </c>
       <c r="IA2" t="n">
-        <v>2.698749317068431</v>
+        <v>2.698749314690322</v>
       </c>
       <c r="IB2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.01760218519708645</v>
+        <v>0.01760218518210679</v>
       </c>
       <c r="ID2" t="n">
         <v>0</v>
@@ -3996,142 +3996,142 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.04914041452742979</v>
+        <v>0.04914041452378246</v>
       </c>
       <c r="IG2" t="n">
         <v>0</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.08202266826375937</v>
+        <v>0.08202266824513238</v>
       </c>
       <c r="II2" t="n">
-        <v>7.829834003381109e-12</v>
+        <v>-8.647041416232071e-12</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>385655.6966612031</v>
+        <v>385655.6969888919</v>
       </c>
       <c r="IL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM2" t="n">
-        <v>260.8833474848479</v>
+        <v>260.8833462775117</v>
       </c>
       <c r="IN2" t="n">
-        <v>107.6895028903039</v>
+        <v>107.6895024510939</v>
       </c>
       <c r="IO2" t="n">
-        <v>237.619637155979</v>
+        <v>237.6196360294913</v>
       </c>
       <c r="IP2" t="n">
-        <v>65.61990963296284</v>
+        <v>65.61990961869704</v>
       </c>
       <c r="IQ2" t="n">
-        <v>129.7177555914973</v>
+        <v>129.7177545988662</v>
       </c>
       <c r="IR2" t="n">
-        <v>107.6895028903039</v>
+        <v>107.6895024510939</v>
       </c>
       <c r="IS2" t="n">
-        <v>72.316437155979</v>
+        <v>72.31643602949134</v>
       </c>
       <c r="IT2" t="n">
-        <v>33.88243717385213</v>
+        <v>33.88243686893379</v>
       </c>
       <c r="IU2" t="n">
-        <v>261.6409623012092</v>
+        <v>261.640962616078</v>
       </c>
       <c r="IV2" t="n">
-        <v>87611.96930482732</v>
+        <v>87611.96969066428</v>
       </c>
       <c r="IW2" t="n">
-        <v>1.167316783046894</v>
+        <v>1.167316786781382</v>
       </c>
       <c r="IX2" t="n">
-        <v>312700.2202717238</v>
+        <v>312700.2204966795</v>
       </c>
       <c r="IY2" t="n">
-        <v>387754.3705908388</v>
+        <v>387754.3709062139</v>
       </c>
       <c r="IZ2" t="n">
-        <v>3790.970718525642</v>
+        <v>3790.970718467708</v>
       </c>
       <c r="JA2" t="n">
-        <v>-604118.8562599167</v>
+        <v>-604118.857123042</v>
       </c>
       <c r="JB2" t="n">
-        <v>716.591438148733</v>
+        <v>716.5914381575679</v>
       </c>
       <c r="JC2" t="n">
-        <v>1005.25982432835</v>
+        <v>1005.25982433968</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.40283538263501</v>
+        <v>1.402835382633526</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.9993387893175794</v>
+        <v>0.9993387893188629</v>
       </c>
       <c r="JF2" t="n">
-        <v>324.3752181916072</v>
+        <v>324.3752183870382</v>
       </c>
       <c r="JG2" t="n">
-        <v>122824.2339851872</v>
+        <v>122824.2345261267</v>
       </c>
       <c r="JH2" t="n">
-        <v>8.141715747403739e-06</v>
+        <v>8.141715711546193e-06</v>
       </c>
       <c r="JI2" t="n">
-        <v>87554.27436858685</v>
+        <v>87554.27475428385</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.142148692581461e-05</v>
+        <v>1.14214868755003e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.003835327297823809</v>
+        <v>0.003835327293219841</v>
       </c>
       <c r="JL2" t="n">
-        <v>1.663475966666782e-05</v>
+        <v>1.663475968277788e-05</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.02346872920446267</v>
+        <v>0.02346872922903472</v>
       </c>
       <c r="JN2" t="n">
-        <v>87611.96930482732</v>
+        <v>87611.96969066428</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.167316783046894</v>
+        <v>1.167316786781382</v>
       </c>
       <c r="JP2" t="n">
-        <v>1.167316783046894</v>
+        <v>1.167316786781382</v>
       </c>
       <c r="JQ2" t="n">
-        <v>312700.2202717238</v>
+        <v>312700.2204966795</v>
       </c>
       <c r="JR2" t="n">
-        <v>387754.3705908388</v>
+        <v>387754.3709062139</v>
       </c>
       <c r="JS2" t="n">
-        <v>3790.970718525642</v>
+        <v>3790.970718467708</v>
       </c>
       <c r="JT2" t="n">
-        <v>716.591438148733</v>
+        <v>716.5914381575679</v>
       </c>
       <c r="JU2" t="n">
-        <v>1005.25982432835</v>
+        <v>1005.25982433968</v>
       </c>
       <c r="JV2" t="n">
-        <v>324.3752181916072</v>
+        <v>324.3752183870382</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.9993387893175794</v>
+        <v>0.9993387893188629</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.663475966666782e-05</v>
+        <v>1.663475968277788e-05</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.02346872920446267</v>
+        <v>0.02346872922903472</v>
       </c>
       <c r="JZ2" t="inlineStr">
         <is>
@@ -4142,97 +4142,97 @@
         <v>1</v>
       </c>
       <c r="KB2" t="n">
-        <v>295.5911436439745</v>
+        <v>295.5911436441375</v>
       </c>
       <c r="KC2" t="n">
-        <v>134180.3381308114</v>
+        <v>134180.3381580638</v>
       </c>
       <c r="KD2" t="n">
-        <v>1.582135351095495</v>
+        <v>1.582135351416104</v>
       </c>
       <c r="KE2" t="n">
-        <v>336974.7856697817</v>
+        <v>336974.7856698433</v>
       </c>
       <c r="KF2" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KG2" t="n">
-        <v>3790.970718530866</v>
+        <v>3790.970718472933</v>
       </c>
       <c r="KH2" t="n">
-        <v>-698792.9391228692</v>
+        <v>-698792.9391062621</v>
       </c>
       <c r="KI2" t="n">
-        <v>717.8532872837948</v>
+        <v>717.8532872838704</v>
       </c>
       <c r="KJ2" t="n">
-        <v>1006.758869098868</v>
+        <v>1006.758869099318</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.402457698436167</v>
+        <v>1.402457698436648</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.9995340644354407</v>
+        <v>0.9995340644353492</v>
       </c>
       <c r="KM2" t="n">
-        <v>344.8001391116998</v>
+        <v>344.8001391118227</v>
       </c>
       <c r="KN2" t="n">
-        <v>188095.5405476386</v>
+        <v>188095.5405858889</v>
       </c>
       <c r="KO2" t="n">
-        <v>5.31644714748956e-06</v>
+        <v>5.316447146408428e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>134118.5126349105</v>
+        <v>134118.5126621383</v>
       </c>
       <c r="KQ2" t="n">
-        <v>7.456092230325736e-06</v>
+        <v>7.456092228812049e-06</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.003395546720602364</v>
+        <v>0.003395546720603004</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.83289711237814e-05</v>
+        <v>1.832897112379324e-05</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.02606674897543753</v>
+        <v>0.02606674897545843</v>
       </c>
       <c r="KU2" t="n">
-        <v>134180.3381308114</v>
+        <v>134180.3381580638</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.582135351095495</v>
+        <v>1.582135351416104</v>
       </c>
       <c r="KW2" t="n">
-        <v>1.582135351095495</v>
+        <v>1.582135351416104</v>
       </c>
       <c r="KX2" t="n">
-        <v>336974.7856697817</v>
+        <v>336974.7856698433</v>
       </c>
       <c r="KY2" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KZ2" t="n">
-        <v>3790.970718530866</v>
+        <v>3790.970718472933</v>
       </c>
       <c r="LA2" t="n">
-        <v>717.8532872837948</v>
+        <v>717.8532872838704</v>
       </c>
       <c r="LB2" t="n">
-        <v>1006.758869098868</v>
+        <v>1006.758869099318</v>
       </c>
       <c r="LC2" t="n">
-        <v>344.8001391116998</v>
+        <v>344.8001391118227</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.9995340644354407</v>
+        <v>0.9995340644353492</v>
       </c>
       <c r="LE2" t="n">
-        <v>1.83289711237814e-05</v>
+        <v>1.832897112379324e-05</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.02606674897543753</v>
+        <v>0.02606674897545843</v>
       </c>
       <c r="LG2" t="inlineStr">
         <is>
@@ -4243,97 +4243,97 @@
         <v>1</v>
       </c>
       <c r="LI2" t="n">
-        <v>270.0383892954783</v>
+        <v>270.0383894817637</v>
       </c>
       <c r="LJ2" t="n">
-        <v>97831.94131348502</v>
+        <v>97831.94156890815</v>
       </c>
       <c r="LK2" t="n">
-        <v>1.262899136857219</v>
+        <v>1.262899139282189</v>
       </c>
       <c r="LL2" t="n">
-        <v>318701.5628344254</v>
+        <v>318701.5629675286</v>
       </c>
       <c r="LM2" t="n">
-        <v>396167.7186486928</v>
+        <v>396167.7188353</v>
       </c>
       <c r="LN2" t="n">
-        <v>3790.970718525642</v>
+        <v>3790.970718467708</v>
       </c>
       <c r="LO2" t="n">
-        <v>-627539.9080482937</v>
+        <v>-627539.9085522444</v>
       </c>
       <c r="LP2" t="n">
-        <v>716.843423255014</v>
+        <v>716.8434232610756</v>
       </c>
       <c r="LQ2" t="n">
-        <v>1005.569873271299</v>
+        <v>1005.569873278991</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.402774777098808</v>
+        <v>1.402774777097677</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.9993791075692015</v>
+        <v>0.9993791075700286</v>
       </c>
       <c r="LT2" t="n">
-        <v>329.5458191951808</v>
+        <v>329.5458193089912</v>
       </c>
       <c r="LU2" t="n">
-        <v>137151.4107142291</v>
+        <v>137151.4110723138</v>
       </c>
       <c r="LV2" t="n">
-        <v>7.29121191530152e-06</v>
+        <v>7.291211896265106e-06</v>
       </c>
       <c r="LW2" t="n">
-        <v>97771.51183020491</v>
+        <v>97771.5120855525</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.022792816926726e-05</v>
+        <v>1.022792814255522e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.003716282317877461</v>
+        <v>0.003716282315321188</v>
       </c>
       <c r="LZ2" t="n">
-        <v>1.70616467086253e-05</v>
+        <v>1.706164671803918e-05</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.0241206779449784</v>
+        <v>0.02412067795937764</v>
       </c>
       <c r="MB2" t="n">
-        <v>97831.94131348502</v>
+        <v>97831.94156890815</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.262899136857219</v>
+        <v>1.262899139282189</v>
       </c>
       <c r="MD2" t="n">
-        <v>1.262899136857219</v>
+        <v>1.262899139282189</v>
       </c>
       <c r="ME2" t="n">
-        <v>318701.5628344254</v>
+        <v>318701.5629675286</v>
       </c>
       <c r="MF2" t="n">
-        <v>396167.7186486928</v>
+        <v>396167.7188353</v>
       </c>
       <c r="MG2" t="n">
-        <v>3790.970718525642</v>
+        <v>3790.970718467708</v>
       </c>
       <c r="MH2" t="n">
-        <v>716.843423255014</v>
+        <v>716.8434232610756</v>
       </c>
       <c r="MI2" t="n">
-        <v>1005.569873271299</v>
+        <v>1005.569873278991</v>
       </c>
       <c r="MJ2" t="n">
-        <v>329.5458191951808</v>
+        <v>329.5458193089912</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.9993791075692015</v>
+        <v>0.9993791075700286</v>
       </c>
       <c r="ML2" t="n">
-        <v>1.70616467086253e-05</v>
+        <v>1.706164671803918e-05</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.0241206779449784</v>
+        <v>0.02412067795937764</v>
       </c>
       <c r="MN2" t="inlineStr">
         <is>
@@ -4344,139 +4344,139 @@
         <v>1</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.8042641140691121</v>
+        <v>0.8042641098625199</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.3999003262785431</v>
+        <v>0.3999003229774771</v>
       </c>
       <c r="MR2" t="n">
-        <v>237217.1239050727</v>
+        <v>237217.1226190028</v>
       </c>
       <c r="MS2" t="n">
-        <v>2.698749317065841</v>
+        <v>2.698749314692891</v>
       </c>
       <c r="MT2" t="n">
-        <v>382505.1446836666</v>
+        <v>382505.1448700796</v>
       </c>
       <c r="MU2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV2" t="n">
-        <v>133.6512505142944</v>
+        <v>133.6512508077151</v>
       </c>
       <c r="MW2" t="n">
-        <v>122.2076992835794</v>
+        <v>122.2076991712812</v>
       </c>
       <c r="MX2" t="n">
-        <v>-54.11039641186258</v>
+        <v>-54.11039739022789</v>
       </c>
       <c r="MY2" t="n">
-        <v>-23.8825189420396</v>
+        <v>-23.88251934503996</v>
       </c>
       <c r="MZ2" t="n">
-        <v>251.1514444604559</v>
+        <v>251.1514452605427</v>
       </c>
       <c r="NA2" t="n">
-        <v>122.2076992835794</v>
+        <v>122.2076991712812</v>
       </c>
       <c r="NB2" t="n">
-        <v>-219.4135964118626</v>
+        <v>-219.4135973902279</v>
       </c>
       <c r="NC2" t="n">
-        <v>-60.88332393399081</v>
+        <v>-60.88332406497748</v>
       </c>
       <c r="ND2" t="n">
-        <v>238.5383990492639</v>
+        <v>238.5383990347299</v>
       </c>
       <c r="NE2" t="n">
-        <v>59999.99999808934</v>
+        <v>60000.00000486779</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.8768865192623366</v>
+        <v>0.8768865194150667</v>
       </c>
       <c r="NG2" t="n">
-        <v>296205.2894980852</v>
+        <v>296205.2894876493</v>
       </c>
       <c r="NH2" t="n">
-        <v>364629.1946215933</v>
+        <v>364629.1946069699</v>
       </c>
       <c r="NI2" t="n">
-        <v>3807.03191031569</v>
+        <v>3807.03191022198</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-543494.1023945725</v>
+        <v>-543494.1023315105</v>
       </c>
       <c r="NK2" t="n">
-        <v>716.0549009497095</v>
+        <v>716.0549009495417</v>
       </c>
       <c r="NL2" t="n">
-        <v>1004.486582228184</v>
+        <v>1004.486582228375</v>
       </c>
       <c r="NM2" t="n">
-        <v>1.40280665755646</v>
+        <v>1.402806657557055</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.9992941076634264</v>
+        <v>0.9992941076631573</v>
       </c>
       <c r="NO2" t="n">
-        <v>309.7061258840402</v>
+        <v>309.7061258745874</v>
       </c>
       <c r="NP2" t="n">
-        <v>84109.09979538058</v>
+        <v>84109.0998048958</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.188931997171276e-05</v>
+        <v>1.188931997036773e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>59957.72784675094</v>
+        <v>59957.72785350848</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.667841721013765e-05</v>
+        <v>1.66784172082579e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.004205246365934274</v>
+        <v>0.004205246366194246</v>
       </c>
       <c r="NU2" t="n">
-        <v>1.543114346826038e-05</v>
+        <v>1.5431143467493e-05</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.0216396025660667</v>
+        <v>0.02163960256490852</v>
       </c>
       <c r="NW2" t="n">
-        <v>59999.99999808934</v>
+        <v>60000.00000486779</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.8768865192623366</v>
+        <v>0.8768865194150667</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.8768865192623366</v>
+        <v>0.8768865194150667</v>
       </c>
       <c r="NZ2" t="n">
-        <v>296205.2894980852</v>
+        <v>296205.2894876493</v>
       </c>
       <c r="OA2" t="n">
-        <v>364629.1946215933</v>
+        <v>364629.1946069699</v>
       </c>
       <c r="OB2" t="n">
-        <v>3807.03191031569</v>
+        <v>3807.03191022198</v>
       </c>
       <c r="OC2" t="n">
-        <v>716.0549009497095</v>
+        <v>716.0549009495417</v>
       </c>
       <c r="OD2" t="n">
-        <v>1004.486582228184</v>
+        <v>1004.486582228375</v>
       </c>
       <c r="OE2" t="n">
-        <v>309.7061258840402</v>
+        <v>309.7061258745874</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.9992941076634264</v>
+        <v>0.9992941076631573</v>
       </c>
       <c r="OG2" t="n">
-        <v>1.543114346826038e-05</v>
+        <v>1.5431143467493e-05</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.0216396025660667</v>
+        <v>0.02163960256490852</v>
       </c>
       <c r="OI2" t="inlineStr">
         <is>
@@ -4487,97 +4487,97 @@
         <v>1</v>
       </c>
       <c r="OK2" t="n">
-        <v>247.456837258427</v>
+        <v>247.4568372831415</v>
       </c>
       <c r="OL2" t="n">
-        <v>68203.18448656512</v>
+        <v>68203.18453030678</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9608242372556985</v>
+        <v>0.9608242377760676</v>
       </c>
       <c r="ON2" t="n">
-        <v>302576.4846727707</v>
+        <v>302576.4846903755</v>
       </c>
       <c r="OO2" t="n">
-        <v>373560.5230036175</v>
+        <v>373560.5230283035</v>
       </c>
       <c r="OP2" t="n">
-        <v>3807.031910324326</v>
+        <v>3807.031910240113</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-568515.5528671475</v>
+        <v>-568515.5529157113</v>
       </c>
       <c r="OR2" t="n">
-        <v>716.2280498174733</v>
+        <v>716.2280498180795</v>
       </c>
       <c r="OS2" t="n">
-        <v>1004.71666869147</v>
+        <v>1004.716668692657</v>
       </c>
       <c r="OT2" t="n">
-        <v>1.402788775094073</v>
+        <v>1.402788775094543</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.9993210026592235</v>
+        <v>0.9993210026591071</v>
       </c>
       <c r="OV2" t="n">
-        <v>315.449158830932</v>
+        <v>315.4491588467009</v>
       </c>
       <c r="OW2" t="n">
-        <v>95609.86327730675</v>
+        <v>95609.86333864658</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.045917194860535e-05</v>
+        <v>1.045917194189513e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>68156.99196829903</v>
+        <v>68156.99201200325</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.467200900628239e-05</v>
+        <v>1.467200899687428e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.004053977935872921</v>
+        <v>0.004053977935472582</v>
       </c>
       <c r="PB2" t="n">
-        <v>1.590063289119368e-05</v>
+        <v>1.590063289248875e-05</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.02235115815687917</v>
+        <v>0.02235115815884788</v>
       </c>
       <c r="PD2" t="n">
-        <v>68203.18448656512</v>
+        <v>68203.18453030678</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.9608242372556985</v>
+        <v>0.9608242377760676</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9608242372556985</v>
+        <v>0.9608242377760676</v>
       </c>
       <c r="PG2" t="n">
-        <v>302576.4846727707</v>
+        <v>302576.4846903755</v>
       </c>
       <c r="PH2" t="n">
-        <v>373560.5230036175</v>
+        <v>373560.5230283035</v>
       </c>
       <c r="PI2" t="n">
-        <v>3807.031910324326</v>
+        <v>3807.031910240113</v>
       </c>
       <c r="PJ2" t="n">
-        <v>716.2280498174733</v>
+        <v>716.2280498180795</v>
       </c>
       <c r="PK2" t="n">
-        <v>1004.71666869147</v>
+        <v>1004.716668692657</v>
       </c>
       <c r="PL2" t="n">
-        <v>315.449158830932</v>
+        <v>315.4491588467009</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.9993210026592235</v>
+        <v>0.9993210026591071</v>
       </c>
       <c r="PN2" t="n">
-        <v>1.590063289119368e-05</v>
+        <v>1.590063289248875e-05</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.02235115815687917</v>
+        <v>0.02235115815884788</v>
       </c>
       <c r="PP2" t="inlineStr">
         <is>
@@ -4588,97 +4588,97 @@
         <v>1</v>
       </c>
       <c r="PR2" t="n">
-        <v>270.0235431906905</v>
+        <v>270.023543376587</v>
       </c>
       <c r="PS2" t="n">
-        <v>92505.17069925989</v>
+        <v>92505.17094878238</v>
       </c>
       <c r="PT2" t="n">
-        <v>1.194162260423694</v>
+        <v>1.194162262821832</v>
       </c>
       <c r="PU2" t="n">
-        <v>318703.2284660882</v>
+        <v>318703.2285989143</v>
       </c>
       <c r="PV2" t="n">
-        <v>396167.7186488869</v>
+        <v>396167.7188350991</v>
       </c>
       <c r="PW2" t="n">
-        <v>3807.03191031569</v>
+        <v>3807.031910231477</v>
       </c>
       <c r="PX2" t="n">
-        <v>-631820.526814579</v>
+        <v>-631820.5273133408</v>
       </c>
       <c r="PY2" t="n">
-        <v>716.8261010688195</v>
+        <v>716.8261010748816</v>
       </c>
       <c r="PZ2" t="n">
-        <v>1005.461299400073</v>
+        <v>1005.46129940782</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.402657210585504</v>
+        <v>1.402657210584449</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.999412564971215</v>
+        <v>0.999412564971941</v>
       </c>
       <c r="QC2" t="n">
-        <v>329.5339267221179</v>
+        <v>329.5339268356685</v>
       </c>
       <c r="QD2" t="n">
-        <v>129677.1952626363</v>
+        <v>129677.1956124245</v>
       </c>
       <c r="QE2" t="n">
-        <v>7.711456112037988e-06</v>
+        <v>7.711456091237287e-06</v>
       </c>
       <c r="QF2" t="n">
-        <v>92451.09516708345</v>
+        <v>92451.09541652841</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.081652951966374e-05</v>
+        <v>1.081652949047935e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.003715775531676326</v>
+        <v>0.003715775529126342</v>
       </c>
       <c r="QI2" t="n">
-        <v>1.7060091876365e-05</v>
+        <v>1.706009188575891e-05</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.02411765898688467</v>
+        <v>0.02411765900125359</v>
       </c>
       <c r="QK2" t="n">
-        <v>92505.17069925989</v>
+        <v>92505.17094878238</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.194162260423694</v>
+        <v>1.194162262821832</v>
       </c>
       <c r="QM2" t="n">
-        <v>1.194162260423694</v>
+        <v>1.194162262821832</v>
       </c>
       <c r="QN2" t="n">
-        <v>318703.2284660882</v>
+        <v>318703.2285989143</v>
       </c>
       <c r="QO2" t="n">
-        <v>396167.7186488869</v>
+        <v>396167.7188350991</v>
       </c>
       <c r="QP2" t="n">
-        <v>3807.03191031569</v>
+        <v>3807.031910231477</v>
       </c>
       <c r="QQ2" t="n">
-        <v>716.8261010688195</v>
+        <v>716.8261010748816</v>
       </c>
       <c r="QR2" t="n">
-        <v>1005.461299400073</v>
+        <v>1005.46129940782</v>
       </c>
       <c r="QS2" t="n">
-        <v>329.5339267221179</v>
+        <v>329.5339268356685</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.999412564971215</v>
+        <v>0.999412564971941</v>
       </c>
       <c r="QU2" t="n">
-        <v>1.7060091876365e-05</v>
+        <v>1.706009188575891e-05</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.02411765898688467</v>
+        <v>0.02411765900125359</v>
       </c>
       <c r="QW2" t="inlineStr">
         <is>
@@ -4689,46 +4689,46 @@
         <v>1</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.4315421599517729</v>
+        <v>0.4315421609123608</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.8109347005764159</v>
+        <v>0.8109347031845413</v>
       </c>
       <c r="RA2" t="n">
-        <v>371925.0038221577</v>
+        <v>371925.0050902648</v>
       </c>
       <c r="RB2" t="n">
-        <v>2.698749316920955</v>
+        <v>2.698749314911092</v>
       </c>
       <c r="RC2" t="n">
-        <v>382505.1446836666</v>
+        <v>382505.1448700796</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.02695523147002897</v>
+        <v>0.02695523122693128</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.0006584125739947214</v>
+        <v>0.000658412515462039</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.0138841522388633</v>
+        <v>0.01388415224597339</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.08117664829783558</v>
+        <v>0.08117664768427862</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.04120011745655736</v>
+        <v>0.04120011733581692</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.1638745620372799</v>
+        <v>0.1638745610084623</v>
       </c>
       <c r="RJ2" t="n">
-        <v>4.971720257707091e-11</v>
+        <v>3.650929558673965e-11</v>
       </c>
       <c r="RK2" t="n">
         <v>0</v>
       </c>
       <c r="RL2" t="n">
-        <v>360828.4504982409</v>
+        <v>360828.4504922477</v>
       </c>
     </row>
     <row r="3">
@@ -4739,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>79.41044552241729</v>
+        <v>79.41044541200463</v>
       </c>
       <c r="D3" t="n">
-        <v>79.41044552241729</v>
+        <v>79.41044541200463</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4751,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>79.41044552241729</v>
+        <v>79.41044541200463</v>
       </c>
       <c r="H3" t="n">
-        <v>79.41044552241729</v>
+        <v>79.41044541200463</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4763,97 +4763,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.4562209194619</v>
+        <v>292.4562209280048</v>
       </c>
       <c r="L3" t="n">
-        <v>132937.2626080793</v>
+        <v>132937.2626216529</v>
       </c>
       <c r="M3" t="n">
-        <v>1.584336431044645</v>
+        <v>1.584336431160041</v>
       </c>
       <c r="N3" t="n">
-        <v>334724.203468261</v>
+        <v>334724.2034743725</v>
       </c>
       <c r="O3" t="n">
-        <v>418631.4216595551</v>
+        <v>418631.4216681226</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687706.2899047947</v>
+        <v>-687706.2899285444</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7176088216746</v>
+        <v>717.7176088220619</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.65311530511</v>
+        <v>1006.653115305559</v>
       </c>
       <c r="T3" t="n">
-        <v>1.40257547388004</v>
+        <v>1.402575473879909</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994986897353023</v>
+        <v>0.999498689735362</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9691216879017</v>
+        <v>342.9691216929155</v>
       </c>
       <c r="W3" t="n">
-        <v>186362.0380451255</v>
+        <v>186362.038064148</v>
       </c>
       <c r="X3" t="n">
-        <v>5.36589967833396e-06</v>
+        <v>5.365899677786247e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132871.308186774</v>
+        <v>132871.308200349</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.526079284132013e-06</v>
+        <v>7.526079283363098e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.00343224376060383</v>
+        <v>0.003432243760503732</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817648669609605e-05</v>
+        <v>1.817648669651399e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02583212612847162</v>
+        <v>0.0258321261291154</v>
       </c>
       <c r="AD3" t="n">
-        <v>132937.2626080793</v>
+        <v>132937.2626216529</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.584336431044645</v>
+        <v>1.584336431160041</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.584336431044645</v>
+        <v>1.584336431160041</v>
       </c>
       <c r="AG3" t="n">
-        <v>334724.203468261</v>
+        <v>334724.2034743725</v>
       </c>
       <c r="AH3" t="n">
-        <v>418631.4216595551</v>
+        <v>418631.4216681226</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7176088216746</v>
+        <v>717.7176088220619</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.65311530511</v>
+        <v>1006.653115305559</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9691216879017</v>
+        <v>342.9691216929155</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994986897353023</v>
+        <v>0.999498689735362</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817648669609605e-05</v>
+        <v>1.817648669651399e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02583212612847162</v>
+        <v>0.0258321261291154</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5066,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2315381779315981</v>
+        <v>0.2315381776062815</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2315381779315981</v>
+        <v>0.2315381776062815</v>
       </c>
       <c r="DH3" t="n">
-        <v>181072.6418662255</v>
+        <v>181072.6416234862</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.701005601895287</v>
+        <v>2.701005598336525</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5129,121 +5129,121 @@
         <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>262.1360868337529</v>
+        <v>262.1360857903533</v>
       </c>
       <c r="DV3" t="n">
-        <v>108.14113337202</v>
+        <v>108.1411329333392</v>
       </c>
       <c r="DW3" t="n">
-        <v>238.7903333335079</v>
+        <v>238.7903323867642</v>
       </c>
       <c r="DX3" t="n">
-        <v>65.63562325199584</v>
+        <v>65.63562325397265</v>
       </c>
       <c r="DY3" t="n">
-        <v>262.1360868337529</v>
+        <v>262.1360857903533</v>
       </c>
       <c r="DZ3" t="n">
-        <v>108.14113337202</v>
+        <v>108.1411329333392</v>
       </c>
       <c r="EA3" t="n">
-        <v>238.7903333335079</v>
+        <v>238.7903323867642</v>
       </c>
       <c r="EB3" t="n">
-        <v>65.63562325199584</v>
+        <v>65.63562325397265</v>
       </c>
       <c r="EC3" t="n">
-        <v>261.3138771423346</v>
+        <v>261.3138774153132</v>
       </c>
       <c r="ED3" t="n">
-        <v>87209.7421130896</v>
+        <v>87209.74244743482</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.163413568164763</v>
+        <v>1.163413571408439</v>
       </c>
       <c r="EF3" t="n">
-        <v>312466.5427011503</v>
+        <v>312466.542896174</v>
       </c>
       <c r="EG3" t="n">
-        <v>387426.7670783332</v>
+        <v>387426.7673517456</v>
       </c>
       <c r="EH3" t="n">
-        <v>3791.037829078808</v>
+        <v>3791.037829025345</v>
       </c>
       <c r="EI3" t="n">
-        <v>-603224.0264315094</v>
+        <v>-603224.0271789986</v>
       </c>
       <c r="EJ3" t="n">
-        <v>716.5822797220843</v>
+        <v>716.5822797297027</v>
       </c>
       <c r="EK3" t="n">
-        <v>1005.248035853118</v>
+        <v>1005.248035862917</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.402836860887753</v>
+        <v>1.402836860886512</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.9993374759787828</v>
+        <v>0.9993374759798812</v>
       </c>
       <c r="EN3" t="n">
-        <v>324.1721406724884</v>
+        <v>324.1721408420254</v>
       </c>
       <c r="EO3" t="n">
-        <v>122260.3126809291</v>
+        <v>122260.3131496798</v>
       </c>
       <c r="EP3" t="n">
-        <v>8.179269119078457e-06</v>
+        <v>8.179269087718832e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>87152.1957325526</v>
+        <v>87152.1960667745</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.147418021536416e-05</v>
+        <v>1.147418017136157e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.003840115548517398</v>
+        <v>0.00384011554451611</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.661802011616499e-05</v>
+        <v>1.661802013013879e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.02344319811189035</v>
+        <v>0.02344319813320188</v>
       </c>
       <c r="EV3" t="n">
-        <v>87209.7421130896</v>
+        <v>87209.74244743482</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.163413568164763</v>
+        <v>1.163413571408439</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.163413568164763</v>
+        <v>1.163413571408439</v>
       </c>
       <c r="EY3" t="n">
-        <v>312466.5427011503</v>
+        <v>312466.542896174</v>
       </c>
       <c r="EZ3" t="n">
-        <v>387426.7670783332</v>
+        <v>387426.7673517456</v>
       </c>
       <c r="FA3" t="n">
-        <v>3791.037829078808</v>
+        <v>3791.037829025345</v>
       </c>
       <c r="FB3" t="n">
-        <v>716.5822797220843</v>
+        <v>716.5822797297027</v>
       </c>
       <c r="FC3" t="n">
-        <v>1005.248035853118</v>
+        <v>1005.248035862917</v>
       </c>
       <c r="FD3" t="n">
-        <v>324.1721406724884</v>
+        <v>324.1721408420254</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.9993374759787828</v>
+        <v>0.9993374759798812</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.661802011616499e-05</v>
+        <v>1.661802013013879e-05</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.02344319811189035</v>
+        <v>0.02344319813320188</v>
       </c>
       <c r="FH3" t="inlineStr">
         <is>
@@ -5254,97 +5254,97 @@
         <v>1</v>
       </c>
       <c r="FJ3" t="n">
-        <v>295.5910708746504</v>
+        <v>295.5910708747085</v>
       </c>
       <c r="FK3" t="n">
-        <v>134148.9565328025</v>
+        <v>134148.956557799</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.581765547476726</v>
+        <v>1.581765547771286</v>
       </c>
       <c r="FM3" t="n">
-        <v>336974.7974821425</v>
+        <v>336974.7974821331</v>
       </c>
       <c r="FN3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FO3" t="n">
-        <v>3791.037829084032</v>
+        <v>3791.03782903057</v>
       </c>
       <c r="FP3" t="n">
-        <v>-698812.5005366693</v>
+        <v>-698812.5005210867</v>
       </c>
       <c r="FQ3" t="n">
-        <v>717.8532055402693</v>
+        <v>717.8532055403344</v>
       </c>
       <c r="FR3" t="n">
-        <v>1006.758353831937</v>
+        <v>1006.758353832348</v>
       </c>
       <c r="FS3" t="n">
-        <v>1.402457140348399</v>
+        <v>1.402457140348844</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.9995341712883318</v>
+        <v>0.9995341712882467</v>
       </c>
       <c r="FU3" t="n">
-        <v>344.8000645106316</v>
+        <v>344.8000645106911</v>
       </c>
       <c r="FV3" t="n">
-        <v>188051.4942807569</v>
+        <v>188051.4943158412</v>
       </c>
       <c r="FW3" t="n">
-        <v>5.317692389654832e-06</v>
+        <v>5.317692388662724e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>134087.1595078057</v>
+        <v>134087.1595327795</v>
       </c>
       <c r="FY3" t="n">
-        <v>7.45783566204776e-06</v>
+        <v>7.457835660658734e-06</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.00339554464999027</v>
+        <v>0.003395544649991918</v>
       </c>
       <c r="GA3" t="n">
-        <v>1.832896306782792e-05</v>
+        <v>1.832896306783434e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.02606673348872637</v>
+        <v>0.02606673348873871</v>
       </c>
       <c r="GC3" t="n">
-        <v>134148.9565328025</v>
+        <v>134148.956557799</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.581765547476726</v>
+        <v>1.581765547771286</v>
       </c>
       <c r="GE3" t="n">
-        <v>1.581765547476726</v>
+        <v>1.581765547771286</v>
       </c>
       <c r="GF3" t="n">
-        <v>336974.7974821425</v>
+        <v>336974.7974821331</v>
       </c>
       <c r="GG3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GH3" t="n">
-        <v>3791.037829084032</v>
+        <v>3791.03782903057</v>
       </c>
       <c r="GI3" t="n">
-        <v>717.8532055402693</v>
+        <v>717.8532055403344</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1006.758353831937</v>
+        <v>1006.758353832348</v>
       </c>
       <c r="GK3" t="n">
-        <v>344.8000645106316</v>
+        <v>344.8000645106911</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.9995341712883318</v>
+        <v>0.9995341712882467</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.832896306782792e-05</v>
+        <v>1.832896306783434e-05</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.02606673348872637</v>
+        <v>0.02606673348873871</v>
       </c>
       <c r="GO3" t="inlineStr">
         <is>
@@ -5355,97 +5355,97 @@
         <v>1</v>
       </c>
       <c r="GQ3" t="n">
-        <v>295.5910708746504</v>
+        <v>295.5910708747085</v>
       </c>
       <c r="GR3" t="n">
-        <v>134148.9565328025</v>
+        <v>134148.956557799</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.581765547476726</v>
+        <v>1.581765547771286</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.7974821425</v>
+        <v>336974.7974821331</v>
       </c>
       <c r="GU3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GV3" t="n">
-        <v>3791.037829084032</v>
+        <v>3791.03782903057</v>
       </c>
       <c r="GW3" t="n">
-        <v>-698812.5005366693</v>
+        <v>-698812.5005210867</v>
       </c>
       <c r="GX3" t="n">
-        <v>717.8532055402693</v>
+        <v>717.8532055403344</v>
       </c>
       <c r="GY3" t="n">
-        <v>1006.758353831937</v>
+        <v>1006.758353832348</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.402457140348399</v>
+        <v>1.402457140348844</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.9995341712883318</v>
+        <v>0.9995341712882467</v>
       </c>
       <c r="HB3" t="n">
-        <v>344.8000645106316</v>
+        <v>344.8000645106911</v>
       </c>
       <c r="HC3" t="n">
-        <v>188051.4942807569</v>
+        <v>188051.4943158412</v>
       </c>
       <c r="HD3" t="n">
-        <v>5.317692389654832e-06</v>
+        <v>5.317692388662724e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>134087.1595078057</v>
+        <v>134087.1595327795</v>
       </c>
       <c r="HF3" t="n">
-        <v>7.45783566204776e-06</v>
+        <v>7.457835660658734e-06</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.00339554464999027</v>
+        <v>0.003395544649991918</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832896306782792e-05</v>
+        <v>1.832896306783434e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.02606673348872637</v>
+        <v>0.02606673348873871</v>
       </c>
       <c r="HJ3" t="n">
-        <v>134148.9565328025</v>
+        <v>134148.956557799</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.581765547476726</v>
+        <v>1.581765547771286</v>
       </c>
       <c r="HL3" t="n">
-        <v>1.581765547476726</v>
+        <v>1.581765547771286</v>
       </c>
       <c r="HM3" t="n">
-        <v>336974.7974821425</v>
+        <v>336974.7974821331</v>
       </c>
       <c r="HN3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="HO3" t="n">
-        <v>3791.037829084032</v>
+        <v>3791.03782903057</v>
       </c>
       <c r="HP3" t="n">
-        <v>717.8532055402693</v>
+        <v>717.8532055403344</v>
       </c>
       <c r="HQ3" t="n">
-        <v>1006.758353831937</v>
+        <v>1006.758353832348</v>
       </c>
       <c r="HR3" t="n">
-        <v>344.8000645106316</v>
+        <v>344.8000645106911</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.9995341712883318</v>
+        <v>0.9995341712882467</v>
       </c>
       <c r="HT3" t="n">
-        <v>1.832896306782792e-05</v>
+        <v>1.832896306783434e-05</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.02606673348872637</v>
+        <v>0.02606673348873871</v>
       </c>
       <c r="HV3" t="inlineStr">
         <is>
@@ -5456,22 +5456,22 @@
         <v>1</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8086323713381324</v>
+        <v>0.808632367696571</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.8086323713381324</v>
+        <v>0.808632367696571</v>
       </c>
       <c r="HZ3" t="n">
-        <v>480086.391542396</v>
+        <v>480086.3905662901</v>
       </c>
       <c r="IA3" t="n">
-        <v>2.701005601789478</v>
+        <v>2.701005598363278</v>
       </c>
       <c r="IB3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.01761869845986777</v>
+        <v>0.01761869846142325</v>
       </c>
       <c r="ID3" t="n">
         <v>0</v>
@@ -5480,142 +5480,142 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.04914443526818029</v>
+        <v>0.04914443526823465</v>
       </c>
       <c r="IG3" t="n">
         <v>0</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.0820432022672912</v>
+        <v>0.08204320226890102</v>
       </c>
       <c r="II3" t="n">
-        <v>-1.10173953293824e-11</v>
+        <v>-4.463929226261598e-12</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>385313.3204565304</v>
+        <v>385313.3207415933</v>
       </c>
       <c r="IL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM3" t="n">
-        <v>262.1360868337529</v>
+        <v>262.1360857903533</v>
       </c>
       <c r="IN3" t="n">
-        <v>108.14113337202</v>
+        <v>108.1411329333392</v>
       </c>
       <c r="IO3" t="n">
-        <v>238.7903333335079</v>
+        <v>238.7903323867642</v>
       </c>
       <c r="IP3" t="n">
-        <v>65.63562325199584</v>
+        <v>65.63562325397265</v>
       </c>
       <c r="IQ3" t="n">
-        <v>130.7473269040778</v>
+        <v>130.7473260091232</v>
       </c>
       <c r="IR3" t="n">
-        <v>108.14113337202</v>
+        <v>108.1411329333392</v>
       </c>
       <c r="IS3" t="n">
-        <v>73.4871333335079</v>
+        <v>73.48713238676424</v>
       </c>
       <c r="IT3" t="n">
-        <v>34.19800475529663</v>
+        <v>34.1980045201976</v>
       </c>
       <c r="IU3" t="n">
-        <v>261.3138771422347</v>
+        <v>261.3138774153195</v>
       </c>
       <c r="IV3" t="n">
-        <v>87209.74211297258</v>
+        <v>87209.74244735899</v>
       </c>
       <c r="IW3" t="n">
-        <v>1.163413568163647</v>
+        <v>1.163413571407399</v>
       </c>
       <c r="IX3" t="n">
-        <v>312466.542701079</v>
+        <v>312466.5428961788</v>
       </c>
       <c r="IY3" t="n">
-        <v>387426.7670782332</v>
+        <v>387426.7673517523</v>
       </c>
       <c r="IZ3" t="n">
-        <v>3791.037829078809</v>
+        <v>3791.03782902562</v>
       </c>
       <c r="JA3" t="n">
-        <v>-603224.0264312313</v>
+        <v>-603224.0271790874</v>
       </c>
       <c r="JB3" t="n">
-        <v>716.582279722081</v>
+        <v>716.5822797297023</v>
       </c>
       <c r="JC3" t="n">
-        <v>1005.248035853114</v>
+        <v>1005.248035862915</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.402836860887754</v>
+        <v>1.40283686088651</v>
       </c>
       <c r="JE3" t="n">
-        <v>0.9993374759787823</v>
+        <v>0.9993374759798818</v>
       </c>
       <c r="JF3" t="n">
-        <v>324.1721406724263</v>
+        <v>324.1721408420293</v>
       </c>
       <c r="JG3" t="n">
-        <v>122260.3126807651</v>
+        <v>122260.3131495734</v>
       </c>
       <c r="JH3" t="n">
-        <v>8.179269119089431e-06</v>
+        <v>8.17926908772595e-06</v>
       </c>
       <c r="JI3" t="n">
-        <v>87152.19573243562</v>
+        <v>87152.19606669877</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.147418021537956e-05</v>
+        <v>1.147418017137154e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.003840115548518863</v>
+        <v>0.003840115544516005</v>
       </c>
       <c r="JL3" t="n">
-        <v>1.661802011615987e-05</v>
+        <v>1.66180201301391e-05</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.02344319811188255</v>
+        <v>0.02344319813320234</v>
       </c>
       <c r="JN3" t="n">
-        <v>87209.74211297258</v>
+        <v>87209.74244735899</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.163413568163647</v>
+        <v>1.163413571407399</v>
       </c>
       <c r="JP3" t="n">
-        <v>1.163413568163647</v>
+        <v>1.163413571407399</v>
       </c>
       <c r="JQ3" t="n">
-        <v>312466.542701079</v>
+        <v>312466.5428961788</v>
       </c>
       <c r="JR3" t="n">
-        <v>387426.7670782332</v>
+        <v>387426.7673517523</v>
       </c>
       <c r="JS3" t="n">
-        <v>3791.037829078809</v>
+        <v>3791.03782902562</v>
       </c>
       <c r="JT3" t="n">
-        <v>716.582279722081</v>
+        <v>716.5822797297023</v>
       </c>
       <c r="JU3" t="n">
-        <v>1005.248035853114</v>
+        <v>1005.248035862915</v>
       </c>
       <c r="JV3" t="n">
-        <v>324.1721406724263</v>
+        <v>324.1721408420293</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.9993374759787823</v>
+        <v>0.9993374759798818</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.661802011615987e-05</v>
+        <v>1.66180201301391e-05</v>
       </c>
       <c r="JY3" t="n">
-        <v>0.02344319811188255</v>
+        <v>0.02344319813320234</v>
       </c>
       <c r="JZ3" t="inlineStr">
         <is>
@@ -5626,97 +5626,97 @@
         <v>1</v>
       </c>
       <c r="KB3" t="n">
-        <v>295.5910708745504</v>
+        <v>295.5910708747082</v>
       </c>
       <c r="KC3" t="n">
-        <v>134148.9565326427</v>
+        <v>134148.956557671</v>
       </c>
       <c r="KD3" t="n">
-        <v>1.581765547475378</v>
+        <v>1.581765547769777</v>
       </c>
       <c r="KE3" t="n">
-        <v>336974.797482071</v>
+        <v>336974.7974821331</v>
       </c>
       <c r="KF3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KG3" t="n">
-        <v>3791.037829084035</v>
+        <v>3791.037829030844</v>
       </c>
       <c r="KH3" t="n">
-        <v>-698812.5005363914</v>
+        <v>-698812.5005211666</v>
       </c>
       <c r="KI3" t="n">
-        <v>717.8532055402645</v>
+        <v>717.8532055403339</v>
       </c>
       <c r="KJ3" t="n">
-        <v>1006.758353831932</v>
+        <v>1006.758353832346</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.402457140348401</v>
+        <v>1.402457140348842</v>
       </c>
       <c r="KL3" t="n">
-        <v>0.9995341712883311</v>
+        <v>0.9995341712882472</v>
       </c>
       <c r="KM3" t="n">
-        <v>344.8000645105732</v>
+        <v>344.8000645106908</v>
       </c>
       <c r="KN3" t="n">
-        <v>188051.4942805329</v>
+        <v>188051.4943156615</v>
       </c>
       <c r="KO3" t="n">
-        <v>5.317692389661165e-06</v>
+        <v>5.317692388667804e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>134087.1595076459</v>
+        <v>134087.1595326516</v>
       </c>
       <c r="KQ3" t="n">
-        <v>7.45783566205665e-06</v>
+        <v>7.457835660665849e-06</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.003395544649991416</v>
+        <v>0.003395544649991909</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.832896306782305e-05</v>
+        <v>1.83289630678343e-05</v>
       </c>
       <c r="KT3" t="n">
-        <v>0.02606673348871886</v>
+        <v>0.02606673348873864</v>
       </c>
       <c r="KU3" t="n">
-        <v>134148.9565326427</v>
+        <v>134148.956557671</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.581765547475378</v>
+        <v>1.581765547769777</v>
       </c>
       <c r="KW3" t="n">
-        <v>1.581765547475378</v>
+        <v>1.581765547769777</v>
       </c>
       <c r="KX3" t="n">
-        <v>336974.797482071</v>
+        <v>336974.7974821331</v>
       </c>
       <c r="KY3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KZ3" t="n">
-        <v>3791.037829084035</v>
+        <v>3791.037829030844</v>
       </c>
       <c r="LA3" t="n">
-        <v>717.8532055402645</v>
+        <v>717.8532055403339</v>
       </c>
       <c r="LB3" t="n">
-        <v>1006.758353831932</v>
+        <v>1006.758353832346</v>
       </c>
       <c r="LC3" t="n">
-        <v>344.8000645105732</v>
+        <v>344.8000645106908</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.9995341712883311</v>
+        <v>0.9995341712882472</v>
       </c>
       <c r="LE3" t="n">
-        <v>1.832896306782305e-05</v>
+        <v>1.83289630678343e-05</v>
       </c>
       <c r="LF3" t="n">
-        <v>0.02606673348871886</v>
+        <v>0.02606673348873864</v>
       </c>
       <c r="LG3" t="inlineStr">
         <is>
@@ -5727,97 +5727,97 @@
         <v>1</v>
       </c>
       <c r="LI3" t="n">
-        <v>269.8451960310396</v>
+        <v>269.8451961874748</v>
       </c>
       <c r="LJ3" t="n">
-        <v>97564.93594374521</v>
+        <v>97564.93615933282</v>
       </c>
       <c r="LK3" t="n">
-        <v>1.260355155578549</v>
+        <v>1.260355157632019</v>
       </c>
       <c r="LL3" t="n">
-        <v>318563.5296874013</v>
+        <v>318563.529799172</v>
       </c>
       <c r="LM3" t="n">
-        <v>395974.1988245138</v>
+        <v>395974.1989812142</v>
       </c>
       <c r="LN3" t="n">
-        <v>3791.037829078809</v>
+        <v>3791.037829025621</v>
       </c>
       <c r="LO3" t="n">
-        <v>-627019.147324344</v>
+        <v>-627019.1477463426</v>
       </c>
       <c r="LP3" t="n">
-        <v>716.8371394174579</v>
+        <v>716.8371394225369</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1005.561857433085</v>
+        <v>1005.561857439559</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.4027758916764</v>
+        <v>1.402775891675493</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.9993782664580915</v>
+        <v>0.9993782664587737</v>
       </c>
       <c r="LT3" t="n">
-        <v>329.4277660864851</v>
+        <v>329.4277661820936</v>
       </c>
       <c r="LU3" t="n">
-        <v>136777.0852922385</v>
+        <v>136777.0855944791</v>
       </c>
       <c r="LV3" t="n">
-        <v>7.3111661786285e-06</v>
+        <v>7.31116616247279e-06</v>
       </c>
       <c r="LW3" t="n">
-        <v>97504.5879415434</v>
+        <v>97504.58815706536</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.025592765541993e-05</v>
+        <v>1.025592763275046e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.003718934958884387</v>
+        <v>0.003718934956734864</v>
       </c>
       <c r="LZ3" t="n">
-        <v>1.705188199290333e-05</v>
+        <v>1.705188200081122e-05</v>
       </c>
       <c r="MA3" t="n">
-        <v>0.02410574224653683</v>
+        <v>0.02410574225863198</v>
       </c>
       <c r="MB3" t="n">
-        <v>97564.93594374521</v>
+        <v>97564.93615933282</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.260355155578549</v>
+        <v>1.260355157632019</v>
       </c>
       <c r="MD3" t="n">
-        <v>1.260355155578549</v>
+        <v>1.260355157632019</v>
       </c>
       <c r="ME3" t="n">
-        <v>318563.5296874013</v>
+        <v>318563.529799172</v>
       </c>
       <c r="MF3" t="n">
-        <v>395974.1988245138</v>
+        <v>395974.1989812142</v>
       </c>
       <c r="MG3" t="n">
-        <v>3791.037829078809</v>
+        <v>3791.037829025621</v>
       </c>
       <c r="MH3" t="n">
-        <v>716.8371394174579</v>
+        <v>716.8371394225369</v>
       </c>
       <c r="MI3" t="n">
-        <v>1005.561857433085</v>
+        <v>1005.561857439559</v>
       </c>
       <c r="MJ3" t="n">
-        <v>329.4277660864851</v>
+        <v>329.4277661820936</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.9993782664580915</v>
+        <v>0.9993782664587737</v>
       </c>
       <c r="ML3" t="n">
-        <v>1.705188199290333e-05</v>
+        <v>1.705188200081122e-05</v>
       </c>
       <c r="MM3" t="n">
-        <v>0.02410574224653683</v>
+        <v>0.02410574225863198</v>
       </c>
       <c r="MN3" t="inlineStr">
         <is>
@@ -5828,139 +5828,139 @@
         <v>1</v>
       </c>
       <c r="MP3" t="n">
-        <v>0.808632371338287</v>
+        <v>0.8086323676965613</v>
       </c>
       <c r="MQ3" t="n">
-        <v>0.4033268455237091</v>
+        <v>0.4033268425519546</v>
       </c>
       <c r="MR3" t="n">
-        <v>238540.4718668698</v>
+        <v>238540.4706985003</v>
       </c>
       <c r="MS3" t="n">
-        <v>2.701005601786888</v>
+        <v>2.701005598360863</v>
       </c>
       <c r="MT3" t="n">
-        <v>382311.6248594942</v>
+        <v>382311.625015994</v>
       </c>
       <c r="MU3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV3" t="n">
-        <v>140.9489170272336</v>
+        <v>140.9489173556711</v>
       </c>
       <c r="MW3" t="n">
-        <v>126.2280161845596</v>
+        <v>126.2280161619564</v>
       </c>
       <c r="MX3" t="n">
-        <v>-62.71431368723211</v>
+        <v>-62.71431447088193</v>
       </c>
       <c r="MY3" t="n">
-        <v>-26.41972815616141</v>
+        <v>-26.41972844553334</v>
       </c>
       <c r="MZ3" t="n">
-        <v>260.6252071807263</v>
+        <v>260.6252078553837</v>
       </c>
       <c r="NA3" t="n">
-        <v>126.2280161845596</v>
+        <v>126.2280161619564</v>
       </c>
       <c r="NB3" t="n">
-        <v>-228.0175136872321</v>
+        <v>-228.0175144708819</v>
       </c>
       <c r="NC3" t="n">
-        <v>-61.03156320129303</v>
+        <v>-61.03156328907912</v>
       </c>
       <c r="ND3" t="n">
-        <v>235.9233320491657</v>
+        <v>235.9233320299416</v>
       </c>
       <c r="NE3" t="n">
-        <v>57499.99999129071</v>
+        <v>57499.99999977964</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.8496677679071708</v>
+        <v>0.8496677681021473</v>
       </c>
       <c r="NG3" t="n">
-        <v>294337.9397472119</v>
+        <v>294337.9397334107</v>
       </c>
       <c r="NH3" t="n">
-        <v>362011.4495155297</v>
+        <v>362011.44949619</v>
       </c>
       <c r="NI3" t="n">
-        <v>3808.20526121893</v>
+        <v>3808.205261094608</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-536433.0248384039</v>
+        <v>-536433.0247552036</v>
       </c>
       <c r="NK3" t="n">
-        <v>716.0089809906618</v>
+        <v>716.0089809904581</v>
       </c>
       <c r="NL3" t="n">
-        <v>1004.418518595049</v>
+        <v>1004.418518595313</v>
       </c>
       <c r="NM3" t="n">
-        <v>1.402801564311871</v>
+        <v>1.402801564312639</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.9992900832995133</v>
+        <v>0.999290083299158</v>
       </c>
       <c r="NO3" t="n">
-        <v>308.0019963326092</v>
+        <v>308.0019963200353</v>
       </c>
       <c r="NP3" t="n">
-        <v>80603.92800932683</v>
+        <v>80603.92802124217</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.240634327255476e-05</v>
+        <v>1.240634327072078e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>57459.25158621149</v>
+        <v>57459.25159467402</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.740363775012987e-05</v>
+        <v>1.740363774756669e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.004251713105737921</v>
+        <v>0.004251713106089328</v>
       </c>
       <c r="NU3" t="n">
-        <v>1.529217508808989e-05</v>
+        <v>1.529217508707045e-05</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.02142935642747458</v>
+        <v>0.02142935642593731</v>
       </c>
       <c r="NW3" t="n">
-        <v>57499.99999129071</v>
+        <v>57499.99999977964</v>
       </c>
       <c r="NX3" t="n">
-        <v>0.8496677679071708</v>
+        <v>0.8496677681021473</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.8496677679071708</v>
+        <v>0.8496677681021473</v>
       </c>
       <c r="NZ3" t="n">
-        <v>294337.9397472119</v>
+        <v>294337.9397334107</v>
       </c>
       <c r="OA3" t="n">
-        <v>362011.4495155297</v>
+        <v>362011.44949619</v>
       </c>
       <c r="OB3" t="n">
-        <v>3808.20526121893</v>
+        <v>3808.205261094608</v>
       </c>
       <c r="OC3" t="n">
-        <v>716.0089809906618</v>
+        <v>716.0089809904581</v>
       </c>
       <c r="OD3" t="n">
-        <v>1004.418518595049</v>
+        <v>1004.418518595313</v>
       </c>
       <c r="OE3" t="n">
-        <v>308.0019963326092</v>
+        <v>308.0019963200353</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.9992900832995133</v>
+        <v>0.999290083299158</v>
       </c>
       <c r="OG3" t="n">
-        <v>1.529217508808989e-05</v>
+        <v>1.529217508707045e-05</v>
       </c>
       <c r="OH3" t="n">
-        <v>0.02142935642747458</v>
+        <v>0.02142935642593731</v>
       </c>
       <c r="OI3" t="inlineStr">
         <is>
@@ -5971,97 +5971,97 @@
         <v>1</v>
       </c>
       <c r="OK3" t="n">
-        <v>245.8425920831135</v>
+        <v>245.8425921100216</v>
       </c>
       <c r="OL3" t="n">
-        <v>66391.14817312709</v>
+        <v>66391.14822491932</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.9414405104359012</v>
+        <v>0.941440511067457</v>
       </c>
       <c r="ON3" t="n">
-        <v>301423.9372605104</v>
+        <v>301423.9372796645</v>
       </c>
       <c r="OO3" t="n">
-        <v>371944.7481212912</v>
+        <v>371944.7481481509</v>
       </c>
       <c r="OP3" t="n">
-        <v>3808.205261217785</v>
+        <v>3808.205261103264</v>
       </c>
       <c r="OQ3" t="n">
-        <v>-564274.3044810396</v>
+        <v>-564274.304528497</v>
       </c>
       <c r="OR3" t="n">
-        <v>716.1931655482437</v>
+        <v>716.1931655489063</v>
       </c>
       <c r="OS3" t="n">
-        <v>1004.665607144253</v>
+        <v>1004.665607145655</v>
       </c>
       <c r="OT3" t="n">
-        <v>1.402785806221964</v>
+        <v>1.402785806222623</v>
       </c>
       <c r="OU3" t="n">
-        <v>0.9993185309261771</v>
+        <v>0.9993185309259922</v>
       </c>
       <c r="OV3" t="n">
-        <v>314.4174608660682</v>
+        <v>314.4174608832913</v>
       </c>
       <c r="OW3" t="n">
-        <v>93069.24578562766</v>
+        <v>93069.24585825845</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.074468791015416e-05</v>
+        <v>1.074468790176906e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>66346.01332065466</v>
+        <v>66346.01337239955</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.507249569264899e-05</v>
+        <v>1.507249568089358e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.004080492907490138</v>
+        <v>0.004080492907049494</v>
       </c>
       <c r="PB3" t="n">
-        <v>1.581610039109174e-05</v>
+        <v>1.581610039250607e-05</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.02222284199424652</v>
+        <v>0.02222284199639607</v>
       </c>
       <c r="PD3" t="n">
-        <v>66391.14817312709</v>
+        <v>66391.14822491932</v>
       </c>
       <c r="PE3" t="n">
-        <v>0.9414405104359012</v>
+        <v>0.941440511067457</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9414405104359012</v>
+        <v>0.941440511067457</v>
       </c>
       <c r="PG3" t="n">
-        <v>301423.9372605104</v>
+        <v>301423.9372796645</v>
       </c>
       <c r="PH3" t="n">
-        <v>371944.7481212912</v>
+        <v>371944.7481481509</v>
       </c>
       <c r="PI3" t="n">
-        <v>3808.205261217785</v>
+        <v>3808.205261103264</v>
       </c>
       <c r="PJ3" t="n">
-        <v>716.1931655482437</v>
+        <v>716.1931655489063</v>
       </c>
       <c r="PK3" t="n">
-        <v>1004.665607144253</v>
+        <v>1004.665607145655</v>
       </c>
       <c r="PL3" t="n">
-        <v>314.4174608660682</v>
+        <v>314.4174608832913</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.9993185309261771</v>
+        <v>0.9993185309259922</v>
       </c>
       <c r="PN3" t="n">
-        <v>1.581610039109174e-05</v>
+        <v>1.581610039250607e-05</v>
       </c>
       <c r="PO3" t="n">
-        <v>0.02222284199424652</v>
+        <v>0.02222284199639607</v>
       </c>
       <c r="PP3" t="inlineStr">
         <is>
@@ -6072,97 +6072,97 @@
         <v>1</v>
       </c>
       <c r="PR3" t="n">
-        <v>269.8293783791355</v>
+        <v>269.8293785354089</v>
       </c>
       <c r="PS3" t="n">
-        <v>91897.64840060516</v>
+        <v>91897.6486230825</v>
       </c>
       <c r="PT3" t="n">
-        <v>1.187171607746668</v>
+        <v>1.18717160993255</v>
       </c>
       <c r="PU3" t="n">
-        <v>318565.2987119901</v>
+        <v>318565.2988236182</v>
       </c>
       <c r="PV3" t="n">
-        <v>395974.1988246142</v>
+        <v>395974.198981114</v>
       </c>
       <c r="PW3" t="n">
-        <v>3808.205261209129</v>
+        <v>3808.205261094607</v>
       </c>
       <c r="PX3" t="n">
-        <v>-631591.4595475984</v>
+        <v>-631591.4599553185</v>
       </c>
       <c r="PY3" t="n">
-        <v>716.818675727633</v>
+        <v>716.8186757327561</v>
       </c>
       <c r="PZ3" t="n">
-        <v>1005.446142844369</v>
+        <v>1005.446142851143</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.402650596154954</v>
+        <v>1.402650596154379</v>
       </c>
       <c r="QB3" t="n">
-        <v>0.9994140113577452</v>
+        <v>0.999414011358262</v>
       </c>
       <c r="QC3" t="n">
-        <v>329.4151214035268</v>
+        <v>329.4151214990229</v>
       </c>
       <c r="QD3" t="n">
-        <v>128825.122360755</v>
+        <v>128825.1226726462</v>
       </c>
       <c r="QE3" t="n">
-        <v>7.762461092019405e-06</v>
+        <v>7.76246107322615e-06</v>
       </c>
       <c r="QF3" t="n">
-        <v>91844.05775315648</v>
+        <v>91844.05797555263</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.088802067835066e-05</v>
+        <v>1.088802065198582e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.003718394225423509</v>
+        <v>0.003718394223278665</v>
       </c>
       <c r="QI3" t="n">
-        <v>1.705022610432293e-05</v>
+        <v>1.705022611222416e-05</v>
       </c>
       <c r="QJ3" t="n">
-        <v>0.02410252682346842</v>
+        <v>0.02410252683555501</v>
       </c>
       <c r="QK3" t="n">
-        <v>91897.64840060516</v>
+        <v>91897.6486230825</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.187171607746668</v>
+        <v>1.18717160993255</v>
       </c>
       <c r="QM3" t="n">
-        <v>1.187171607746668</v>
+        <v>1.18717160993255</v>
       </c>
       <c r="QN3" t="n">
-        <v>318565.2987119901</v>
+        <v>318565.2988236182</v>
       </c>
       <c r="QO3" t="n">
-        <v>395974.1988246142</v>
+        <v>395974.198981114</v>
       </c>
       <c r="QP3" t="n">
-        <v>3808.205261209129</v>
+        <v>3808.205261094607</v>
       </c>
       <c r="QQ3" t="n">
-        <v>716.818675727633</v>
+        <v>716.8186757327561</v>
       </c>
       <c r="QR3" t="n">
-        <v>1005.446142844369</v>
+        <v>1005.446142851143</v>
       </c>
       <c r="QS3" t="n">
-        <v>329.4151214035268</v>
+        <v>329.4151214990229</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.9994140113577452</v>
+        <v>0.999414011358262</v>
       </c>
       <c r="QU3" t="n">
-        <v>1.705022610432293e-05</v>
+        <v>1.705022611222416e-05</v>
       </c>
       <c r="QV3" t="n">
-        <v>0.02410252682346842</v>
+        <v>0.02410252683555501</v>
       </c>
       <c r="QW3" t="inlineStr">
         <is>
@@ -6173,46 +6173,46 @@
         <v>1</v>
       </c>
       <c r="QY3" t="n">
-        <v>0.4576233878530575</v>
+        <v>0.457623388938088</v>
       </c>
       <c r="QZ3" t="n">
-        <v>0.8461802529983572</v>
+        <v>0.8461802552233336</v>
       </c>
       <c r="RA3" t="n">
-        <v>377372.9012534437</v>
+        <v>377372.90234207</v>
       </c>
       <c r="RB3" t="n">
-        <v>2.701005598215144</v>
+        <v>2.701005598351295</v>
       </c>
       <c r="RC3" t="n">
-        <v>382311.6248594942</v>
+        <v>382311.625015994</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.02707894889879492</v>
+        <v>0.02707894868489007</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.0007370771344905582</v>
+        <v>0.0007370770870337044</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.01389216954609584</v>
+        <v>0.01389216955082628</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.08157447961587821</v>
+        <v>0.08157447916786138</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.04147531816282472</v>
+        <v>0.04147531806217205</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.1647579933580842</v>
+        <v>0.1647579925527835</v>
       </c>
       <c r="RJ3" t="n">
-        <v>4.356256466664377e-10</v>
+        <v>1.566766161253952e-11</v>
       </c>
       <c r="RK3" t="n">
         <v>0</v>
       </c>
       <c r="RL3" t="n">
-        <v>357995.6680892352</v>
+        <v>357995.66808672</v>
       </c>
     </row>
   </sheetData>
@@ -8686,7 +8686,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01760218519708645</v>
+        <v>0.01760218518210679</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -8695,25 +8695,25 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04914041452742979</v>
+        <v>0.04914041452378246</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08202266826375937</v>
+        <v>0.08202266824513238</v>
       </c>
       <c r="H2" t="n">
-        <v>7.829834003381109e-12</v>
+        <v>-8.647041416232071e-12</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.71248350570991</v>
+        <v>80.71248350406208</v>
       </c>
       <c r="K2" t="n">
-        <v>80.71248350570991</v>
+        <v>80.71248350406208</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>80.71248350570991</v>
+        <v>80.71248350406208</v>
       </c>
       <c r="O2" t="n">
-        <v>80.71248350570991</v>
+        <v>80.71248350406208</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8734,97 +8734,97 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.3522750145584</v>
+        <v>292.3522750146909</v>
       </c>
       <c r="S2" t="n">
-        <v>132772.1796841445</v>
+        <v>132772.1796843552</v>
       </c>
       <c r="T2" t="n">
-        <v>1.58293274700043</v>
+        <v>1.582932747002223</v>
       </c>
       <c r="U2" t="n">
-        <v>334649.8439823779</v>
+        <v>334649.8439824728</v>
       </c>
       <c r="V2" t="n">
-        <v>418527.1785916595</v>
+        <v>418527.1785917926</v>
       </c>
       <c r="W2" t="n">
-        <v>3782.917347723461</v>
+        <v>3782.917347723462</v>
       </c>
       <c r="X2" t="n">
-        <v>-687417.3142073336</v>
+        <v>-687417.3142077018</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7129007517434</v>
+        <v>717.7129007517492</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.647652845946</v>
+        <v>1006.647652845953</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402577063602407</v>
+        <v>1.402577063602405</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994979633405103</v>
+        <v>0.9994979633405112</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.9081100794874</v>
+        <v>342.9081100795651</v>
       </c>
       <c r="AD2" t="n">
-        <v>186130.685600645</v>
+        <v>186130.6856009401</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.372569261070485e-06</v>
+        <v>5.372569261061966e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132706.2094702898</v>
+        <v>132706.2094705004</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.535442418192795e-06</v>
+        <v>7.535442418180834e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003433462124707519</v>
+        <v>0.003433462124705964</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.817140103498368e-05</v>
+        <v>1.817140103499016e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02582429250873531</v>
+        <v>0.02582429250874529</v>
       </c>
       <c r="AK2" t="n">
-        <v>132772.1796841445</v>
+        <v>132772.1796843552</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.58293274700043</v>
+        <v>1.582932747002223</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.58293274700043</v>
+        <v>1.582932747002223</v>
       </c>
       <c r="AN2" t="n">
-        <v>334649.8439823779</v>
+        <v>334649.8439824728</v>
       </c>
       <c r="AO2" t="n">
-        <v>418527.1785916595</v>
+        <v>418527.1785917926</v>
       </c>
       <c r="AP2" t="n">
-        <v>3782.917347723461</v>
+        <v>3782.917347723462</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7129007517434</v>
+        <v>717.7129007517492</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.647652845946</v>
+        <v>1006.647652845953</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.9081100794874</v>
+        <v>342.9081100795651</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994979633405103</v>
+        <v>0.9994979633405112</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.817140103498368e-05</v>
+        <v>1.817140103499016e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02582429250873531</v>
+        <v>0.02582429250874529</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -8835,97 +8835,97 @@
         <v>1</v>
       </c>
       <c r="AY2" t="n">
-        <v>295.6000000001888</v>
+        <v>295.5999999999887</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137999.9999953536</v>
+        <v>137999.9999950273</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.627145819756448</v>
+        <v>1.627145819753704</v>
       </c>
       <c r="BB2" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="BC2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="BD2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="BE2" t="n">
-        <v>-696445.9368990478</v>
+        <v>-696445.9368984912</v>
       </c>
       <c r="BF2" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="BG2" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.40252562327819</v>
+        <v>1.402525623278194</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="BJ2" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="BK2" t="n">
-        <v>193456.8974372425</v>
+        <v>193456.8974367851</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.169110087296838e-06</v>
+        <v>5.169110087309059e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>137934.6617461907</v>
+        <v>137934.6617458643</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.249809346979579e-06</v>
+        <v>7.249809346996735e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003395798695744087</v>
+        <v>0.003395798695746383</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="BR2" t="n">
-        <v>137999.9999953536</v>
+        <v>137999.9999950273</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.627145819756448</v>
+        <v>1.627145819753704</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.627145819756448</v>
+        <v>1.627145819753704</v>
       </c>
       <c r="BU2" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="BV2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="BW2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="BX2" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="BY2" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="BZ2" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="CD2" t="inlineStr">
         <is>
@@ -8936,97 +8936,97 @@
         <v>1</v>
       </c>
       <c r="CF2" t="n">
-        <v>295.6000000001888</v>
+        <v>295.5999999999888</v>
       </c>
       <c r="CG2" t="n">
-        <v>137999.9999953536</v>
+        <v>137999.9999950269</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.627145819756448</v>
+        <v>1.627145819753699</v>
       </c>
       <c r="CI2" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="CJ2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884895</v>
       </c>
       <c r="CK2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="CL2" t="n">
-        <v>-696445.9368990478</v>
+        <v>-696445.9368984916</v>
       </c>
       <c r="CM2" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362507</v>
       </c>
       <c r="CN2" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550243</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.40252562327819</v>
+        <v>1.402525623278193</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="CQ2" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="CR2" t="n">
-        <v>193456.8974372425</v>
+        <v>193456.8974367846</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.169110087296838e-06</v>
+        <v>5.169110087309074e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>137934.6617461907</v>
+        <v>137934.6617458639</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.249809346979579e-06</v>
+        <v>7.249809346996757e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.003395798695744087</v>
+        <v>0.003395798695746382</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011632e-05</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705885</v>
       </c>
       <c r="CY2" t="n">
-        <v>137999.9999953536</v>
+        <v>137999.9999950269</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.627145819756448</v>
+        <v>1.627145819753699</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.627145819756448</v>
+        <v>1.627145819753699</v>
       </c>
       <c r="DB2" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="DC2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884895</v>
       </c>
       <c r="DD2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="DE2" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362507</v>
       </c>
       <c r="DF2" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550243</v>
       </c>
       <c r="DG2" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011632e-05</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705885</v>
       </c>
       <c r="DK2" t="inlineStr">
         <is>
@@ -9037,16 +9037,16 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.2353764204847779</v>
+        <v>0.235376420479919</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.2353764204847779</v>
+        <v>0.235376420479919</v>
       </c>
       <c r="DO2" t="n">
-        <v>183929.9703384812</v>
+        <v>183929.9703348688</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.742859853982996</v>
+        <v>2.742859853930104</v>
       </c>
       <c r="DQ2" t="n">
         <v>421784.4310885898</v>
@@ -9055,121 +9055,121 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>306.8418861027168</v>
+        <v>306.8418859841726</v>
       </c>
       <c r="DT2" t="n">
-        <v>125.3773393698346</v>
+        <v>125.3773393213968</v>
       </c>
       <c r="DU2" t="n">
-        <v>280.0579687129326</v>
+        <v>280.0579686047361</v>
       </c>
       <c r="DV2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW2" t="n">
-        <v>306.8418861027168</v>
+        <v>306.8418859841726</v>
       </c>
       <c r="DX2" t="n">
-        <v>125.3773393698346</v>
+        <v>125.3773393213968</v>
       </c>
       <c r="DY2" t="n">
-        <v>280.0579687129326</v>
+        <v>280.0579686047361</v>
       </c>
       <c r="DZ2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA2" t="n">
-        <v>248.6139895051543</v>
+        <v>248.6139895414759</v>
       </c>
       <c r="EB2" t="n">
-        <v>72670.2894929289</v>
+        <v>72670.28953035375</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.01901958028262</v>
+        <v>1.019019580658407</v>
       </c>
       <c r="ED2" t="n">
-        <v>303394.531050484</v>
+        <v>303394.5310764308</v>
       </c>
       <c r="EE2" t="n">
-        <v>374708.4595549531</v>
+        <v>374708.4595913275</v>
       </c>
       <c r="EF2" t="n">
-        <v>3793.461869275423</v>
+        <v>3793.461869274007</v>
       </c>
       <c r="EG2" t="n">
-        <v>-568399.22980129</v>
+        <v>-568399.2299023484</v>
       </c>
       <c r="EH2" t="n">
-        <v>716.2663343393857</v>
+        <v>716.2663343401784</v>
       </c>
       <c r="EI2" t="n">
-        <v>1004.832375610079</v>
+        <v>1004.832375611124</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.402875337617031</v>
+        <v>1.402875337616937</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9992923632802572</v>
+        <v>0.9992923632803825</v>
       </c>
       <c r="EL2" t="n">
-        <v>316.1865760496041</v>
+        <v>316.1865760727304</v>
       </c>
       <c r="EM2" t="n">
-        <v>101875.4134587903</v>
+        <v>101875.4135112618</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.81591108245672e-06</v>
+        <v>9.815911077400982e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>72619.00664091735</v>
+        <v>72619.00667832502</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.377049957382022e-05</v>
+        <v>1.377049956672673e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.004035765672361621</v>
+        <v>0.004035765671773264</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.596159563267172e-05</v>
+        <v>1.596159563456726e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02244419801533679</v>
+        <v>0.02244419801821527</v>
       </c>
       <c r="ET2" t="n">
-        <v>72670.2894929289</v>
+        <v>72670.28953035375</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.01901958028262</v>
+        <v>1.019019580658407</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.01901958028262</v>
+        <v>1.019019580658407</v>
       </c>
       <c r="EW2" t="n">
-        <v>303394.531050484</v>
+        <v>303394.5310764308</v>
       </c>
       <c r="EX2" t="n">
-        <v>374708.4595549531</v>
+        <v>374708.4595913275</v>
       </c>
       <c r="EY2" t="n">
-        <v>3793.461869275423</v>
+        <v>3793.461869274007</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.2663343393857</v>
+        <v>716.2663343401784</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.832375610079</v>
+        <v>1004.832375611124</v>
       </c>
       <c r="FB2" t="n">
-        <v>316.1865760496041</v>
+        <v>316.1865760727304</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9992923632802572</v>
+        <v>0.9992923632803825</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.596159563267172e-05</v>
+        <v>1.596159563456726e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.02244419801533679</v>
+        <v>0.02244419801821527</v>
       </c>
       <c r="FF2" t="inlineStr">
         <is>
@@ -9180,97 +9180,97 @@
         <v>1</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.5884537395501</v>
+        <v>295.5884537395515</v>
       </c>
       <c r="FI2" t="n">
-        <v>133020.3589800493</v>
+        <v>133020.3589807056</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.568465981774118</v>
+        <v>1.568465981781852</v>
       </c>
       <c r="FK2" t="n">
-        <v>336975.2222656925</v>
+        <v>336975.2222656924</v>
       </c>
       <c r="FL2" t="n">
-        <v>421784.4310886904</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="FM2" t="n">
-        <v>3793.461869282855</v>
+        <v>3793.461869281439</v>
       </c>
       <c r="FN2" t="n">
-        <v>-699519.097172572</v>
+        <v>-699519.0971721591</v>
       </c>
       <c r="FO2" t="n">
-        <v>717.8502656720217</v>
+        <v>717.8502656720235</v>
       </c>
       <c r="FP2" t="n">
-        <v>1006.73982266459</v>
+        <v>1006.739822664601</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.40243706913185</v>
+        <v>1.402437069131861</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.9995380147658127</v>
+        <v>0.9995380147658104</v>
       </c>
       <c r="FS2" t="n">
-        <v>344.7973817658082</v>
+        <v>344.7973817658097</v>
       </c>
       <c r="FT2" t="n">
-        <v>186467.4460054445</v>
+        <v>186467.4460063657</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.362866395299918e-06</v>
+        <v>5.362866395273422e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>132959.5816522971</v>
+        <v>132959.5816529529</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.521082629570104e-06</v>
+        <v>7.52108262953301e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.003395470178530136</v>
+        <v>0.00339547017853018</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.832867335241737e-05</v>
+        <v>1.832867335241754e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02606617654997241</v>
+        <v>0.02606617654997273</v>
       </c>
       <c r="GA2" t="n">
-        <v>133020.3589800493</v>
+        <v>133020.3589807056</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.568465981774118</v>
+        <v>1.568465981781852</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.568465981774118</v>
+        <v>1.568465981781852</v>
       </c>
       <c r="GD2" t="n">
-        <v>336975.2222656925</v>
+        <v>336975.2222656924</v>
       </c>
       <c r="GE2" t="n">
-        <v>421784.4310886904</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="GF2" t="n">
-        <v>3793.461869282855</v>
+        <v>3793.461869281439</v>
       </c>
       <c r="GG2" t="n">
-        <v>717.8502656720217</v>
+        <v>717.8502656720235</v>
       </c>
       <c r="GH2" t="n">
-        <v>1006.73982266459</v>
+        <v>1006.739822664601</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.7973817658082</v>
+        <v>344.7973817658097</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.9995380147658127</v>
+        <v>0.9995380147658104</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.832867335241737e-05</v>
+        <v>1.832867335241754e-05</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.02606617654997241</v>
+        <v>0.02606617654997273</v>
       </c>
       <c r="GM2" t="inlineStr">
         <is>
@@ -9281,97 +9281,97 @@
         <v>1</v>
       </c>
       <c r="GO2" t="n">
-        <v>295.5884537395501</v>
+        <v>295.5884537395515</v>
       </c>
       <c r="GP2" t="n">
-        <v>133020.3589800493</v>
+        <v>133020.3589807056</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.568465981774118</v>
+        <v>1.568465981781852</v>
       </c>
       <c r="GR2" t="n">
-        <v>336975.2222656925</v>
+        <v>336975.2222656924</v>
       </c>
       <c r="GS2" t="n">
-        <v>421784.4310886904</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="GT2" t="n">
-        <v>3793.461869282855</v>
+        <v>3793.461869281439</v>
       </c>
       <c r="GU2" t="n">
-        <v>-699519.097172572</v>
+        <v>-699519.0971721591</v>
       </c>
       <c r="GV2" t="n">
-        <v>717.8502656720217</v>
+        <v>717.8502656720235</v>
       </c>
       <c r="GW2" t="n">
-        <v>1006.73982266459</v>
+        <v>1006.739822664601</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.40243706913185</v>
+        <v>1.402437069131861</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.9995380147658127</v>
+        <v>0.9995380147658104</v>
       </c>
       <c r="GZ2" t="n">
-        <v>344.7973817658082</v>
+        <v>344.7973817658097</v>
       </c>
       <c r="HA2" t="n">
-        <v>186467.4460054445</v>
+        <v>186467.4460063657</v>
       </c>
       <c r="HB2" t="n">
-        <v>5.362866395299918e-06</v>
+        <v>5.362866395273422e-06</v>
       </c>
       <c r="HC2" t="n">
-        <v>132959.5816522971</v>
+        <v>132959.5816529529</v>
       </c>
       <c r="HD2" t="n">
-        <v>7.521082629570104e-06</v>
+        <v>7.52108262953301e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.003395470178530136</v>
+        <v>0.00339547017853018</v>
       </c>
       <c r="HF2" t="n">
-        <v>1.832867335241737e-05</v>
+        <v>1.832867335241754e-05</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.02606617654997241</v>
+        <v>0.02606617654997273</v>
       </c>
       <c r="HH2" t="n">
-        <v>133020.3589800493</v>
+        <v>133020.3589807056</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.568465981774118</v>
+        <v>1.568465981781852</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.568465981774118</v>
+        <v>1.568465981781852</v>
       </c>
       <c r="HK2" t="n">
-        <v>336975.2222656925</v>
+        <v>336975.2222656924</v>
       </c>
       <c r="HL2" t="n">
-        <v>421784.4310886904</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="HM2" t="n">
-        <v>3793.461869282855</v>
+        <v>3793.461869281439</v>
       </c>
       <c r="HN2" t="n">
-        <v>717.8502656720217</v>
+        <v>717.8502656720235</v>
       </c>
       <c r="HO2" t="n">
-        <v>1006.73982266459</v>
+        <v>1006.739822664601</v>
       </c>
       <c r="HP2" t="n">
-        <v>344.7973817658082</v>
+        <v>344.7973817658097</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9995380147658127</v>
+        <v>0.9995380147658104</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.832867335241737e-05</v>
+        <v>1.832867335241754e-05</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.02606617654997241</v>
+        <v>0.02606617654997273</v>
       </c>
       <c r="HT2" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.01795407855384014</v>
+        <v>0.01795407855351782</v>
       </c>
       <c r="HW2" t="n">
         <v>0</v>
@@ -9391,28 +9391,28 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.04927004794550936</v>
+        <v>0.04927004794523454</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.08250419503859263</v>
+        <v>0.0825041950379955</v>
       </c>
       <c r="IB2" t="n">
-        <v>8.402791824208e-06</v>
+        <v>8.402834514448232e-06</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9704456461636077</v>
+        <v>0.9704456457177099</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.9704456461636077</v>
+        <v>0.9704456457177099</v>
       </c>
       <c r="IE2" t="n">
-        <v>512458.390148845</v>
+        <v>512458.3900789871</v>
       </c>
       <c r="IF2" t="n">
-        <v>2.742849774737787</v>
+        <v>2.742849774689615</v>
       </c>
       <c r="IG2" t="n">
         <v>421784.4310885898</v>
@@ -9421,154 +9421,154 @@
         <v>0</v>
       </c>
       <c r="II2" t="n">
-        <v>372100.6508731994</v>
+        <v>372100.6509095405</v>
       </c>
       <c r="IJ2" t="n">
-        <v>2098.673929729848</v>
+        <v>2098.673917221546</v>
       </c>
       <c r="IK2" t="n">
         <v>0</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.02695523147002897</v>
+        <v>0.02695523122693128</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.0006584125739947214</v>
+        <v>0.000658412515462039</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.0138841522388633</v>
+        <v>0.01388415224597339</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.08117664829783558</v>
+        <v>0.08117664768427862</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.04120011745655736</v>
+        <v>0.04120011733581692</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.1638745620372799</v>
+        <v>0.1638745610084623</v>
       </c>
       <c r="IR2" t="n">
-        <v>4.971720257707091e-11</v>
+        <v>3.650929558673965e-11</v>
       </c>
       <c r="IS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IT2" t="n">
-        <v>263.5638538161692</v>
+        <v>263.5638536744103</v>
       </c>
       <c r="IU2" t="n">
-        <v>108.7959836108914</v>
+        <v>108.7959836121467</v>
       </c>
       <c r="IV2" t="n">
-        <v>240.0611151114851</v>
+        <v>240.0611149552785</v>
       </c>
       <c r="IW2" t="n">
-        <v>65.61990963296284</v>
+        <v>65.61990961869704</v>
       </c>
       <c r="IX2" t="n">
-        <v>132.0049693067551</v>
+        <v>132.0049692193258</v>
       </c>
       <c r="IY2" t="n">
-        <v>108.7959836108914</v>
+        <v>108.7959836121467</v>
       </c>
       <c r="IZ2" t="n">
-        <v>74.75791511148506</v>
+        <v>74.75791495527852</v>
       </c>
       <c r="JA2" t="n">
-        <v>34.49445813569942</v>
+        <v>34.49445807951114</v>
       </c>
       <c r="JB2" t="n">
-        <v>260.9393089935446</v>
+        <v>260.9393090309942</v>
       </c>
       <c r="JC2" t="n">
-        <v>86794.20857103838</v>
+        <v>86794.2086320068</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.159534375406582</v>
+        <v>1.159534376054641</v>
       </c>
       <c r="JE2" t="n">
-        <v>312198.83908567</v>
+        <v>312198.8391123878</v>
       </c>
       <c r="JF2" t="n">
-        <v>387051.4785691737</v>
+        <v>387051.4786066366</v>
       </c>
       <c r="JG2" t="n">
-        <v>3790.970718525642</v>
+        <v>3790.970718467708</v>
       </c>
       <c r="JH2" t="n">
-        <v>-602161.8011376685</v>
+        <v>-602161.8012270585</v>
       </c>
       <c r="JI2" t="n">
-        <v>716.57200838235</v>
+        <v>716.5720083834412</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1005.2355635008</v>
+        <v>1005.235563502475</v>
       </c>
       <c r="JK2" t="n">
-        <v>1.402839563563338</v>
+        <v>1.402839563563538</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.9993356513660829</v>
+        <v>0.9993356513661164</v>
       </c>
       <c r="JM2" t="n">
-        <v>323.9394398996936</v>
+        <v>323.9394399229737</v>
       </c>
       <c r="JN2" t="n">
-        <v>121677.7813015855</v>
+        <v>121677.7813870796</v>
       </c>
       <c r="JO2" t="n">
-        <v>8.218427302856891e-06</v>
+        <v>8.218427297082403e-06</v>
       </c>
       <c r="JP2" t="n">
-        <v>86736.77622301517</v>
+        <v>86736.7762839464</v>
       </c>
       <c r="JQ2" t="n">
-        <v>1.152913497071678e-05</v>
+        <v>1.152913496261774e-05</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.003845620284022093</v>
+        <v>0.003845620283473928</v>
       </c>
       <c r="JS2" t="n">
-        <v>1.659884706186662e-05</v>
+        <v>1.659884706378711e-05</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.02341396449770516</v>
+        <v>0.02341396450063576</v>
       </c>
       <c r="JU2" t="n">
-        <v>86794.20857103838</v>
+        <v>86794.2086320068</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.159534375406582</v>
+        <v>1.159534376054641</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.159534375406582</v>
+        <v>1.159534376054641</v>
       </c>
       <c r="JX2" t="n">
-        <v>312198.83908567</v>
+        <v>312198.8391123878</v>
       </c>
       <c r="JY2" t="n">
-        <v>387051.4785691737</v>
+        <v>387051.4786066366</v>
       </c>
       <c r="JZ2" t="n">
-        <v>3790.970718525642</v>
+        <v>3790.970718467708</v>
       </c>
       <c r="KA2" t="n">
-        <v>716.57200838235</v>
+        <v>716.5720083834412</v>
       </c>
       <c r="KB2" t="n">
-        <v>1005.2355635008</v>
+        <v>1005.235563502475</v>
       </c>
       <c r="KC2" t="n">
-        <v>323.9394398996936</v>
+        <v>323.9394399229737</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.9993356513660829</v>
+        <v>0.9993356513661164</v>
       </c>
       <c r="KE2" t="n">
-        <v>1.659884706186662e-05</v>
+        <v>1.659884706378711e-05</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.02341396449770516</v>
+        <v>0.02341396450063576</v>
       </c>
       <c r="KG2" t="inlineStr">
         <is>
@@ -9579,97 +9579,97 @@
         <v>1</v>
       </c>
       <c r="KI2" t="n">
-        <v>295.5911436440745</v>
+        <v>295.5911436441375</v>
       </c>
       <c r="KJ2" t="n">
-        <v>134180.3381309699</v>
+        <v>134180.3381580638</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.582135351096828</v>
+        <v>1.582135351416104</v>
       </c>
       <c r="KL2" t="n">
-        <v>336974.7856698534</v>
+        <v>336974.7856698433</v>
       </c>
       <c r="KM2" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="KN2" t="n">
-        <v>3790.970718530866</v>
+        <v>3790.970718472933</v>
       </c>
       <c r="KO2" t="n">
-        <v>-698792.9391231481</v>
+        <v>-698792.9391062621</v>
       </c>
       <c r="KP2" t="n">
-        <v>717.8532872837995</v>
+        <v>717.8532872838704</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1006.758869098873</v>
+        <v>1006.758869099318</v>
       </c>
       <c r="KR2" t="n">
-        <v>1.402457698436166</v>
+        <v>1.402457698436648</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.9995340644354415</v>
+        <v>0.9995340644353492</v>
       </c>
       <c r="KT2" t="n">
-        <v>344.8001391117581</v>
+        <v>344.8001391118227</v>
       </c>
       <c r="KU2" t="n">
-        <v>188095.5405478607</v>
+        <v>188095.5405858889</v>
       </c>
       <c r="KV2" t="n">
-        <v>5.316447147483281e-06</v>
+        <v>5.316447146408428e-06</v>
       </c>
       <c r="KW2" t="n">
-        <v>134118.5126350691</v>
+        <v>134118.5126621383</v>
       </c>
       <c r="KX2" t="n">
-        <v>7.45609223031692e-06</v>
+        <v>7.456092228812049e-06</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.003395546720601217</v>
+        <v>0.003395546720603004</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1.832897112378628e-05</v>
+        <v>1.832897112379324e-05</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.02606674897544505</v>
+        <v>0.02606674897545843</v>
       </c>
       <c r="LB2" t="n">
-        <v>134180.3381309699</v>
+        <v>134180.3381580638</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.582135351096828</v>
+        <v>1.582135351416104</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.582135351096828</v>
+        <v>1.582135351416104</v>
       </c>
       <c r="LE2" t="n">
-        <v>336974.7856698534</v>
+        <v>336974.7856698433</v>
       </c>
       <c r="LF2" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="LG2" t="n">
-        <v>3790.970718530866</v>
+        <v>3790.970718472933</v>
       </c>
       <c r="LH2" t="n">
-        <v>717.8532872837995</v>
+        <v>717.8532872838704</v>
       </c>
       <c r="LI2" t="n">
-        <v>1006.758869098873</v>
+        <v>1006.758869099318</v>
       </c>
       <c r="LJ2" t="n">
-        <v>344.8001391117581</v>
+        <v>344.8001391118227</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.9995340644354415</v>
+        <v>0.9995340644353492</v>
       </c>
       <c r="LL2" t="n">
-        <v>1.832897112378628e-05</v>
+        <v>1.832897112379324e-05</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.02606674897544505</v>
+        <v>0.02606674897545843</v>
       </c>
       <c r="LN2" t="inlineStr">
         <is>
@@ -9680,97 +9680,97 @@
         <v>1</v>
       </c>
       <c r="LP2" t="n">
-        <v>269.6356177155737</v>
+        <v>269.6356177415988</v>
       </c>
       <c r="LQ2" t="n">
-        <v>97323.20163183473</v>
+        <v>97323.20168647035</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.258211129770768</v>
+        <v>1.258211130355673</v>
       </c>
       <c r="LS2" t="n">
-        <v>318413.6809146163</v>
+        <v>318413.6809331671</v>
       </c>
       <c r="LT2" t="n">
-        <v>395764.1345301124</v>
+        <v>395764.1345561285</v>
       </c>
       <c r="LU2" t="n">
-        <v>3790.970718525642</v>
+        <v>3790.970718461085</v>
       </c>
       <c r="LV2" t="n">
-        <v>-626416.5969012014</v>
+        <v>-626416.5969564386</v>
       </c>
       <c r="LW2" t="n">
-        <v>716.8304959734782</v>
+        <v>716.8304959743803</v>
       </c>
       <c r="LX2" t="n">
-        <v>1005.554151032456</v>
+        <v>1005.554151033915</v>
       </c>
       <c r="LY2" t="n">
-        <v>1.402778141667762</v>
+        <v>1.402778141668032</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.9993770564604559</v>
+        <v>0.9993770564604491</v>
       </c>
       <c r="MA2" t="n">
-        <v>329.2996777186681</v>
+        <v>329.2996777345899</v>
       </c>
       <c r="MB2" t="n">
-        <v>136438.2479527112</v>
+        <v>136438.248029331</v>
       </c>
       <c r="MC2" t="n">
-        <v>7.329323082092019e-06</v>
+        <v>7.32932307797608e-06</v>
       </c>
       <c r="MD2" t="n">
-        <v>97262.88420098976</v>
+        <v>97262.88425559115</v>
       </c>
       <c r="ME2" t="n">
-        <v>1.028141421277968e-05</v>
+        <v>1.02814142070079e-05</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.003721823234594392</v>
+        <v>0.003721823234238772</v>
       </c>
       <c r="MG2" t="n">
-        <v>1.704129315913369e-05</v>
+        <v>1.704129316045254e-05</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.02408955281009136</v>
+        <v>0.02408955281211068</v>
       </c>
       <c r="MI2" t="n">
-        <v>97323.20163183473</v>
+        <v>97323.20168647035</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.258211129770768</v>
+        <v>1.258211130355673</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.258211129770768</v>
+        <v>1.258211130355673</v>
       </c>
       <c r="ML2" t="n">
-        <v>318413.6809146163</v>
+        <v>318413.6809331671</v>
       </c>
       <c r="MM2" t="n">
-        <v>395764.1345301124</v>
+        <v>395764.1345561285</v>
       </c>
       <c r="MN2" t="n">
-        <v>3790.970718525642</v>
+        <v>3790.970718461085</v>
       </c>
       <c r="MO2" t="n">
-        <v>716.8304959734782</v>
+        <v>716.8304959743803</v>
       </c>
       <c r="MP2" t="n">
-        <v>1005.554151032456</v>
+        <v>1005.554151033915</v>
       </c>
       <c r="MQ2" t="n">
-        <v>329.2996777186681</v>
+        <v>329.2996777345899</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.9993770564604559</v>
+        <v>0.9993770564604491</v>
       </c>
       <c r="MS2" t="n">
-        <v>1.704129315913369e-05</v>
+        <v>1.704129316045254e-05</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.02408955281009136</v>
+        <v>0.02408955281211068</v>
       </c>
       <c r="MU2" t="inlineStr">
         <is>
@@ -9781,139 +9781,139 @@
         <v>1</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.8136207616392145</v>
+        <v>0.8136207611431336</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.4074989119806772</v>
+        <v>0.407498911681498</v>
       </c>
       <c r="MY2" t="n">
-        <v>240309.199406352</v>
+        <v>240309.1993536948</v>
       </c>
       <c r="MZ2" t="n">
-        <v>2.708301029114454</v>
+        <v>2.708301030659362</v>
       </c>
       <c r="NA2" t="n">
-        <v>382101.5605649924</v>
+        <v>382101.5605909145</v>
       </c>
       <c r="NB2" t="n">
         <v>165.3032</v>
       </c>
       <c r="NC2" t="n">
-        <v>162.2280527435281</v>
+        <v>162.2280452495789</v>
       </c>
       <c r="ND2" t="n">
-        <v>138.008132289499</v>
+        <v>138.0081281379607</v>
       </c>
       <c r="NE2" t="n">
-        <v>-85.2742429982294</v>
+        <v>-85.27423546039941</v>
       </c>
       <c r="NF2" t="n">
-        <v>-31.71162393038981</v>
+        <v>-31.71162243635387</v>
       </c>
       <c r="NG2" t="n">
-        <v>286.0686971997579</v>
+        <v>286.0686885942857</v>
       </c>
       <c r="NH2" t="n">
-        <v>138.008132289499</v>
+        <v>138.0081281379607</v>
       </c>
       <c r="NI2" t="n">
-        <v>-250.5774429982294</v>
+        <v>-250.5774354603994</v>
       </c>
       <c r="NJ2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NK2" t="n">
-        <v>228.7656517860219</v>
+        <v>228.7656542712885</v>
       </c>
       <c r="NL2" t="n">
-        <v>51133.07067811689</v>
+        <v>51133.07280282608</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.7792331455481297</v>
+        <v>0.7792331694597984</v>
       </c>
       <c r="NN2" t="n">
-        <v>289226.7521273501</v>
+        <v>289226.7539019788</v>
       </c>
       <c r="NO2" t="n">
-        <v>354846.4847712288</v>
+        <v>354846.4872589071</v>
       </c>
       <c r="NP2" t="n">
-        <v>3811.027277256297</v>
+        <v>3811.027276211608</v>
       </c>
       <c r="NQ2" t="n">
-        <v>-516985.6542846164</v>
+        <v>-516985.6610293682</v>
       </c>
       <c r="NR2" t="n">
-        <v>715.8964416516782</v>
+        <v>715.8964416877076</v>
       </c>
       <c r="NS2" t="n">
-        <v>1004.24823461315</v>
+        <v>1004.248234669271</v>
       </c>
       <c r="NT2" t="n">
-        <v>1.402784224344239</v>
+        <v>1.402784224352033</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.9992804916585837</v>
+        <v>0.9992804916611612</v>
       </c>
       <c r="NV2" t="n">
-        <v>303.2889469895835</v>
+        <v>303.2889486386581</v>
       </c>
       <c r="NW2" t="n">
-        <v>71677.12610346969</v>
+        <v>71677.1290824259</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.395145221861222e-05</v>
+        <v>1.395145163877921e-05</v>
       </c>
       <c r="NY2" t="n">
-        <v>51096.33032619585</v>
+        <v>51096.33244951456</v>
       </c>
       <c r="NZ2" t="n">
-        <v>1.957087707896166e-05</v>
+        <v>1.95708762656898e-05</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.00438434552130828</v>
+        <v>0.004384345473818828</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.490881768375053e-05</v>
+        <v>1.490881781763413e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.0208503657164449</v>
+        <v>0.02085036591840249</v>
       </c>
       <c r="OD2" t="n">
-        <v>51133.07067811689</v>
+        <v>51133.07280282608</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.7792331455481297</v>
+        <v>0.7792331694597984</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.7792331455481297</v>
+        <v>0.7792331694597984</v>
       </c>
       <c r="OG2" t="n">
-        <v>289226.7521273501</v>
+        <v>289226.7539019788</v>
       </c>
       <c r="OH2" t="n">
-        <v>354846.4847712288</v>
+        <v>354846.4872589071</v>
       </c>
       <c r="OI2" t="n">
-        <v>3811.027277256297</v>
+        <v>3811.027276211608</v>
       </c>
       <c r="OJ2" t="n">
-        <v>715.8964416516782</v>
+        <v>715.8964416877076</v>
       </c>
       <c r="OK2" t="n">
-        <v>1004.24823461315</v>
+        <v>1004.248234669271</v>
       </c>
       <c r="OL2" t="n">
-        <v>303.2889469895835</v>
+        <v>303.2889486386581</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9992804916585837</v>
+        <v>0.9992804916611612</v>
       </c>
       <c r="ON2" t="n">
-        <v>1.490881768375053e-05</v>
+        <v>1.490881781763413e-05</v>
       </c>
       <c r="OO2" t="n">
-        <v>0.0208503657164449</v>
+        <v>0.02085036591840249</v>
       </c>
       <c r="OP2" t="inlineStr">
         <is>
@@ -9924,97 +9924,97 @@
         <v>1</v>
       </c>
       <c r="OR2" t="n">
-        <v>241.906949834082</v>
+        <v>241.9069511048753</v>
       </c>
       <c r="OS2" t="n">
-        <v>62141.48294866733</v>
+        <v>62141.48431394767</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.895520214691049</v>
+        <v>0.8955202296606363</v>
       </c>
       <c r="OU2" t="n">
-        <v>298613.9642857203</v>
+        <v>298613.9651929567</v>
       </c>
       <c r="OV2" t="n">
-        <v>368005.4553199075</v>
+        <v>368005.456591757</v>
       </c>
       <c r="OW2" t="n">
-        <v>3811.027277248859</v>
+        <v>3811.02727620417</v>
       </c>
       <c r="OX2" t="n">
-        <v>-553908.5290538502</v>
+        <v>-553908.5323723112</v>
       </c>
       <c r="OY2" t="n">
-        <v>716.112751814115</v>
+        <v>716.1127518391752</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1004.546470267552</v>
+        <v>1004.54647030564</v>
       </c>
       <c r="PA2" t="n">
-        <v>1.402776961760217</v>
+        <v>1.402776961764313</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.9993132453405771</v>
+        <v>0.9993132453417788</v>
       </c>
       <c r="PC2" t="n">
-        <v>311.8879231444222</v>
+        <v>311.8879239644718</v>
       </c>
       <c r="PD2" t="n">
-        <v>87110.90196369751</v>
+        <v>87110.90387793319</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.147961939846219e-05</v>
+        <v>1.147961914620104e-05</v>
       </c>
       <c r="PF2" t="n">
-        <v>62098.89692969437</v>
+        <v>62098.89829411746</v>
       </c>
       <c r="PG2" t="n">
-        <v>1.610334562193844e-05</v>
+        <v>1.610334526811933e-05</v>
       </c>
       <c r="PH2" t="n">
-        <v>0.004146623413801553</v>
+        <v>0.004146623392106911</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.560911249043716e-05</v>
+        <v>1.560911255748294e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.02190894419139822</v>
+        <v>0.02190894429300925</v>
       </c>
       <c r="PK2" t="n">
-        <v>62141.48294866733</v>
+        <v>62141.48431394767</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.895520214691049</v>
+        <v>0.8955202296606363</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.895520214691049</v>
+        <v>0.8955202296606363</v>
       </c>
       <c r="PN2" t="n">
-        <v>298613.9642857203</v>
+        <v>298613.9651929567</v>
       </c>
       <c r="PO2" t="n">
-        <v>368005.4553199075</v>
+        <v>368005.456591757</v>
       </c>
       <c r="PP2" t="n">
-        <v>3811.027277248859</v>
+        <v>3811.02727620417</v>
       </c>
       <c r="PQ2" t="n">
-        <v>716.112751814115</v>
+        <v>716.1127518391752</v>
       </c>
       <c r="PR2" t="n">
-        <v>1004.546470267552</v>
+        <v>1004.54647030564</v>
       </c>
       <c r="PS2" t="n">
-        <v>311.8879231444222</v>
+        <v>311.8879239644718</v>
       </c>
       <c r="PT2" t="n">
-        <v>0.9993132453405771</v>
+        <v>0.9993132453417788</v>
       </c>
       <c r="PU2" t="n">
-        <v>1.560911249043716e-05</v>
+        <v>1.560911255748294e-05</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.02190894419139822</v>
+        <v>0.02190894429300925</v>
       </c>
       <c r="PW2" t="inlineStr">
         <is>
@@ -10025,97 +10025,97 @@
         <v>1</v>
       </c>
       <c r="PY2" t="n">
-        <v>269.6172469113774</v>
+        <v>269.6172469380686</v>
       </c>
       <c r="PZ2" t="n">
-        <v>90751.39234021273</v>
+        <v>90751.39270098224</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.173280701935947</v>
+        <v>1.173280706486327</v>
       </c>
       <c r="QB2" t="n">
-        <v>318415.7283129534</v>
+        <v>318415.7283312707</v>
       </c>
       <c r="QC2" t="n">
-        <v>395764.1345302127</v>
+        <v>395764.1345560345</v>
       </c>
       <c r="QD2" t="n">
-        <v>3811.027277245629</v>
+        <v>3811.027276200941</v>
       </c>
       <c r="QE2" t="n">
-        <v>-631754.5478649162</v>
+        <v>-631754.5476591495</v>
       </c>
       <c r="QF2" t="n">
-        <v>716.8090419900716</v>
+        <v>716.8090419919732</v>
       </c>
       <c r="QG2" t="n">
-        <v>1005.419714720073</v>
+        <v>1005.419714727823</v>
       </c>
       <c r="QH2" t="n">
-        <v>1.402632578306676</v>
+        <v>1.402632578313767</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.9994186961904511</v>
+        <v>0.9994186961884776</v>
       </c>
       <c r="QJ2" t="n">
-        <v>329.2850255559278</v>
+        <v>329.2850255724126</v>
       </c>
       <c r="QK2" t="n">
-        <v>127217.2168347539</v>
+        <v>127217.217340883</v>
       </c>
       <c r="QL2" t="n">
-        <v>7.860571272353242e-06</v>
+        <v>7.860571241080247e-06</v>
       </c>
       <c r="QM2" t="n">
-        <v>90698.88921896886</v>
+        <v>90698.88957935253</v>
       </c>
       <c r="QN2" t="n">
-        <v>1.102549335070422e-05</v>
+        <v>1.102549330689544e-05</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.003721194224681285</v>
+        <v>0.003721194224357911</v>
       </c>
       <c r="QP2" t="n">
-        <v>1.703937090633537e-05</v>
+        <v>1.703937090773427e-05</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.02408581986286474</v>
+        <v>0.02408581986504361</v>
       </c>
       <c r="QR2" t="n">
-        <v>90751.39234021273</v>
+        <v>90751.39270098224</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.173280701935947</v>
+        <v>1.173280706486327</v>
       </c>
       <c r="QT2" t="n">
-        <v>1.173280701935947</v>
+        <v>1.173280706486327</v>
       </c>
       <c r="QU2" t="n">
-        <v>318415.7283129534</v>
+        <v>318415.7283312707</v>
       </c>
       <c r="QV2" t="n">
-        <v>395764.1345302127</v>
+        <v>395764.1345560345</v>
       </c>
       <c r="QW2" t="n">
-        <v>3811.027277245629</v>
+        <v>3811.027276200941</v>
       </c>
       <c r="QX2" t="n">
-        <v>716.8090419900716</v>
+        <v>716.8090419919732</v>
       </c>
       <c r="QY2" t="n">
-        <v>1005.419714720073</v>
+        <v>1005.419714727823</v>
       </c>
       <c r="QZ2" t="n">
-        <v>329.2850255559278</v>
+        <v>329.2850255724126</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.9994186961904511</v>
+        <v>0.9994186961884776</v>
       </c>
       <c r="RB2" t="n">
-        <v>1.703937090633537e-05</v>
+        <v>1.703937090773427e-05</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.02408581986286474</v>
+        <v>0.02408581986504361</v>
       </c>
       <c r="RD2" t="inlineStr">
         <is>
@@ -10126,52 +10126,52 @@
         <v>1</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.02714087606809255</v>
+        <v>0.02714087610138263</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.000851408245498252</v>
+        <v>0.0008514082135670388</v>
       </c>
       <c r="RH2" t="n">
         <v>0.01389884222857662</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.08223654323996479</v>
+        <v>0.08223654300058375</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.04172633505358479</v>
+        <v>0.04172633501833782</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.165854004835717</v>
+        <v>0.1658540045624479</v>
       </c>
       <c r="RL2" t="n">
-        <v>2.402875875973098e-05</v>
+        <v>2.402869039494493e-05</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.534896026887191</v>
+        <v>0.5348959992698556</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.9432216374491977</v>
+        <v>0.9432216039467736</v>
       </c>
       <c r="RO2" t="n">
-        <v>389644.8702826801</v>
+        <v>389644.8670190744</v>
       </c>
       <c r="RP2" t="n">
-        <v>2.70827449475699</v>
+        <v>2.708274496393643</v>
       </c>
       <c r="RQ2" t="n">
-        <v>382101.5605649924</v>
+        <v>382101.5605909145</v>
       </c>
       <c r="RR2" t="n">
         <v>0</v>
       </c>
       <c r="RS2" t="n">
-        <v>350303.7468698663</v>
+        <v>350303.7495294621</v>
       </c>
       <c r="RT2" t="n">
-        <v>3800.7441233524</v>
+        <v>3800.744114722183</v>
       </c>
       <c r="RU2" t="n">
-        <v>4.282437173852124</v>
+        <v>4.282436868933786</v>
       </c>
     </row>
     <row r="3">
@@ -10179,7 +10179,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01761869845986777</v>
+        <v>0.01761869846142325</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -10188,25 +10188,25 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04914443526818029</v>
+        <v>0.04914443526823465</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0820432022672912</v>
+        <v>0.08204320226890102</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.10173953293824e-11</v>
+        <v>-4.463929226261598e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>80.71248350591549</v>
+        <v>80.71248350566333</v>
       </c>
       <c r="K3" t="n">
-        <v>80.71248350591549</v>
+        <v>80.71248350566333</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -10215,10 +10215,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>80.71248350591549</v>
+        <v>80.71248350566333</v>
       </c>
       <c r="O3" t="n">
-        <v>80.71248350591549</v>
+        <v>80.71248350566333</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -10227,97 +10227,97 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.3522750145418</v>
+        <v>292.3522750145621</v>
       </c>
       <c r="S3" t="n">
-        <v>132772.1796841183</v>
+        <v>132772.1796841503</v>
       </c>
       <c r="T3" t="n">
-        <v>1.582932747000207</v>
+        <v>1.582932747000479</v>
       </c>
       <c r="U3" t="n">
-        <v>334649.8439823661</v>
+        <v>334649.8439823805</v>
       </c>
       <c r="V3" t="n">
-        <v>418527.1785916431</v>
+        <v>418527.1785916633</v>
       </c>
       <c r="W3" t="n">
         <v>3782.917347723462</v>
       </c>
       <c r="X3" t="n">
-        <v>-687417.3142072879</v>
+        <v>-687417.3142073442</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7129007517426</v>
+        <v>717.7129007517436</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.647652845945</v>
+        <v>1006.647652845946</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402577063602408</v>
+        <v>1.402577063602407</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9994979633405102</v>
+        <v>0.9994979633405103</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.9081100794776</v>
+        <v>342.9081100794896</v>
       </c>
       <c r="AD3" t="n">
-        <v>186130.6856006082</v>
+        <v>186130.685600653</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.372569261071547e-06</v>
+        <v>5.372569261070253e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132706.2094702635</v>
+        <v>132706.2094702955</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.535442418194286e-06</v>
+        <v>7.535442418192468e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003433462124707711</v>
+        <v>0.003433462124707473</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.817140103498287e-05</v>
+        <v>1.817140103498387e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02582429250873407</v>
+        <v>0.0258242925087356</v>
       </c>
       <c r="AK3" t="n">
-        <v>132772.1796841183</v>
+        <v>132772.1796841503</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.582932747000207</v>
+        <v>1.582932747000479</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.582932747000207</v>
+        <v>1.582932747000479</v>
       </c>
       <c r="AN3" t="n">
-        <v>334649.8439823661</v>
+        <v>334649.8439823805</v>
       </c>
       <c r="AO3" t="n">
-        <v>418527.1785916431</v>
+        <v>418527.1785916633</v>
       </c>
       <c r="AP3" t="n">
         <v>3782.917347723462</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7129007517426</v>
+        <v>717.7129007517436</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.647652845945</v>
+        <v>1006.647652845946</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.9081100794776</v>
+        <v>342.9081100794896</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9994979633405102</v>
+        <v>0.9994979633405103</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.817140103498287e-05</v>
+        <v>1.817140103498387e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02582429250873407</v>
+        <v>0.0258242925087356</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -10331,10 +10331,10 @@
         <v>295.6000000001888</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137999.9999953529</v>
+        <v>137999.999995353</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.62714581975644</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="BB3" t="n">
         <v>336973.3475829663</v>
@@ -10364,16 +10364,16 @@
         <v>344.8092213941073</v>
       </c>
       <c r="BK3" t="n">
-        <v>193456.8974372415</v>
+        <v>193456.8974372416</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.169110087296864e-06</v>
+        <v>5.169110087296861e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>137934.66174619</v>
+        <v>137934.6617461901</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.249809346979613e-06</v>
+        <v>7.249809346979611e-06</v>
       </c>
       <c r="BO3" t="n">
         <v>0.003395798695744087</v>
@@ -10385,13 +10385,13 @@
         <v>0.02606863419707387</v>
       </c>
       <c r="BR3" t="n">
-        <v>137999.9999953529</v>
+        <v>137999.999995353</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.62714581975644</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.62714581975644</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="BU3" t="n">
         <v>336973.3475829663</v>
@@ -10432,10 +10432,10 @@
         <v>295.6000000001888</v>
       </c>
       <c r="CG3" t="n">
-        <v>137999.9999953529</v>
+        <v>137999.999995353</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.62714581975644</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="CI3" t="n">
         <v>336973.3475829663</v>
@@ -10465,16 +10465,16 @@
         <v>344.8092213941073</v>
       </c>
       <c r="CR3" t="n">
-        <v>193456.8974372415</v>
+        <v>193456.8974372416</v>
       </c>
       <c r="CS3" t="n">
-        <v>5.169110087296864e-06</v>
+        <v>5.169110087296861e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>137934.66174619</v>
+        <v>137934.6617461901</v>
       </c>
       <c r="CU3" t="n">
-        <v>7.249809346979613e-06</v>
+        <v>7.249809346979611e-06</v>
       </c>
       <c r="CV3" t="n">
         <v>0.003395798695744087</v>
@@ -10486,13 +10486,13 @@
         <v>0.02606863419707387</v>
       </c>
       <c r="CY3" t="n">
-        <v>137999.9999953529</v>
+        <v>137999.999995353</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.62714581975644</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.62714581975644</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="DB3" t="n">
         <v>336973.3475829663</v>
@@ -10530,16 +10530,16 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.235376420485384</v>
+        <v>0.2353764204846405</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.235376420485384</v>
+        <v>0.2353764204846405</v>
       </c>
       <c r="DO3" t="n">
-        <v>183929.9703389319</v>
+        <v>183929.9703383788</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.742859853989596</v>
+        <v>2.742859853981497</v>
       </c>
       <c r="DQ3" t="n">
         <v>421784.4310885898</v>
@@ -10548,121 +10548,121 @@
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>306.8418914851287</v>
+        <v>306.8418897659723</v>
       </c>
       <c r="DT3" t="n">
-        <v>125.3773415691188</v>
+        <v>125.3773408666617</v>
       </c>
       <c r="DU3" t="n">
-        <v>280.0579736255193</v>
+        <v>280.0579720564263</v>
       </c>
       <c r="DV3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW3" t="n">
-        <v>306.8418914851287</v>
+        <v>306.8418897659723</v>
       </c>
       <c r="DX3" t="n">
-        <v>125.3773415691188</v>
+        <v>125.3773408666617</v>
       </c>
       <c r="DY3" t="n">
-        <v>280.0579736255193</v>
+        <v>280.0579720564263</v>
       </c>
       <c r="DZ3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA3" t="n">
-        <v>248.6139878560031</v>
+        <v>248.6139883828099</v>
       </c>
       <c r="EB3" t="n">
-        <v>72670.28773619758</v>
+        <v>72670.28829726014</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.019019562413622</v>
+        <v>1.019019568120175</v>
       </c>
       <c r="ED3" t="n">
-        <v>303394.5298725535</v>
+        <v>303394.5302488334</v>
       </c>
       <c r="EE3" t="n">
-        <v>374708.457903604</v>
+        <v>374708.4584311133</v>
       </c>
       <c r="EF3" t="n">
-        <v>3793.461869567416</v>
+        <v>3793.461869474576</v>
       </c>
       <c r="EG3" t="n">
-        <v>-568399.2252692403</v>
+        <v>-568399.2267170714</v>
       </c>
       <c r="EH3" t="n">
-        <v>716.2663343031572</v>
+        <v>716.2663343147296</v>
       </c>
       <c r="EI3" t="n">
-        <v>1004.832375561199</v>
+        <v>1004.832375576811</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.402875337619746</v>
+        <v>1.402875337618875</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9992923632751249</v>
+        <v>0.9992923632767655</v>
       </c>
       <c r="EL3" t="n">
-        <v>316.18657499958</v>
+        <v>316.186575335001</v>
       </c>
       <c r="EM3" t="n">
-        <v>101875.4109957198</v>
+        <v>101875.411782372</v>
       </c>
       <c r="EN3" t="n">
-        <v>9.815911319778762e-06</v>
+        <v>9.815911243983165e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>72619.00488504668</v>
+        <v>72619.00544583444</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.377049990678011e-05</v>
+        <v>1.37704998004398e-05</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.004035765699064824</v>
+        <v>0.004035765690534703</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.596159554659756e-05</v>
+        <v>1.596159557409317e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.02244419788462008</v>
+        <v>0.02244419792637634</v>
       </c>
       <c r="ET3" t="n">
-        <v>72670.28773619758</v>
+        <v>72670.28829726014</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.019019562413622</v>
+        <v>1.019019568120175</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.019019562413622</v>
+        <v>1.019019568120175</v>
       </c>
       <c r="EW3" t="n">
-        <v>303394.5298725535</v>
+        <v>303394.5302488334</v>
       </c>
       <c r="EX3" t="n">
-        <v>374708.457903604</v>
+        <v>374708.4584311133</v>
       </c>
       <c r="EY3" t="n">
-        <v>3793.461869567416</v>
+        <v>3793.461869474576</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.2663343031572</v>
+        <v>716.2663343147296</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.832375561199</v>
+        <v>1004.832375576811</v>
       </c>
       <c r="FB3" t="n">
-        <v>316.18657499958</v>
+        <v>316.186575335001</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9992923632751249</v>
+        <v>0.9992923632767655</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.596159554659756e-05</v>
+        <v>1.596159557409317e-05</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.02244419788462008</v>
+        <v>0.02244419792637634</v>
       </c>
       <c r="FF3" t="inlineStr">
         <is>
@@ -10673,97 +10673,97 @@
         <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>295.5884537392362</v>
+        <v>295.5884537391357</v>
       </c>
       <c r="FI3" t="n">
-        <v>133020.3588446753</v>
+        <v>133020.3588874033</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.568465980178841</v>
+        <v>1.56846598068342</v>
       </c>
       <c r="FK3" t="n">
-        <v>336975.2222657435</v>
+        <v>336975.2222655839</v>
       </c>
       <c r="FL3" t="n">
-        <v>421784.4310886903</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="FM3" t="n">
-        <v>3793.461869574849</v>
+        <v>3793.461869482007</v>
       </c>
       <c r="FN3" t="n">
-        <v>-699519.0972576912</v>
+        <v>-699519.0972300682</v>
       </c>
       <c r="FO3" t="n">
-        <v>717.850265671669</v>
+        <v>717.8502656717717</v>
       </c>
       <c r="FP3" t="n">
-        <v>1006.739822662367</v>
+        <v>1006.739822663063</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.402437069129442</v>
+        <v>1.402437069130211</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.9995380147662738</v>
+        <v>0.9995380147661258</v>
       </c>
       <c r="FS3" t="n">
-        <v>344.7973817654865</v>
+        <v>344.7973817654719</v>
       </c>
       <c r="FT3" t="n">
-        <v>186467.4458154417</v>
+        <v>186467.4458754128</v>
       </c>
       <c r="FU3" t="n">
-        <v>5.362866400764461e-06</v>
+        <v>5.36286639903967e-06</v>
       </c>
       <c r="FV3" t="n">
-        <v>132959.5815170449</v>
+        <v>132959.5815597341</v>
       </c>
       <c r="FW3" t="n">
-        <v>7.521082637220872e-06</v>
+        <v>7.521082634806087e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.003395470178521202</v>
+        <v>0.003395470178526341</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.832867335238263e-05</v>
+        <v>1.832867335238392e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.02606617654990562</v>
+        <v>0.02606617654991182</v>
       </c>
       <c r="GA3" t="n">
-        <v>133020.3588446753</v>
+        <v>133020.3588874033</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.568465980178841</v>
+        <v>1.56846598068342</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.568465980178841</v>
+        <v>1.56846598068342</v>
       </c>
       <c r="GD3" t="n">
-        <v>336975.2222657435</v>
+        <v>336975.2222655839</v>
       </c>
       <c r="GE3" t="n">
-        <v>421784.4310886903</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="GF3" t="n">
-        <v>3793.461869574849</v>
+        <v>3793.461869482007</v>
       </c>
       <c r="GG3" t="n">
-        <v>717.850265671669</v>
+        <v>717.8502656717717</v>
       </c>
       <c r="GH3" t="n">
-        <v>1006.739822662367</v>
+        <v>1006.739822663063</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.7973817654865</v>
+        <v>344.7973817654719</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.9995380147662738</v>
+        <v>0.9995380147661258</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.832867335238263e-05</v>
+        <v>1.832867335238392e-05</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.02606617654990562</v>
+        <v>0.02606617654991182</v>
       </c>
       <c r="GM3" t="inlineStr">
         <is>
@@ -10774,97 +10774,97 @@
         <v>1</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.5884537392362</v>
+        <v>295.5884537391357</v>
       </c>
       <c r="GP3" t="n">
-        <v>133020.3588446753</v>
+        <v>133020.3588874033</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.568465980178841</v>
+        <v>1.56846598068342</v>
       </c>
       <c r="GR3" t="n">
-        <v>336975.2222657435</v>
+        <v>336975.2222655839</v>
       </c>
       <c r="GS3" t="n">
-        <v>421784.4310886903</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="GT3" t="n">
-        <v>3793.461869574849</v>
+        <v>3793.461869482007</v>
       </c>
       <c r="GU3" t="n">
-        <v>-699519.0972576912</v>
+        <v>-699519.0972300682</v>
       </c>
       <c r="GV3" t="n">
-        <v>717.850265671669</v>
+        <v>717.8502656717717</v>
       </c>
       <c r="GW3" t="n">
-        <v>1006.739822662367</v>
+        <v>1006.739822663063</v>
       </c>
       <c r="GX3" t="n">
-        <v>1.402437069129442</v>
+        <v>1.402437069130211</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.9995380147662738</v>
+        <v>0.9995380147661258</v>
       </c>
       <c r="GZ3" t="n">
-        <v>344.7973817654865</v>
+        <v>344.7973817654719</v>
       </c>
       <c r="HA3" t="n">
-        <v>186467.4458154417</v>
+        <v>186467.4458754128</v>
       </c>
       <c r="HB3" t="n">
-        <v>5.362866400764461e-06</v>
+        <v>5.36286639903967e-06</v>
       </c>
       <c r="HC3" t="n">
-        <v>132959.5815170449</v>
+        <v>132959.5815597341</v>
       </c>
       <c r="HD3" t="n">
-        <v>7.521082637220872e-06</v>
+        <v>7.521082634806087e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.003395470178521202</v>
+        <v>0.003395470178526341</v>
       </c>
       <c r="HF3" t="n">
-        <v>1.832867335238263e-05</v>
+        <v>1.832867335238392e-05</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.02606617654990562</v>
+        <v>0.02606617654991182</v>
       </c>
       <c r="HH3" t="n">
-        <v>133020.3588446753</v>
+        <v>133020.3588874033</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.568465980178841</v>
+        <v>1.56846598068342</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.568465980178841</v>
+        <v>1.56846598068342</v>
       </c>
       <c r="HK3" t="n">
-        <v>336975.2222657435</v>
+        <v>336975.2222655839</v>
       </c>
       <c r="HL3" t="n">
-        <v>421784.4310886903</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="HM3" t="n">
-        <v>3793.461869574849</v>
+        <v>3793.461869482007</v>
       </c>
       <c r="HN3" t="n">
-        <v>717.850265671669</v>
+        <v>717.8502656717717</v>
       </c>
       <c r="HO3" t="n">
-        <v>1006.739822662367</v>
+        <v>1006.739822663063</v>
       </c>
       <c r="HP3" t="n">
-        <v>344.7973817654865</v>
+        <v>344.7973817654719</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9995380147662738</v>
+        <v>0.9995380147661258</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.832867335238263e-05</v>
+        <v>1.832867335238392e-05</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.02606617654990562</v>
+        <v>0.02606617654991182</v>
       </c>
       <c r="HT3" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>1</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.0179540785704902</v>
+        <v>0.01795407856517706</v>
       </c>
       <c r="HW3" t="n">
         <v>0</v>
@@ -10884,28 +10884,28 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.04927004795970608</v>
+        <v>0.04927004795517583</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.0825041950694394</v>
+        <v>0.08250419505959602</v>
       </c>
       <c r="IB3" t="n">
-        <v>8.402787341321716e-06</v>
+        <v>8.402797867221312e-06</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.9704456664092596</v>
+        <v>0.9704456599426212</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.9704456664092596</v>
+        <v>0.9704456599426212</v>
       </c>
       <c r="IE3" t="n">
-        <v>512458.3929153105</v>
+        <v>512458.3920311601</v>
       </c>
       <c r="IF3" t="n">
-        <v>2.742849774753807</v>
+        <v>2.7428497747464</v>
       </c>
       <c r="IG3" t="n">
         <v>421784.4310885898</v>
@@ -10914,154 +10914,154 @@
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>372100.6491673137</v>
+        <v>372100.6497121374</v>
       </c>
       <c r="IJ3" t="n">
-        <v>2113.446621802752</v>
+        <v>2113.446610152314</v>
       </c>
       <c r="IK3" t="n">
         <v>0</v>
       </c>
       <c r="IL3" t="n">
-        <v>0.02707894889879492</v>
+        <v>0.02707894868489007</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.0007370771344905582</v>
+        <v>0.0007370770870337044</v>
       </c>
       <c r="IN3" t="n">
-        <v>0.01389216954609584</v>
+        <v>0.01389216955082628</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.08157447961587821</v>
+        <v>0.08157447916786138</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.04147531816282472</v>
+        <v>0.04147531806217205</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.1647579933580842</v>
+        <v>0.1647579925527835</v>
       </c>
       <c r="IR3" t="n">
-        <v>4.356256466664377e-10</v>
+        <v>1.566766161253952e-11</v>
       </c>
       <c r="IS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IT3" t="n">
-        <v>263.7260042349033</v>
+        <v>263.7260042522392</v>
       </c>
       <c r="IU3" t="n">
-        <v>108.79703493752</v>
+        <v>108.797034936383</v>
       </c>
       <c r="IV3" t="n">
-        <v>240.2386532149068</v>
+        <v>240.2386532344526</v>
       </c>
       <c r="IW3" t="n">
-        <v>65.63562325199584</v>
+        <v>65.63562325397265</v>
       </c>
       <c r="IX3" t="n">
-        <v>132.1064607039316</v>
+        <v>132.1064607140823</v>
       </c>
       <c r="IY3" t="n">
-        <v>108.79703493752</v>
+        <v>108.797034936383</v>
       </c>
       <c r="IZ3" t="n">
-        <v>74.93545321490683</v>
+        <v>74.93545323445261</v>
       </c>
       <c r="JA3" t="n">
-        <v>34.55766177141731</v>
+        <v>34.55766177867844</v>
       </c>
       <c r="JB3" t="n">
-        <v>260.8965732817165</v>
+        <v>260.8965732775009</v>
       </c>
       <c r="JC3" t="n">
-        <v>86724.35687129694</v>
+        <v>86724.35688026191</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.158791009914572</v>
+        <v>1.158791010053229</v>
       </c>
       <c r="JE3" t="n">
-        <v>312168.3507215109</v>
+        <v>312168.3507184649</v>
       </c>
       <c r="JF3" t="n">
-        <v>387008.7284335285</v>
+        <v>387008.7284292639</v>
       </c>
       <c r="JG3" t="n">
-        <v>3791.03782907162</v>
+        <v>3791.03782902562</v>
       </c>
       <c r="JH3" t="n">
-        <v>-602060.0503526151</v>
+        <v>-602060.0503288966</v>
       </c>
       <c r="JI3" t="n">
-        <v>716.5707622948842</v>
+        <v>716.5707622948167</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1005.233646361973</v>
+        <v>1005.233646362135</v>
       </c>
       <c r="JK3" t="n">
-        <v>1.402839327608929</v>
+        <v>1.402839327609287</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.9993356156811012</v>
+        <v>0.9993356156809767</v>
       </c>
       <c r="JM3" t="n">
-        <v>323.9128725783875</v>
+        <v>323.9128725757716</v>
       </c>
       <c r="JN3" t="n">
-        <v>121579.8301709648</v>
+        <v>121579.8301835488</v>
       </c>
       <c r="JO3" t="n">
-        <v>8.225048501826382e-06</v>
+        <v>8.225048500975056e-06</v>
       </c>
       <c r="JP3" t="n">
-        <v>86666.96732703644</v>
+        <v>86666.96733598474</v>
       </c>
       <c r="JQ3" t="n">
-        <v>1.153842150985295e-05</v>
+        <v>1.153842150866162e-05</v>
       </c>
       <c r="JR3" t="n">
-        <v>0.003846245883048404</v>
+        <v>0.003846245883112558</v>
       </c>
       <c r="JS3" t="n">
-        <v>1.659665537622479e-05</v>
+        <v>1.659665537601103e-05</v>
       </c>
       <c r="JT3" t="n">
-        <v>0.02341062006505472</v>
+        <v>0.0234106200647306</v>
       </c>
       <c r="JU3" t="n">
-        <v>86724.35687129694</v>
+        <v>86724.35688026191</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.158791009914572</v>
+        <v>1.158791010053229</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.158791009914572</v>
+        <v>1.158791010053229</v>
       </c>
       <c r="JX3" t="n">
-        <v>312168.3507215109</v>
+        <v>312168.3507184649</v>
       </c>
       <c r="JY3" t="n">
-        <v>387008.7284335285</v>
+        <v>387008.7284292639</v>
       </c>
       <c r="JZ3" t="n">
-        <v>3791.03782907162</v>
+        <v>3791.03782902562</v>
       </c>
       <c r="KA3" t="n">
-        <v>716.5707622948842</v>
+        <v>716.5707622948167</v>
       </c>
       <c r="KB3" t="n">
-        <v>1005.233646361973</v>
+        <v>1005.233646362135</v>
       </c>
       <c r="KC3" t="n">
-        <v>323.9128725783875</v>
+        <v>323.9128725757716</v>
       </c>
       <c r="KD3" t="n">
-        <v>0.9993356156811012</v>
+        <v>0.9993356156809767</v>
       </c>
       <c r="KE3" t="n">
-        <v>1.659665537622479e-05</v>
+        <v>1.659665537601103e-05</v>
       </c>
       <c r="KF3" t="n">
-        <v>0.02341062006505472</v>
+        <v>0.0234106200647306</v>
       </c>
       <c r="KG3" t="inlineStr">
         <is>
@@ -11072,97 +11072,97 @@
         <v>1</v>
       </c>
       <c r="KI3" t="n">
-        <v>295.5910708745504</v>
+        <v>295.5910708747082</v>
       </c>
       <c r="KJ3" t="n">
-        <v>134148.9565326427</v>
+        <v>134148.956557671</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.581765547475378</v>
+        <v>1.581765547769777</v>
       </c>
       <c r="KL3" t="n">
-        <v>336974.797482071</v>
+        <v>336974.7974821331</v>
       </c>
       <c r="KM3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KN3" t="n">
-        <v>3791.037829084035</v>
+        <v>3791.037829030844</v>
       </c>
       <c r="KO3" t="n">
-        <v>-698812.5005363914</v>
+        <v>-698812.5005211666</v>
       </c>
       <c r="KP3" t="n">
-        <v>717.8532055402645</v>
+        <v>717.8532055403339</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1006.758353831932</v>
+        <v>1006.758353832346</v>
       </c>
       <c r="KR3" t="n">
-        <v>1.402457140348401</v>
+        <v>1.402457140348842</v>
       </c>
       <c r="KS3" t="n">
-        <v>0.9995341712883311</v>
+        <v>0.9995341712882472</v>
       </c>
       <c r="KT3" t="n">
-        <v>344.8000645105732</v>
+        <v>344.8000645106908</v>
       </c>
       <c r="KU3" t="n">
-        <v>188051.4942805329</v>
+        <v>188051.4943156615</v>
       </c>
       <c r="KV3" t="n">
-        <v>5.317692389661165e-06</v>
+        <v>5.317692388667804e-06</v>
       </c>
       <c r="KW3" t="n">
-        <v>134087.1595076459</v>
+        <v>134087.1595326516</v>
       </c>
       <c r="KX3" t="n">
-        <v>7.45783566205665e-06</v>
+        <v>7.457835660665849e-06</v>
       </c>
       <c r="KY3" t="n">
-        <v>0.003395544649991416</v>
+        <v>0.003395544649991909</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1.832896306782305e-05</v>
+        <v>1.83289630678343e-05</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.02606673348871886</v>
+        <v>0.02606673348873864</v>
       </c>
       <c r="LB3" t="n">
-        <v>134148.9565326427</v>
+        <v>134148.956557671</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.581765547475378</v>
+        <v>1.581765547769777</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.581765547475378</v>
+        <v>1.581765547769777</v>
       </c>
       <c r="LE3" t="n">
-        <v>336974.797482071</v>
+        <v>336974.7974821331</v>
       </c>
       <c r="LF3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="LG3" t="n">
-        <v>3791.037829084035</v>
+        <v>3791.037829030844</v>
       </c>
       <c r="LH3" t="n">
-        <v>717.8532055402645</v>
+        <v>717.8532055403339</v>
       </c>
       <c r="LI3" t="n">
-        <v>1006.758353831932</v>
+        <v>1006.758353832346</v>
       </c>
       <c r="LJ3" t="n">
-        <v>344.8000645105732</v>
+        <v>344.8000645106908</v>
       </c>
       <c r="LK3" t="n">
-        <v>0.9995341712883311</v>
+        <v>0.9995341712882472</v>
       </c>
       <c r="LL3" t="n">
-        <v>1.832896306782305e-05</v>
+        <v>1.83289630678343e-05</v>
       </c>
       <c r="LM3" t="n">
-        <v>0.02606673348871886</v>
+        <v>0.02606673348873864</v>
       </c>
       <c r="LN3" t="inlineStr">
         <is>
@@ -11173,97 +11173,97 @@
         <v>1</v>
       </c>
       <c r="LP3" t="n">
-        <v>269.6062653671515</v>
+        <v>269.6062653639777</v>
       </c>
       <c r="LQ3" t="n">
-        <v>97263.52459999715</v>
+        <v>97263.5246139683</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.257576519414321</v>
+        <v>1.257576519609931</v>
       </c>
       <c r="LS3" t="n">
-        <v>318392.7539649403</v>
+        <v>318392.7539626301</v>
       </c>
       <c r="LT3" t="n">
-        <v>395734.7869135951</v>
+        <v>395734.7869103644</v>
       </c>
       <c r="LU3" t="n">
-        <v>3791.037829078809</v>
+        <v>3791.03782902562</v>
       </c>
       <c r="LV3" t="n">
-        <v>-626352.7640499364</v>
+        <v>-626352.7640267947</v>
       </c>
       <c r="LW3" t="n">
-        <v>716.8294850124521</v>
+        <v>716.8294850124081</v>
       </c>
       <c r="LX3" t="n">
-        <v>1005.552545558084</v>
+        <v>1005.552545558327</v>
       </c>
       <c r="LY3" t="n">
-        <v>1.402777880349908</v>
+        <v>1.402777880350334</v>
       </c>
       <c r="LZ3" t="n">
-        <v>0.9993770519442616</v>
+        <v>0.9993770519441311</v>
       </c>
       <c r="MA3" t="n">
-        <v>329.28172084471</v>
+        <v>329.281720842779</v>
       </c>
       <c r="MB3" t="n">
-        <v>136354.5597192649</v>
+        <v>136354.559738875</v>
       </c>
       <c r="MC3" t="n">
-        <v>7.33382148758986e-06</v>
+        <v>7.333821486535136e-06</v>
       </c>
       <c r="MD3" t="n">
-        <v>97203.24338536958</v>
+        <v>97203.24339931944</v>
       </c>
       <c r="ME3" t="n">
-        <v>1.028772256122591e-05</v>
+        <v>1.02877225597495e-05</v>
       </c>
       <c r="MF3" t="n">
-        <v>0.003722224624733814</v>
+        <v>0.003722224624779973</v>
       </c>
       <c r="MG3" t="n">
-        <v>1.703980595941216e-05</v>
+        <v>1.703980595925444e-05</v>
       </c>
       <c r="MH3" t="n">
-        <v>0.02408727595848532</v>
+        <v>0.02408727595824634</v>
       </c>
       <c r="MI3" t="n">
-        <v>97263.52459999715</v>
+        <v>97263.5246139683</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.257576519414321</v>
+        <v>1.257576519609931</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.257576519414321</v>
+        <v>1.257576519609931</v>
       </c>
       <c r="ML3" t="n">
-        <v>318392.7539649403</v>
+        <v>318392.7539626301</v>
       </c>
       <c r="MM3" t="n">
-        <v>395734.7869135951</v>
+        <v>395734.7869103644</v>
       </c>
       <c r="MN3" t="n">
-        <v>3791.037829078809</v>
+        <v>3791.03782902562</v>
       </c>
       <c r="MO3" t="n">
-        <v>716.8294850124521</v>
+        <v>716.8294850124081</v>
       </c>
       <c r="MP3" t="n">
-        <v>1005.552545558084</v>
+        <v>1005.552545558327</v>
       </c>
       <c r="MQ3" t="n">
-        <v>329.28172084471</v>
+        <v>329.281720842779</v>
       </c>
       <c r="MR3" t="n">
-        <v>0.9993770519442616</v>
+        <v>0.9993770519441311</v>
       </c>
       <c r="MS3" t="n">
-        <v>1.703980595941216e-05</v>
+        <v>1.703980595925444e-05</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.02408727595848532</v>
+        <v>0.02408727595824634</v>
       </c>
       <c r="MU3" t="inlineStr">
         <is>
@@ -11274,139 +11274,139 @@
         <v>1</v>
       </c>
       <c r="MW3" t="n">
-        <v>0.8141880936549724</v>
+        <v>0.8141880937150682</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.4078456643366701</v>
+        <v>0.4078456643713017</v>
       </c>
       <c r="MY3" t="n">
-        <v>240371.5200868043</v>
+        <v>240371.5201371317</v>
       </c>
       <c r="MZ3" t="n">
-        <v>2.70659091965115</v>
+        <v>2.706590919946726</v>
       </c>
       <c r="NA3" t="n">
-        <v>382072.212948375</v>
+        <v>382072.2129452444</v>
       </c>
       <c r="NB3" t="n">
         <v>165.3032</v>
       </c>
       <c r="NC3" t="n">
-        <v>162.2027623761609</v>
+        <v>162.2027544437116</v>
       </c>
       <c r="ND3" t="n">
-        <v>137.994121447827</v>
+        <v>137.9941170531477</v>
       </c>
       <c r="NE3" t="n">
-        <v>-85.24880391125552</v>
+        <v>-85.24879593196118</v>
       </c>
       <c r="NF3" t="n">
-        <v>-31.70658098903364</v>
+        <v>-31.70657940700401</v>
       </c>
       <c r="NG3" t="n">
-        <v>286.0396549748014</v>
+        <v>286.0396458653369</v>
       </c>
       <c r="NH3" t="n">
-        <v>137.994121447827</v>
+        <v>137.9941170531477</v>
       </c>
       <c r="NI3" t="n">
-        <v>-250.5520039112555</v>
+        <v>-250.5519959319612</v>
       </c>
       <c r="NJ3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NK3" t="n">
-        <v>228.7445793993504</v>
+        <v>228.7445819991386</v>
       </c>
       <c r="NL3" t="n">
-        <v>51101.27167239278</v>
+        <v>51101.27388725001</v>
       </c>
       <c r="NM3" t="n">
-        <v>0.7788201561547649</v>
+        <v>0.7788201810569605</v>
       </c>
       <c r="NN3" t="n">
-        <v>289211.7453277698</v>
+        <v>289211.7471841939</v>
       </c>
       <c r="NO3" t="n">
-        <v>354825.4448045436</v>
+        <v>354825.4474068806</v>
       </c>
       <c r="NP3" t="n">
-        <v>3811.113740579088</v>
+        <v>3811.113739523215</v>
       </c>
       <c r="NQ3" t="n">
-        <v>-516946.164827305</v>
+        <v>-516946.1718915313</v>
       </c>
       <c r="NR3" t="n">
-        <v>715.8960653794668</v>
+        <v>715.8960654171038</v>
       </c>
       <c r="NS3" t="n">
-        <v>1004.247336011896</v>
+        <v>1004.247336070375</v>
       </c>
       <c r="NT3" t="n">
-        <v>1.402783706430327</v>
+        <v>1.402783706438264</v>
       </c>
       <c r="NU3" t="n">
-        <v>0.9992806636165317</v>
+        <v>0.9992806636193159</v>
       </c>
       <c r="NV3" t="n">
-        <v>303.2749741887193</v>
+        <v>303.2749759138663</v>
       </c>
       <c r="NW3" t="n">
-        <v>71632.53680063305</v>
+        <v>71632.53990597815</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.396013661757072e-05</v>
+        <v>1.396013601238429e-05</v>
       </c>
       <c r="NY3" t="n">
-        <v>51064.5628918209</v>
+        <v>51064.56510523393</v>
       </c>
       <c r="NZ3" t="n">
-        <v>1.958305218666959e-05</v>
+        <v>1.958305133783473e-05</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.004384744692465508</v>
+        <v>0.004384744642776904</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.490768022027626e-05</v>
+        <v>1.490768036033291e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>0.02084864750132849</v>
+        <v>0.02084864771259508</v>
       </c>
       <c r="OD3" t="n">
-        <v>51101.27167239278</v>
+        <v>51101.27388725001</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.7788201561547649</v>
+        <v>0.7788201810569605</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.7788201561547649</v>
+        <v>0.7788201810569605</v>
       </c>
       <c r="OG3" t="n">
-        <v>289211.7453277698</v>
+        <v>289211.7471841939</v>
       </c>
       <c r="OH3" t="n">
-        <v>354825.4448045436</v>
+        <v>354825.4474068806</v>
       </c>
       <c r="OI3" t="n">
-        <v>3811.113740579088</v>
+        <v>3811.113739523215</v>
       </c>
       <c r="OJ3" t="n">
-        <v>715.8960653794668</v>
+        <v>715.8960654171038</v>
       </c>
       <c r="OK3" t="n">
-        <v>1004.247336011896</v>
+        <v>1004.247336070375</v>
       </c>
       <c r="OL3" t="n">
-        <v>303.2749741887193</v>
+        <v>303.2749759138663</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.9992806636165317</v>
+        <v>0.9992806636193159</v>
       </c>
       <c r="ON3" t="n">
-        <v>1.490768022027626e-05</v>
+        <v>1.490768036033291e-05</v>
       </c>
       <c r="OO3" t="n">
-        <v>0.02084864750132849</v>
+        <v>0.02084864771259508</v>
       </c>
       <c r="OP3" t="inlineStr">
         <is>
@@ -11417,97 +11417,97 @@
         <v>1</v>
       </c>
       <c r="OR3" t="n">
-        <v>241.8817791884305</v>
+        <v>241.8817805031914</v>
       </c>
       <c r="OS3" t="n">
-        <v>62100.24911914473</v>
+        <v>62100.25052546018</v>
       </c>
       <c r="OT3" t="n">
-        <v>0.895019003026584</v>
+        <v>0.8950190184289999</v>
       </c>
       <c r="OU3" t="n">
-        <v>298596.0328570267</v>
+        <v>298596.033795667</v>
       </c>
       <c r="OV3" t="n">
-        <v>367980.3128657721</v>
+        <v>367980.3141816445</v>
       </c>
       <c r="OW3" t="n">
-        <v>3811.113740571438</v>
+        <v>3811.113739515566</v>
       </c>
       <c r="OX3" t="n">
-        <v>-553858.6593931221</v>
+        <v>-553858.6628325564</v>
       </c>
       <c r="OY3" t="n">
-        <v>716.1121939822249</v>
+        <v>716.1121940081152</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1004.545337450194</v>
+        <v>1004.545337489437</v>
       </c>
       <c r="PA3" t="n">
-        <v>1.402776472585981</v>
+        <v>1.402776472590066</v>
       </c>
       <c r="PB3" t="n">
-        <v>0.9993133781967747</v>
+        <v>0.9993133781980745</v>
       </c>
       <c r="PC3" t="n">
-        <v>311.8716834030948</v>
+        <v>311.8716842515615</v>
       </c>
       <c r="PD3" t="n">
-        <v>87053.08079263753</v>
+        <v>87053.08276440417</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.148724422955258e-05</v>
+        <v>1.148724396936461e-05</v>
       </c>
       <c r="PF3" t="n">
-        <v>62057.69949374576</v>
+        <v>62057.70089918219</v>
       </c>
       <c r="PG3" t="n">
-        <v>1.611403594006544e-05</v>
+        <v>1.61140355751268e-05</v>
       </c>
       <c r="PH3" t="n">
-        <v>0.004147050237730794</v>
+        <v>0.004147050215279758</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.560778221752671e-05</v>
+        <v>1.560778228689401e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>0.02190692591477954</v>
+        <v>0.02190692601990718</v>
       </c>
       <c r="PK3" t="n">
-        <v>62100.24911914473</v>
+        <v>62100.25052546018</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.895019003026584</v>
+        <v>0.8950190184289999</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.895019003026584</v>
+        <v>0.8950190184289999</v>
       </c>
       <c r="PN3" t="n">
-        <v>298596.0328570267</v>
+        <v>298596.033795667</v>
       </c>
       <c r="PO3" t="n">
-        <v>367980.3128657721</v>
+        <v>367980.3141816445</v>
       </c>
       <c r="PP3" t="n">
-        <v>3811.113740571438</v>
+        <v>3811.113739515566</v>
       </c>
       <c r="PQ3" t="n">
-        <v>716.1121939822249</v>
+        <v>716.1121940081152</v>
       </c>
       <c r="PR3" t="n">
-        <v>1004.545337450194</v>
+        <v>1004.545337489437</v>
       </c>
       <c r="PS3" t="n">
-        <v>311.8716834030948</v>
+        <v>311.8716842515615</v>
       </c>
       <c r="PT3" t="n">
-        <v>0.9993133781967747</v>
+        <v>0.9993133781980745</v>
       </c>
       <c r="PU3" t="n">
-        <v>1.560778221752671e-05</v>
+        <v>1.560778228689401e-05</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.02190692591477954</v>
+        <v>0.02190692601990718</v>
       </c>
       <c r="PW3" t="inlineStr">
         <is>
@@ -11518,97 +11518,97 @@
         <v>1</v>
       </c>
       <c r="PY3" t="n">
-        <v>269.5878847608724</v>
+        <v>269.5878847584818</v>
       </c>
       <c r="PZ3" t="n">
-        <v>90689.6269789831</v>
+        <v>90689.62730886112</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.172609827388195</v>
+        <v>1.172609831666394</v>
       </c>
       <c r="QB3" t="n">
-        <v>318394.8014719075</v>
+        <v>318394.8014694271</v>
       </c>
       <c r="QC3" t="n">
-        <v>395734.7869135953</v>
+        <v>395734.786910264</v>
       </c>
       <c r="QD3" t="n">
-        <v>3811.113740568416</v>
+        <v>3811.113739512542</v>
       </c>
       <c r="QE3" t="n">
-        <v>-631695.3049893404</v>
+        <v>-631695.3046989097</v>
       </c>
       <c r="QF3" t="n">
-        <v>716.8080181727205</v>
+        <v>716.8080181737046</v>
       </c>
       <c r="QG3" t="n">
-        <v>1005.418031196129</v>
+        <v>1005.418031202832</v>
       </c>
       <c r="QH3" t="n">
-        <v>1.402632233047742</v>
+        <v>1.402632233055167</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.99941873114094</v>
+        <v>0.9994187311388066</v>
       </c>
       <c r="QJ3" t="n">
-        <v>329.2670654320602</v>
+        <v>329.2670654307722</v>
       </c>
       <c r="QK3" t="n">
-        <v>127130.6055775092</v>
+        <v>127130.6060403431</v>
       </c>
       <c r="QL3" t="n">
-        <v>7.865926504930543e-06</v>
+        <v>7.865926476293709e-06</v>
       </c>
       <c r="QM3" t="n">
-        <v>90637.16245937858</v>
+        <v>90637.16278887408</v>
       </c>
       <c r="QN3" t="n">
-        <v>1.103300205860015e-05</v>
+        <v>1.103300201849161e-05</v>
       </c>
       <c r="QO3" t="n">
-        <v>0.003721595140982036</v>
+        <v>0.003721595141059818</v>
       </c>
       <c r="QP3" t="n">
-        <v>1.70378828020046e-05</v>
+        <v>1.703788280193423e-05</v>
       </c>
       <c r="QQ3" t="n">
-        <v>0.02408354121035778</v>
+        <v>0.02408354121029049</v>
       </c>
       <c r="QR3" t="n">
-        <v>90689.6269789831</v>
+        <v>90689.62730886112</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.172609827388195</v>
+        <v>1.172609831666394</v>
       </c>
       <c r="QT3" t="n">
-        <v>1.172609827388195</v>
+        <v>1.172609831666394</v>
       </c>
       <c r="QU3" t="n">
-        <v>318394.8014719075</v>
+        <v>318394.8014694271</v>
       </c>
       <c r="QV3" t="n">
-        <v>395734.7869135953</v>
+        <v>395734.786910264</v>
       </c>
       <c r="QW3" t="n">
-        <v>3811.113740568416</v>
+        <v>3811.113739512542</v>
       </c>
       <c r="QX3" t="n">
-        <v>716.8080181727205</v>
+        <v>716.8080181737046</v>
       </c>
       <c r="QY3" t="n">
-        <v>1005.418031196129</v>
+        <v>1005.418031202832</v>
       </c>
       <c r="QZ3" t="n">
-        <v>329.2670654320602</v>
+        <v>329.2670654307722</v>
       </c>
       <c r="RA3" t="n">
-        <v>0.99941873114094</v>
+        <v>0.9994187311388066</v>
       </c>
       <c r="RB3" t="n">
-        <v>1.70378828020046e-05</v>
+        <v>1.703788280193423e-05</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.02408354121035778</v>
+        <v>0.02408354121029049</v>
       </c>
       <c r="RD3" t="inlineStr">
         <is>
@@ -11619,52 +11619,52 @@
         <v>1</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.02716239619800924</v>
+        <v>0.02716239625512719</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.0008657269053772164</v>
+        <v>0.000865726886385688</v>
       </c>
       <c r="RH3" t="n">
         <v>0.01389884222857662</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.08233925525081612</v>
+        <v>0.08233925510616719</v>
       </c>
       <c r="RJ3" t="n">
-        <v>0.04176601952192597</v>
+        <v>0.04176601952648935</v>
       </c>
       <c r="RK3" t="n">
-        <v>0.1660322401047052</v>
+        <v>0.166032240002746</v>
       </c>
       <c r="RL3" t="n">
-        <v>2.410582178319354e-05</v>
+        <v>2.410578905745475e-05</v>
       </c>
       <c r="RM3" t="n">
-        <v>0.5348372802934502</v>
+        <v>0.5348372510951219</v>
       </c>
       <c r="RN3" t="n">
-        <v>0.9431693325173846</v>
+        <v>0.9431692971152871</v>
       </c>
       <c r="RO3" t="n">
-        <v>389428.5354089672</v>
+        <v>389428.5317999244</v>
       </c>
       <c r="RP3" t="n">
-        <v>2.706564320450452</v>
+        <v>2.706564320795259</v>
       </c>
       <c r="RQ3" t="n">
-        <v>382072.212948375</v>
+        <v>382072.2129452444</v>
       </c>
       <c r="RR3" t="n">
         <v>0</v>
       </c>
       <c r="RS3" t="n">
-        <v>350278.7861234809</v>
+        <v>350278.7889005712</v>
       </c>
       <c r="RT3" t="n">
-        <v>4015.781426294532</v>
+        <v>4015.781409469957</v>
       </c>
       <c r="RU3" t="n">
-        <v>4.598004755296628</v>
+        <v>4.598004520197598</v>
       </c>
     </row>
   </sheetData>
@@ -11703,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4281822277916135</v>
+        <v>0.4281822337362667</v>
       </c>
     </row>
     <row r="3">
@@ -11711,7 +11711,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4488754868715581</v>
+        <v>0.4488754918207886</v>
       </c>
     </row>
   </sheetData>
@@ -12808,16 +12808,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>6.822026668466585e-09</v>
+        <v>3.986573756120819e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12839,16 +12839,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H3" t="n">
-        <v>5.543443180015038e-08</v>
+        <v>9.854389157112339e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
